--- a/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9404456140526607</v>
+        <v>0.9404456140526604</v>
       </c>
       <c r="D2">
         <v>1.02663249589612</v>
       </c>
       <c r="E2">
-        <v>0.9578413321860486</v>
+        <v>0.9578413321860487</v>
       </c>
       <c r="F2">
-        <v>0.9802278101287392</v>
+        <v>0.9802278101287388</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.048077884171627</v>
       </c>
       <c r="J2">
-        <v>0.9645661932917541</v>
+        <v>0.964566193291754</v>
       </c>
       <c r="K2">
-        <v>1.037732859355434</v>
+        <v>1.037732859355433</v>
       </c>
       <c r="L2">
-        <v>0.9699210197273795</v>
+        <v>0.9699210197273794</v>
       </c>
       <c r="M2">
-        <v>0.9919696531535728</v>
+        <v>0.9919696531535727</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9525454896614878</v>
+        <v>0.9525454896614857</v>
       </c>
       <c r="D3">
-        <v>1.03198356276965</v>
+        <v>1.031983562769649</v>
       </c>
       <c r="E3">
-        <v>0.9680409741692358</v>
+        <v>0.968040974169234</v>
       </c>
       <c r="F3">
-        <v>0.9905502531859698</v>
+        <v>0.9905502531859683</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050742505116159</v>
+        <v>1.050742505116158</v>
       </c>
       <c r="J3">
-        <v>0.9744190743064419</v>
+        <v>0.9744190743064398</v>
       </c>
       <c r="K3">
         <v>1.042222931301763</v>
       </c>
       <c r="L3">
-        <v>0.9790997951791028</v>
+        <v>0.979099795179101</v>
       </c>
       <c r="M3">
-        <v>1.001305490453517</v>
+        <v>1.001305490453515</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,31 +497,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.95999680020047</v>
+        <v>0.9599968002004694</v>
       </c>
       <c r="D4">
-        <v>1.03528714451143</v>
+        <v>1.035287144511429</v>
       </c>
       <c r="E4">
-        <v>0.9743309606493639</v>
+        <v>0.9743309606493634</v>
       </c>
       <c r="F4">
-        <v>0.9969041919234449</v>
+        <v>0.9969041919234443</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052364212683098</v>
+        <v>1.052364212683097</v>
       </c>
       <c r="J4">
-        <v>0.9804822623200133</v>
+        <v>0.980482262320013</v>
       </c>
       <c r="K4">
         <v>1.044977551275118</v>
       </c>
       <c r="L4">
-        <v>0.9847493896530657</v>
+        <v>0.9847493896530652</v>
       </c>
       <c r="M4">
         <v>1.007040124785894</v>
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9630470876212256</v>
+        <v>0.9630470876212269</v>
       </c>
       <c r="D5">
         <v>1.036640556735767</v>
       </c>
       <c r="E5">
-        <v>0.9769076666299893</v>
+        <v>0.9769076666299903</v>
       </c>
       <c r="F5">
-        <v>0.9995039019005966</v>
+        <v>0.9995039019005973</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053023021041366</v>
+        <v>1.053023021041367</v>
       </c>
       <c r="J5">
-        <v>0.9829630660668291</v>
+        <v>0.9829630660668303</v>
       </c>
       <c r="K5">
         <v>1.046101961580428</v>
       </c>
       <c r="L5">
-        <v>0.9870611971622191</v>
+        <v>0.9870611971622202</v>
       </c>
       <c r="M5">
         <v>1.009383567460886</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9635546394071197</v>
+        <v>0.9635546394071205</v>
       </c>
       <c r="D6">
         <v>1.036865793751081</v>
       </c>
       <c r="E6">
-        <v>0.9773365159802088</v>
+        <v>0.9773365159802097</v>
       </c>
       <c r="F6">
-        <v>0.999936381987749</v>
+        <v>0.99993638198775</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05313233338046</v>
+        <v>1.053132333380461</v>
       </c>
       <c r="J6">
-        <v>0.9833757809155187</v>
+        <v>0.9833757809155194</v>
       </c>
       <c r="K6">
-        <v>1.046288847995962</v>
+        <v>1.046288847995963</v>
       </c>
       <c r="L6">
-        <v>0.9874458089355154</v>
+        <v>0.9874458089355161</v>
       </c>
       <c r="M6">
-        <v>1.009773246080506</v>
+        <v>1.009773246080507</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9600378714267729</v>
+        <v>0.9600378714267732</v>
       </c>
       <c r="D7">
-        <v>1.035305364812415</v>
+        <v>1.035305364812416</v>
       </c>
       <c r="E7">
-        <v>0.974365648382679</v>
+        <v>0.9743656483826796</v>
       </c>
       <c r="F7">
-        <v>0.9969392024794763</v>
+        <v>0.9969392024794774</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.052373103999144</v>
       </c>
       <c r="J7">
-        <v>0.9805156707638477</v>
+        <v>0.980515670763848</v>
       </c>
       <c r="K7">
-        <v>1.044992704853805</v>
+        <v>1.044992704853806</v>
       </c>
       <c r="L7">
-        <v>0.984780521433293</v>
+        <v>0.9847805214332934</v>
       </c>
       <c r="M7">
-        <v>1.007071695609756</v>
+        <v>1.007071695609757</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446185183839302</v>
+        <v>0.9446185183839313</v>
       </c>
       <c r="D8">
-        <v>1.028475525051485</v>
+        <v>1.028475525051486</v>
       </c>
       <c r="E8">
-        <v>0.9613567953155328</v>
+        <v>0.9613567953155334</v>
       </c>
       <c r="F8">
-        <v>0.9837878688334075</v>
+        <v>0.983787868833408</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049000648173247</v>
+        <v>1.049000648173248</v>
       </c>
       <c r="J8">
-        <v>0.9679649853451943</v>
+        <v>0.9679649853451948</v>
       </c>
       <c r="K8">
         <v>1.039283111963685</v>
       </c>
       <c r="L8">
-        <v>0.9730869678057429</v>
+        <v>0.9730869678057436</v>
       </c>
       <c r="M8">
-        <v>0.9951920161176516</v>
+        <v>0.9951920161176518</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9140955521737127</v>
+        <v>0.9140955521737132</v>
       </c>
       <c r="D9">
         <v>1.015080925351334</v>
       </c>
       <c r="E9">
-        <v>0.9356992510927175</v>
+        <v>0.9356992510927176</v>
       </c>
       <c r="F9">
-        <v>0.9577713620729609</v>
+        <v>0.9577713620729607</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.042187456372688</v>
       </c>
       <c r="J9">
-        <v>0.9430945392724348</v>
+        <v>0.943094539272435</v>
       </c>
       <c r="K9">
-        <v>1.02793397343474</v>
+        <v>1.027933973434739</v>
       </c>
       <c r="L9">
-        <v>0.9499294759800009</v>
+        <v>0.949929475980001</v>
       </c>
       <c r="M9">
         <v>0.9715888593953148</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8906681496181623</v>
+        <v>0.8906681496181619</v>
       </c>
       <c r="D10">
         <v>1.004985465712739</v>
       </c>
       <c r="E10">
-        <v>0.9161059255840529</v>
+        <v>0.9161059255840523</v>
       </c>
       <c r="F10">
-        <v>0.9378898089721878</v>
+        <v>0.9378898089721873</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.036908264049943</v>
       </c>
       <c r="J10">
-        <v>0.9240083060105715</v>
+        <v>0.9240083060105712</v>
       </c>
       <c r="K10">
         <v>1.019265285705753</v>
       </c>
       <c r="L10">
-        <v>0.9321752900524972</v>
+        <v>0.9321752900524968</v>
       </c>
       <c r="M10">
-        <v>0.9534789714492911</v>
+        <v>0.9534789714492907</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8795281338485874</v>
+        <v>0.8795281338485861</v>
       </c>
       <c r="D11">
-        <v>1.000259079588023</v>
+        <v>1.000259079588022</v>
       </c>
       <c r="E11">
-        <v>0.9068238391650101</v>
+        <v>0.9068238391650089</v>
       </c>
       <c r="F11">
-        <v>0.9284806674377718</v>
+        <v>0.9284806674377702</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.034399975721829</v>
       </c>
       <c r="J11">
-        <v>0.9149399323887475</v>
+        <v>0.9149399323887459</v>
       </c>
       <c r="K11">
-        <v>1.015176111700847</v>
+        <v>1.015176111700846</v>
       </c>
       <c r="L11">
-        <v>0.9237463437863047</v>
+        <v>0.9237463437863034</v>
       </c>
       <c r="M11">
-        <v>0.9448903047450594</v>
+        <v>0.9448903047450581</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8752088075109631</v>
+        <v>0.8752088075109643</v>
       </c>
       <c r="D12">
-        <v>0.9984410023583257</v>
+        <v>0.998441002358326</v>
       </c>
       <c r="E12">
-        <v>0.9032313919440205</v>
+        <v>0.9032313919440216</v>
       </c>
       <c r="F12">
-        <v>0.9248419919556263</v>
+        <v>0.924841991955627</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.03342931547982</v>
       </c>
       <c r="J12">
-        <v>0.9114257473388957</v>
+        <v>0.9114257473388967</v>
       </c>
       <c r="K12">
         <v>1.013598131375619</v>
       </c>
       <c r="L12">
-        <v>0.9204812077487003</v>
+        <v>0.9204812077487013</v>
       </c>
       <c r="M12">
-        <v>0.9415661333580392</v>
+        <v>0.9415661333580397</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8761441543072693</v>
+        <v>0.8761441543072698</v>
       </c>
       <c r="D13">
-        <v>0.9988339913612327</v>
+        <v>0.9988339913612322</v>
       </c>
       <c r="E13">
-        <v>0.9040090168002739</v>
+        <v>0.9040090168002745</v>
       </c>
       <c r="F13">
-        <v>0.9256294615362051</v>
+        <v>0.9256294615362053</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033639396973941</v>
+        <v>1.03363939697394</v>
       </c>
       <c r="J13">
-        <v>0.9121866405231058</v>
+        <v>0.9121866405231063</v>
       </c>
       <c r="K13">
         <v>1.013939455276854</v>
       </c>
       <c r="L13">
-        <v>0.921188114889342</v>
+        <v>0.9211881148893428</v>
       </c>
       <c r="M13">
-        <v>0.9422856661376797</v>
+        <v>0.9422856661376798</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8791750196867912</v>
+        <v>0.8791750196867909</v>
       </c>
       <c r="D14">
         <v>1.000110134361892</v>
       </c>
       <c r="E14">
-        <v>0.9065300095360572</v>
+        <v>0.906530009536057</v>
       </c>
       <c r="F14">
-        <v>0.9281829871321956</v>
+        <v>0.9281829871321955</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.03432057389617</v>
       </c>
       <c r="J14">
-        <v>0.9146525965920739</v>
+        <v>0.9146525965920738</v>
       </c>
       <c r="K14">
         <v>1.015046940143736</v>
       </c>
       <c r="L14">
-        <v>0.923479344219896</v>
+        <v>0.9234793442198959</v>
       </c>
       <c r="M14">
-        <v>0.9446184107560009</v>
+        <v>0.9446184107560005</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8810172663605956</v>
+        <v>0.8810172663605974</v>
       </c>
       <c r="D15">
-        <v>1.000887807426727</v>
+        <v>1.000887807426726</v>
       </c>
       <c r="E15">
-        <v>0.9080632304375955</v>
+        <v>0.9080632304375973</v>
       </c>
       <c r="F15">
-        <v>0.929736429836264</v>
+        <v>0.9297364298362648</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034734910450099</v>
+        <v>1.034734910450098</v>
       </c>
       <c r="J15">
-        <v>0.9161517500164601</v>
+        <v>0.9161517500164619</v>
       </c>
       <c r="K15">
-        <v>1.015721165786796</v>
+        <v>1.015721165786795</v>
       </c>
       <c r="L15">
-        <v>0.924872447278546</v>
+        <v>0.9248724472785476</v>
       </c>
       <c r="M15">
-        <v>0.9460371748953443</v>
+        <v>0.946037174895345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8913840025042887</v>
+        <v>0.8913840025042894</v>
       </c>
       <c r="D16">
         <v>1.005290939147755</v>
       </c>
       <c r="E16">
-        <v>0.9167031898705378</v>
+        <v>0.9167031898705382</v>
       </c>
       <c r="F16">
-        <v>0.9384955565140131</v>
+        <v>0.9384955565140133</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.037069607479192</v>
       </c>
       <c r="J16">
-        <v>0.9245912453731691</v>
+        <v>0.9245912453731696</v>
       </c>
       <c r="K16">
         <v>1.019528917697128</v>
       </c>
       <c r="L16">
-        <v>0.9327172786422977</v>
+        <v>0.9327172786422983</v>
       </c>
       <c r="M16">
-        <v>0.9540315266947795</v>
+        <v>0.9540315266947796</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8976006596828445</v>
+        <v>0.8976006596828456</v>
       </c>
       <c r="D17">
-        <v>1.007952188862784</v>
+        <v>1.007952188862785</v>
       </c>
       <c r="E17">
-        <v>0.9218939189715847</v>
+        <v>0.9218939189715853</v>
       </c>
       <c r="F17">
-        <v>0.943761185865326</v>
+        <v>0.9437611858653273</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.038471121767646</v>
       </c>
       <c r="J17">
-        <v>0.9296545221233801</v>
+        <v>0.929654522123381</v>
       </c>
       <c r="K17">
-        <v>1.02182220939897</v>
+        <v>1.021822209398971</v>
       </c>
       <c r="L17">
-        <v>0.9374256079321015</v>
+        <v>0.9374256079321021</v>
       </c>
       <c r="M17">
-        <v>0.9588327818469519</v>
+        <v>0.9588327818469531</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.90113323065957</v>
+        <v>0.9011332306595699</v>
       </c>
       <c r="D18">
         <v>1.009470933894846</v>
       </c>
       <c r="E18">
-        <v>0.924846587173195</v>
+        <v>0.9248465871731947</v>
       </c>
       <c r="F18">
-        <v>0.9467572133267097</v>
+        <v>0.9467572133267095</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.039267593138202</v>
       </c>
       <c r="J18">
-        <v>0.9325323046380688</v>
+        <v>0.9325323046380685</v>
       </c>
       <c r="K18">
         <v>1.023128164986778</v>
       </c>
       <c r="L18">
-        <v>0.9401022265821144</v>
+        <v>0.9401022265821143</v>
       </c>
       <c r="M18">
-        <v>0.9615629542402966</v>
+        <v>0.9615629542402963</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9023226989491484</v>
+        <v>0.9023226989491494</v>
       </c>
       <c r="D19">
         <v>1.009983338600178</v>
       </c>
       <c r="E19">
-        <v>0.9258412840398792</v>
+        <v>0.9258412840398802</v>
       </c>
       <c r="F19">
-        <v>0.9477666080257741</v>
+        <v>0.9477666080257748</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.039535749697458</v>
       </c>
       <c r="J19">
-        <v>0.933501380602562</v>
+        <v>0.933501380602563</v>
       </c>
       <c r="K19">
         <v>1.023568312054918</v>
       </c>
       <c r="L19">
-        <v>0.9410036527264493</v>
+        <v>0.9410036527264501</v>
       </c>
       <c r="M19">
-        <v>0.9624825038028607</v>
+        <v>0.9624825038028615</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8969435409708985</v>
+        <v>0.8969435409708977</v>
       </c>
       <c r="D20">
         <v>1.007670186594829</v>
       </c>
       <c r="E20">
-        <v>0.9213449150741954</v>
+        <v>0.9213449150741947</v>
       </c>
       <c r="F20">
-        <v>0.9432041722667944</v>
+        <v>0.9432041722667937</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03832296062072</v>
       </c>
       <c r="J20">
-        <v>0.9291192504069689</v>
+        <v>0.9291192504069681</v>
       </c>
       <c r="K20">
-        <v>1.021579492645802</v>
+        <v>1.021579492645801</v>
       </c>
       <c r="L20">
-        <v>0.9369277982464199</v>
+        <v>0.9369277982464193</v>
       </c>
       <c r="M20">
-        <v>0.9583250624566934</v>
+        <v>0.9583250624566924</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8782878218517984</v>
+        <v>0.8782878218517994</v>
       </c>
       <c r="D21">
-        <v>0.9997361544502774</v>
+        <v>0.9997361544502772</v>
       </c>
       <c r="E21">
-        <v>0.9057918727201597</v>
+        <v>0.9057918727201606</v>
       </c>
       <c r="F21">
-        <v>0.9274352300050469</v>
+        <v>0.9274352300050474</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,13 +1161,13 @@
         <v>1.034121113257204</v>
       </c>
       <c r="J21">
-        <v>0.9139307001359802</v>
+        <v>0.9139307001359811</v>
       </c>
       <c r="K21">
         <v>1.014722527191326</v>
       </c>
       <c r="L21">
-        <v>0.9228085612541395</v>
+        <v>0.9228085612541402</v>
       </c>
       <c r="M21">
         <v>0.9439353825726431</v>
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8654840528653178</v>
+        <v>0.8654840528653193</v>
       </c>
       <c r="D22">
-        <v>0.994379351808494</v>
+        <v>0.9943793518084941</v>
       </c>
       <c r="E22">
-        <v>0.8951571186854609</v>
+        <v>0.8951571186854625</v>
       </c>
       <c r="F22">
-        <v>0.9166714849690532</v>
+        <v>0.9166714849690539</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.031249610463533</v>
       </c>
       <c r="J22">
-        <v>0.903518417211874</v>
+        <v>0.9035184172118753</v>
       </c>
       <c r="K22">
         <v>1.010062983246463</v>
       </c>
       <c r="L22">
-        <v>0.9131370040847516</v>
+        <v>0.9131370040847532</v>
       </c>
       <c r="M22">
-        <v>0.9340965070989529</v>
+        <v>0.9340965070989536</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8723870400739131</v>
+        <v>0.8723870400739147</v>
       </c>
       <c r="D23">
-        <v>0.9972578640978333</v>
+        <v>0.9972578640978339</v>
       </c>
       <c r="E23">
-        <v>0.9008865178234228</v>
+        <v>0.9008865178234243</v>
       </c>
       <c r="F23">
-        <v>0.922468009877375</v>
+        <v>0.9224680098773761</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.032795961297778</v>
       </c>
       <c r="J23">
-        <v>0.9091306294030539</v>
+        <v>0.9091306294030556</v>
       </c>
       <c r="K23">
-        <v>1.012569763572139</v>
+        <v>1.01256976357214</v>
       </c>
       <c r="L23">
-        <v>0.9183491411551333</v>
+        <v>0.9183491411551348</v>
       </c>
       <c r="M23">
-        <v>0.9393965425641476</v>
+        <v>0.9393965425641487</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.897240751289427</v>
+        <v>0.8972407512894278</v>
       </c>
       <c r="D24">
         <v>1.007797714197955</v>
       </c>
       <c r="E24">
-        <v>0.9215932162842296</v>
+        <v>0.9215932162842301</v>
       </c>
       <c r="F24">
-        <v>0.9434560938228904</v>
+        <v>0.9434560938228911</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03838997278578</v>
+        <v>1.038389972785781</v>
       </c>
       <c r="J24">
-        <v>0.929361348302568</v>
+        <v>0.9293613483025687</v>
       </c>
       <c r="K24">
-        <v>1.02168926318301</v>
+        <v>1.021689263183011</v>
       </c>
       <c r="L24">
-        <v>0.9371529506721337</v>
+        <v>0.9371529506721343</v>
       </c>
       <c r="M24">
-        <v>0.9585546947348668</v>
+        <v>0.9585546947348674</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1298,13 +1298,13 @@
         <v>0.9224568607866374</v>
       </c>
       <c r="D25">
-        <v>1.018727477584301</v>
+        <v>1.018727477584302</v>
       </c>
       <c r="E25">
-        <v>0.9427141526854202</v>
+        <v>0.9427141526854204</v>
       </c>
       <c r="F25">
-        <v>0.96488995850379</v>
+        <v>0.964889958503791</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>0.9562720068612145</v>
       </c>
       <c r="M25">
-        <v>0.9780589159447487</v>
+        <v>0.9780589159447494</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9404456140526604</v>
+        <v>0.9404456140526607</v>
       </c>
       <c r="D2">
         <v>1.02663249589612</v>
       </c>
       <c r="E2">
-        <v>0.9578413321860487</v>
+        <v>0.9578413321860486</v>
       </c>
       <c r="F2">
-        <v>0.9802278101287388</v>
+        <v>0.9802278101287392</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.048077884171627</v>
       </c>
       <c r="J2">
-        <v>0.964566193291754</v>
+        <v>0.9645661932917541</v>
       </c>
       <c r="K2">
-        <v>1.037732859355433</v>
+        <v>1.037732859355434</v>
       </c>
       <c r="L2">
-        <v>0.9699210197273794</v>
+        <v>0.9699210197273795</v>
       </c>
       <c r="M2">
-        <v>0.9919696531535727</v>
+        <v>0.9919696531535728</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9525454896614857</v>
+        <v>0.9525454896614878</v>
       </c>
       <c r="D3">
-        <v>1.031983562769649</v>
+        <v>1.03198356276965</v>
       </c>
       <c r="E3">
-        <v>0.968040974169234</v>
+        <v>0.9680409741692358</v>
       </c>
       <c r="F3">
-        <v>0.9905502531859683</v>
+        <v>0.9905502531859698</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050742505116158</v>
+        <v>1.050742505116159</v>
       </c>
       <c r="J3">
-        <v>0.9744190743064398</v>
+        <v>0.9744190743064419</v>
       </c>
       <c r="K3">
         <v>1.042222931301763</v>
       </c>
       <c r="L3">
-        <v>0.979099795179101</v>
+        <v>0.9790997951791028</v>
       </c>
       <c r="M3">
-        <v>1.001305490453515</v>
+        <v>1.001305490453517</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,31 +497,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9599968002004694</v>
+        <v>0.95999680020047</v>
       </c>
       <c r="D4">
-        <v>1.035287144511429</v>
+        <v>1.03528714451143</v>
       </c>
       <c r="E4">
-        <v>0.9743309606493634</v>
+        <v>0.9743309606493639</v>
       </c>
       <c r="F4">
-        <v>0.9969041919234443</v>
+        <v>0.9969041919234449</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052364212683097</v>
+        <v>1.052364212683098</v>
       </c>
       <c r="J4">
-        <v>0.980482262320013</v>
+        <v>0.9804822623200133</v>
       </c>
       <c r="K4">
         <v>1.044977551275118</v>
       </c>
       <c r="L4">
-        <v>0.9847493896530652</v>
+        <v>0.9847493896530657</v>
       </c>
       <c r="M4">
         <v>1.007040124785894</v>
@@ -535,31 +535,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9630470876212269</v>
+        <v>0.9630470876212256</v>
       </c>
       <c r="D5">
         <v>1.036640556735767</v>
       </c>
       <c r="E5">
-        <v>0.9769076666299903</v>
+        <v>0.9769076666299893</v>
       </c>
       <c r="F5">
-        <v>0.9995039019005973</v>
+        <v>0.9995039019005966</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053023021041367</v>
+        <v>1.053023021041366</v>
       </c>
       <c r="J5">
-        <v>0.9829630660668303</v>
+        <v>0.9829630660668291</v>
       </c>
       <c r="K5">
         <v>1.046101961580428</v>
       </c>
       <c r="L5">
-        <v>0.9870611971622202</v>
+        <v>0.9870611971622191</v>
       </c>
       <c r="M5">
         <v>1.009383567460886</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9635546394071205</v>
+        <v>0.9635546394071197</v>
       </c>
       <c r="D6">
         <v>1.036865793751081</v>
       </c>
       <c r="E6">
-        <v>0.9773365159802097</v>
+        <v>0.9773365159802088</v>
       </c>
       <c r="F6">
-        <v>0.99993638198775</v>
+        <v>0.999936381987749</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053132333380461</v>
+        <v>1.05313233338046</v>
       </c>
       <c r="J6">
-        <v>0.9833757809155194</v>
+        <v>0.9833757809155187</v>
       </c>
       <c r="K6">
-        <v>1.046288847995963</v>
+        <v>1.046288847995962</v>
       </c>
       <c r="L6">
-        <v>0.9874458089355161</v>
+        <v>0.9874458089355154</v>
       </c>
       <c r="M6">
-        <v>1.009773246080507</v>
+        <v>1.009773246080506</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9600378714267732</v>
+        <v>0.9600378714267729</v>
       </c>
       <c r="D7">
-        <v>1.035305364812416</v>
+        <v>1.035305364812415</v>
       </c>
       <c r="E7">
-        <v>0.9743656483826796</v>
+        <v>0.974365648382679</v>
       </c>
       <c r="F7">
-        <v>0.9969392024794774</v>
+        <v>0.9969392024794763</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.052373103999144</v>
       </c>
       <c r="J7">
-        <v>0.980515670763848</v>
+        <v>0.9805156707638477</v>
       </c>
       <c r="K7">
-        <v>1.044992704853806</v>
+        <v>1.044992704853805</v>
       </c>
       <c r="L7">
-        <v>0.9847805214332934</v>
+        <v>0.984780521433293</v>
       </c>
       <c r="M7">
-        <v>1.007071695609757</v>
+        <v>1.007071695609756</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446185183839313</v>
+        <v>0.9446185183839302</v>
       </c>
       <c r="D8">
-        <v>1.028475525051486</v>
+        <v>1.028475525051485</v>
       </c>
       <c r="E8">
-        <v>0.9613567953155334</v>
+        <v>0.9613567953155328</v>
       </c>
       <c r="F8">
-        <v>0.983787868833408</v>
+        <v>0.9837878688334075</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049000648173248</v>
+        <v>1.049000648173247</v>
       </c>
       <c r="J8">
-        <v>0.9679649853451948</v>
+        <v>0.9679649853451943</v>
       </c>
       <c r="K8">
         <v>1.039283111963685</v>
       </c>
       <c r="L8">
-        <v>0.9730869678057436</v>
+        <v>0.9730869678057429</v>
       </c>
       <c r="M8">
-        <v>0.9951920161176518</v>
+        <v>0.9951920161176516</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9140955521737132</v>
+        <v>0.9140955521737127</v>
       </c>
       <c r="D9">
         <v>1.015080925351334</v>
       </c>
       <c r="E9">
-        <v>0.9356992510927176</v>
+        <v>0.9356992510927175</v>
       </c>
       <c r="F9">
-        <v>0.9577713620729607</v>
+        <v>0.9577713620729609</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.042187456372688</v>
       </c>
       <c r="J9">
-        <v>0.943094539272435</v>
+        <v>0.9430945392724348</v>
       </c>
       <c r="K9">
-        <v>1.027933973434739</v>
+        <v>1.02793397343474</v>
       </c>
       <c r="L9">
-        <v>0.949929475980001</v>
+        <v>0.9499294759800009</v>
       </c>
       <c r="M9">
         <v>0.9715888593953148</v>
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8906681496181619</v>
+        <v>0.8906681496181623</v>
       </c>
       <c r="D10">
         <v>1.004985465712739</v>
       </c>
       <c r="E10">
-        <v>0.9161059255840523</v>
+        <v>0.9161059255840529</v>
       </c>
       <c r="F10">
-        <v>0.9378898089721873</v>
+        <v>0.9378898089721878</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.036908264049943</v>
       </c>
       <c r="J10">
-        <v>0.9240083060105712</v>
+        <v>0.9240083060105715</v>
       </c>
       <c r="K10">
         <v>1.019265285705753</v>
       </c>
       <c r="L10">
-        <v>0.9321752900524968</v>
+        <v>0.9321752900524972</v>
       </c>
       <c r="M10">
-        <v>0.9534789714492907</v>
+        <v>0.9534789714492911</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8795281338485861</v>
+        <v>0.8795281338485874</v>
       </c>
       <c r="D11">
-        <v>1.000259079588022</v>
+        <v>1.000259079588023</v>
       </c>
       <c r="E11">
-        <v>0.9068238391650089</v>
+        <v>0.9068238391650101</v>
       </c>
       <c r="F11">
-        <v>0.9284806674377702</v>
+        <v>0.9284806674377718</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.034399975721829</v>
       </c>
       <c r="J11">
-        <v>0.9149399323887459</v>
+        <v>0.9149399323887475</v>
       </c>
       <c r="K11">
-        <v>1.015176111700846</v>
+        <v>1.015176111700847</v>
       </c>
       <c r="L11">
-        <v>0.9237463437863034</v>
+        <v>0.9237463437863047</v>
       </c>
       <c r="M11">
-        <v>0.9448903047450581</v>
+        <v>0.9448903047450594</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8752088075109643</v>
+        <v>0.8752088075109631</v>
       </c>
       <c r="D12">
-        <v>0.998441002358326</v>
+        <v>0.9984410023583257</v>
       </c>
       <c r="E12">
-        <v>0.9032313919440216</v>
+        <v>0.9032313919440205</v>
       </c>
       <c r="F12">
-        <v>0.924841991955627</v>
+        <v>0.9248419919556263</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.03342931547982</v>
       </c>
       <c r="J12">
-        <v>0.9114257473388967</v>
+        <v>0.9114257473388957</v>
       </c>
       <c r="K12">
         <v>1.013598131375619</v>
       </c>
       <c r="L12">
-        <v>0.9204812077487013</v>
+        <v>0.9204812077487003</v>
       </c>
       <c r="M12">
-        <v>0.9415661333580397</v>
+        <v>0.9415661333580392</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8761441543072698</v>
+        <v>0.8761441543072693</v>
       </c>
       <c r="D13">
-        <v>0.9988339913612322</v>
+        <v>0.9988339913612327</v>
       </c>
       <c r="E13">
-        <v>0.9040090168002745</v>
+        <v>0.9040090168002739</v>
       </c>
       <c r="F13">
-        <v>0.9256294615362053</v>
+        <v>0.9256294615362051</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03363939697394</v>
+        <v>1.033639396973941</v>
       </c>
       <c r="J13">
-        <v>0.9121866405231063</v>
+        <v>0.9121866405231058</v>
       </c>
       <c r="K13">
         <v>1.013939455276854</v>
       </c>
       <c r="L13">
-        <v>0.9211881148893428</v>
+        <v>0.921188114889342</v>
       </c>
       <c r="M13">
-        <v>0.9422856661376798</v>
+        <v>0.9422856661376797</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8791750196867909</v>
+        <v>0.8791750196867912</v>
       </c>
       <c r="D14">
         <v>1.000110134361892</v>
       </c>
       <c r="E14">
-        <v>0.906530009536057</v>
+        <v>0.9065300095360572</v>
       </c>
       <c r="F14">
-        <v>0.9281829871321955</v>
+        <v>0.9281829871321956</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.03432057389617</v>
       </c>
       <c r="J14">
-        <v>0.9146525965920738</v>
+        <v>0.9146525965920739</v>
       </c>
       <c r="K14">
         <v>1.015046940143736</v>
       </c>
       <c r="L14">
-        <v>0.9234793442198959</v>
+        <v>0.923479344219896</v>
       </c>
       <c r="M14">
-        <v>0.9446184107560005</v>
+        <v>0.9446184107560009</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8810172663605974</v>
+        <v>0.8810172663605956</v>
       </c>
       <c r="D15">
-        <v>1.000887807426726</v>
+        <v>1.000887807426727</v>
       </c>
       <c r="E15">
-        <v>0.9080632304375973</v>
+        <v>0.9080632304375955</v>
       </c>
       <c r="F15">
-        <v>0.9297364298362648</v>
+        <v>0.929736429836264</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034734910450098</v>
+        <v>1.034734910450099</v>
       </c>
       <c r="J15">
-        <v>0.9161517500164619</v>
+        <v>0.9161517500164601</v>
       </c>
       <c r="K15">
-        <v>1.015721165786795</v>
+        <v>1.015721165786796</v>
       </c>
       <c r="L15">
-        <v>0.9248724472785476</v>
+        <v>0.924872447278546</v>
       </c>
       <c r="M15">
-        <v>0.946037174895345</v>
+        <v>0.9460371748953443</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8913840025042894</v>
+        <v>0.8913840025042887</v>
       </c>
       <c r="D16">
         <v>1.005290939147755</v>
       </c>
       <c r="E16">
-        <v>0.9167031898705382</v>
+        <v>0.9167031898705378</v>
       </c>
       <c r="F16">
-        <v>0.9384955565140133</v>
+        <v>0.9384955565140131</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.037069607479192</v>
       </c>
       <c r="J16">
-        <v>0.9245912453731696</v>
+        <v>0.9245912453731691</v>
       </c>
       <c r="K16">
         <v>1.019528917697128</v>
       </c>
       <c r="L16">
-        <v>0.9327172786422983</v>
+        <v>0.9327172786422977</v>
       </c>
       <c r="M16">
-        <v>0.9540315266947796</v>
+        <v>0.9540315266947795</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8976006596828456</v>
+        <v>0.8976006596828445</v>
       </c>
       <c r="D17">
-        <v>1.007952188862785</v>
+        <v>1.007952188862784</v>
       </c>
       <c r="E17">
-        <v>0.9218939189715853</v>
+        <v>0.9218939189715847</v>
       </c>
       <c r="F17">
-        <v>0.9437611858653273</v>
+        <v>0.943761185865326</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.038471121767646</v>
       </c>
       <c r="J17">
-        <v>0.929654522123381</v>
+        <v>0.9296545221233801</v>
       </c>
       <c r="K17">
-        <v>1.021822209398971</v>
+        <v>1.02182220939897</v>
       </c>
       <c r="L17">
-        <v>0.9374256079321021</v>
+        <v>0.9374256079321015</v>
       </c>
       <c r="M17">
-        <v>0.9588327818469531</v>
+        <v>0.9588327818469519</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9011332306595699</v>
+        <v>0.90113323065957</v>
       </c>
       <c r="D18">
         <v>1.009470933894846</v>
       </c>
       <c r="E18">
-        <v>0.9248465871731947</v>
+        <v>0.924846587173195</v>
       </c>
       <c r="F18">
-        <v>0.9467572133267095</v>
+        <v>0.9467572133267097</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.039267593138202</v>
       </c>
       <c r="J18">
-        <v>0.9325323046380685</v>
+        <v>0.9325323046380688</v>
       </c>
       <c r="K18">
         <v>1.023128164986778</v>
       </c>
       <c r="L18">
-        <v>0.9401022265821143</v>
+        <v>0.9401022265821144</v>
       </c>
       <c r="M18">
-        <v>0.9615629542402963</v>
+        <v>0.9615629542402966</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9023226989491494</v>
+        <v>0.9023226989491484</v>
       </c>
       <c r="D19">
         <v>1.009983338600178</v>
       </c>
       <c r="E19">
-        <v>0.9258412840398802</v>
+        <v>0.9258412840398792</v>
       </c>
       <c r="F19">
-        <v>0.9477666080257748</v>
+        <v>0.9477666080257741</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.039535749697458</v>
       </c>
       <c r="J19">
-        <v>0.933501380602563</v>
+        <v>0.933501380602562</v>
       </c>
       <c r="K19">
         <v>1.023568312054918</v>
       </c>
       <c r="L19">
-        <v>0.9410036527264501</v>
+        <v>0.9410036527264493</v>
       </c>
       <c r="M19">
-        <v>0.9624825038028615</v>
+        <v>0.9624825038028607</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8969435409708977</v>
+        <v>0.8969435409708985</v>
       </c>
       <c r="D20">
         <v>1.007670186594829</v>
       </c>
       <c r="E20">
-        <v>0.9213449150741947</v>
+        <v>0.9213449150741954</v>
       </c>
       <c r="F20">
-        <v>0.9432041722667937</v>
+        <v>0.9432041722667944</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.03832296062072</v>
       </c>
       <c r="J20">
-        <v>0.9291192504069681</v>
+        <v>0.9291192504069689</v>
       </c>
       <c r="K20">
-        <v>1.021579492645801</v>
+        <v>1.021579492645802</v>
       </c>
       <c r="L20">
-        <v>0.9369277982464193</v>
+        <v>0.9369277982464199</v>
       </c>
       <c r="M20">
-        <v>0.9583250624566924</v>
+        <v>0.9583250624566934</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8782878218517994</v>
+        <v>0.8782878218517984</v>
       </c>
       <c r="D21">
-        <v>0.9997361544502772</v>
+        <v>0.9997361544502774</v>
       </c>
       <c r="E21">
-        <v>0.9057918727201606</v>
+        <v>0.9057918727201597</v>
       </c>
       <c r="F21">
-        <v>0.9274352300050474</v>
+        <v>0.9274352300050469</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,13 +1161,13 @@
         <v>1.034121113257204</v>
       </c>
       <c r="J21">
-        <v>0.9139307001359811</v>
+        <v>0.9139307001359802</v>
       </c>
       <c r="K21">
         <v>1.014722527191326</v>
       </c>
       <c r="L21">
-        <v>0.9228085612541402</v>
+        <v>0.9228085612541395</v>
       </c>
       <c r="M21">
         <v>0.9439353825726431</v>
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8654840528653193</v>
+        <v>0.8654840528653178</v>
       </c>
       <c r="D22">
-        <v>0.9943793518084941</v>
+        <v>0.994379351808494</v>
       </c>
       <c r="E22">
-        <v>0.8951571186854625</v>
+        <v>0.8951571186854609</v>
       </c>
       <c r="F22">
-        <v>0.9166714849690539</v>
+        <v>0.9166714849690532</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.031249610463533</v>
       </c>
       <c r="J22">
-        <v>0.9035184172118753</v>
+        <v>0.903518417211874</v>
       </c>
       <c r="K22">
         <v>1.010062983246463</v>
       </c>
       <c r="L22">
-        <v>0.9131370040847532</v>
+        <v>0.9131370040847516</v>
       </c>
       <c r="M22">
-        <v>0.9340965070989536</v>
+        <v>0.9340965070989529</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8723870400739147</v>
+        <v>0.8723870400739131</v>
       </c>
       <c r="D23">
-        <v>0.9972578640978339</v>
+        <v>0.9972578640978333</v>
       </c>
       <c r="E23">
-        <v>0.9008865178234243</v>
+        <v>0.9008865178234228</v>
       </c>
       <c r="F23">
-        <v>0.9224680098773761</v>
+        <v>0.922468009877375</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.032795961297778</v>
       </c>
       <c r="J23">
-        <v>0.9091306294030556</v>
+        <v>0.9091306294030539</v>
       </c>
       <c r="K23">
-        <v>1.01256976357214</v>
+        <v>1.012569763572139</v>
       </c>
       <c r="L23">
-        <v>0.9183491411551348</v>
+        <v>0.9183491411551333</v>
       </c>
       <c r="M23">
-        <v>0.9393965425641487</v>
+        <v>0.9393965425641476</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8972407512894278</v>
+        <v>0.897240751289427</v>
       </c>
       <c r="D24">
         <v>1.007797714197955</v>
       </c>
       <c r="E24">
-        <v>0.9215932162842301</v>
+        <v>0.9215932162842296</v>
       </c>
       <c r="F24">
-        <v>0.9434560938228911</v>
+        <v>0.9434560938228904</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038389972785781</v>
+        <v>1.03838997278578</v>
       </c>
       <c r="J24">
-        <v>0.9293613483025687</v>
+        <v>0.929361348302568</v>
       </c>
       <c r="K24">
-        <v>1.021689263183011</v>
+        <v>1.02168926318301</v>
       </c>
       <c r="L24">
-        <v>0.9371529506721343</v>
+        <v>0.9371529506721337</v>
       </c>
       <c r="M24">
-        <v>0.9585546947348674</v>
+        <v>0.9585546947348668</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1298,13 +1298,13 @@
         <v>0.9224568607866374</v>
       </c>
       <c r="D25">
-        <v>1.018727477584302</v>
+        <v>1.018727477584301</v>
       </c>
       <c r="E25">
-        <v>0.9427141526854204</v>
+        <v>0.9427141526854202</v>
       </c>
       <c r="F25">
-        <v>0.964889958503791</v>
+        <v>0.96488995850379</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1322,7 +1322,7 @@
         <v>0.9562720068612145</v>
       </c>
       <c r="M25">
-        <v>0.9780589159447494</v>
+        <v>0.9780589159447487</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9404456140526607</v>
+        <v>0.9405196844762584</v>
       </c>
       <c r="D2">
-        <v>1.02663249589612</v>
+        <v>1.026648275011908</v>
       </c>
       <c r="E2">
-        <v>0.9578413321860486</v>
+        <v>0.9579051857601071</v>
       </c>
       <c r="F2">
-        <v>0.9802278101287392</v>
+        <v>0.9802748942144008</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048077884171627</v>
+        <v>1.048087931563795</v>
       </c>
       <c r="J2">
-        <v>0.9645661932917541</v>
+        <v>0.9646376369235287</v>
       </c>
       <c r="K2">
-        <v>1.037732859355434</v>
+        <v>1.037748432705364</v>
       </c>
       <c r="L2">
-        <v>0.9699210197273795</v>
+        <v>0.9699838809659098</v>
       </c>
       <c r="M2">
-        <v>0.9919696531535728</v>
+        <v>0.992016047314994</v>
+      </c>
+      <c r="N2">
+        <v>0.9776093863700541</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9525454896614878</v>
+        <v>0.9526052909508029</v>
       </c>
       <c r="D3">
-        <v>1.03198356276965</v>
+        <v>1.03199624588263</v>
       </c>
       <c r="E3">
-        <v>0.9680409741692358</v>
+        <v>0.9680926960334162</v>
       </c>
       <c r="F3">
-        <v>0.9905502531859698</v>
+        <v>0.9905882042507049</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050742505116159</v>
+        <v>1.050750593650344</v>
       </c>
       <c r="J3">
-        <v>0.9744190743064419</v>
+        <v>0.974477012934952</v>
       </c>
       <c r="K3">
-        <v>1.042222931301763</v>
+        <v>1.042235464362572</v>
       </c>
       <c r="L3">
-        <v>0.9790997951791028</v>
+        <v>0.9791507990599352</v>
       </c>
       <c r="M3">
-        <v>1.001305490453517</v>
+        <v>1.001342944273318</v>
+      </c>
+      <c r="N3">
+        <v>0.9843959724444497</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.95999680020047</v>
+        <v>0.9600481441962496</v>
       </c>
       <c r="D4">
-        <v>1.03528714451143</v>
+        <v>1.035298007732494</v>
       </c>
       <c r="E4">
-        <v>0.9743309606493639</v>
+        <v>0.9743754728633101</v>
       </c>
       <c r="F4">
-        <v>0.9969041919234449</v>
+        <v>0.9969367505455424</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052364212683098</v>
+        <v>1.052371147380046</v>
       </c>
       <c r="J4">
-        <v>0.9804822623200133</v>
+        <v>0.9805321387275258</v>
       </c>
       <c r="K4">
-        <v>1.044977551275118</v>
+        <v>1.044988294155427</v>
       </c>
       <c r="L4">
-        <v>0.9847493896530657</v>
+        <v>0.9847933287083972</v>
       </c>
       <c r="M4">
-        <v>1.007040124785894</v>
+        <v>1.007072287431898</v>
+      </c>
+      <c r="N4">
+        <v>0.988569685772186</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9630470876212256</v>
+        <v>0.9630950362535686</v>
       </c>
       <c r="D5">
-        <v>1.036640556735767</v>
+        <v>1.03665069252411</v>
       </c>
       <c r="E5">
-        <v>0.9769076666299893</v>
+        <v>0.9769492805786377</v>
       </c>
       <c r="F5">
-        <v>0.9995039019005966</v>
+        <v>0.9995343000212507</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053023021041366</v>
+        <v>1.053029493998541</v>
       </c>
       <c r="J5">
-        <v>0.9829630660668291</v>
+        <v>0.9830096935199799</v>
       </c>
       <c r="K5">
-        <v>1.046101961580428</v>
+        <v>1.046111988228662</v>
       </c>
       <c r="L5">
-        <v>0.9870611971622191</v>
+        <v>0.9871022922471619</v>
       </c>
       <c r="M5">
-        <v>1.009383567460886</v>
+        <v>1.00941360748723</v>
+      </c>
+      <c r="N5">
+        <v>0.9902767422426115</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9635546394071197</v>
+        <v>0.9636020266811998</v>
       </c>
       <c r="D6">
-        <v>1.036865793751081</v>
+        <v>1.036875809449415</v>
       </c>
       <c r="E6">
-        <v>0.9773365159802088</v>
+        <v>0.9773776505535345</v>
       </c>
       <c r="F6">
-        <v>0.999936381987749</v>
+        <v>0.9999664231555673</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05313233338046</v>
+        <v>1.053138730079465</v>
       </c>
       <c r="J6">
-        <v>0.9833757809155187</v>
+        <v>0.9834218705412342</v>
       </c>
       <c r="K6">
-        <v>1.046288847995962</v>
+        <v>1.046298756364932</v>
       </c>
       <c r="L6">
-        <v>0.9874458089355154</v>
+        <v>0.987486433406194</v>
       </c>
       <c r="M6">
-        <v>1.009773246080506</v>
+        <v>1.009802935262218</v>
+      </c>
+      <c r="N6">
+        <v>0.990560694439886</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9600378714267729</v>
+        <v>0.9600891694545303</v>
       </c>
       <c r="D7">
-        <v>1.035305364812415</v>
+        <v>1.035316218172882</v>
       </c>
       <c r="E7">
-        <v>0.974365648382679</v>
+        <v>0.9744101213727561</v>
       </c>
       <c r="F7">
-        <v>0.9969392024794763</v>
+        <v>0.9969717318347525</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052373103999144</v>
+        <v>1.052380032439162</v>
       </c>
       <c r="J7">
-        <v>0.9805156707638477</v>
+        <v>0.9805655032322584</v>
       </c>
       <c r="K7">
-        <v>1.044992704853805</v>
+        <v>1.045003438027983</v>
       </c>
       <c r="L7">
-        <v>0.984780521433293</v>
+        <v>0.9848244220146991</v>
       </c>
       <c r="M7">
-        <v>1.007071695609756</v>
+        <v>1.007103829512495</v>
+      </c>
+      <c r="N7">
+        <v>0.9885926769715796</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446185183839302</v>
+        <v>0.9446875886002792</v>
       </c>
       <c r="D8">
-        <v>1.028475525051485</v>
+        <v>1.028490215666471</v>
       </c>
       <c r="E8">
-        <v>0.9613567953155328</v>
+        <v>0.9614164024700856</v>
       </c>
       <c r="F8">
-        <v>0.9837878688334075</v>
+        <v>0.9838317476089649</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049000648173247</v>
+        <v>1.04901000741369</v>
       </c>
       <c r="J8">
-        <v>0.9679649853451943</v>
+        <v>0.9680317103915906</v>
       </c>
       <c r="K8">
-        <v>1.039283111963685</v>
+        <v>1.039297617107274</v>
       </c>
       <c r="L8">
-        <v>0.9730869678057429</v>
+        <v>0.9731456829525882</v>
       </c>
       <c r="M8">
-        <v>0.9951920161176516</v>
+        <v>0.9952352755519638</v>
+      </c>
+      <c r="N8">
+        <v>0.979950969754763</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9140955521737127</v>
+        <v>0.9142034204705968</v>
       </c>
       <c r="D9">
-        <v>1.015080925351334</v>
+        <v>1.015104157914112</v>
       </c>
       <c r="E9">
-        <v>0.9356992510927175</v>
+        <v>0.9357916631158394</v>
       </c>
       <c r="F9">
-        <v>0.9577713620729609</v>
+        <v>0.9578402415100588</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042187456372688</v>
+        <v>1.042202202125076</v>
       </c>
       <c r="J9">
-        <v>0.9430945392724348</v>
+        <v>0.9431974949383868</v>
       </c>
       <c r="K9">
-        <v>1.02793397343474</v>
+        <v>1.027956843261388</v>
       </c>
       <c r="L9">
-        <v>0.9499294759800009</v>
+        <v>0.9500201068203803</v>
       </c>
       <c r="M9">
-        <v>0.9715888593953148</v>
+        <v>0.9716564895767374</v>
+      </c>
+      <c r="N9">
+        <v>0.9628070903306283</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8906681496181623</v>
+        <v>0.890810033007039</v>
       </c>
       <c r="D10">
-        <v>1.004985465712739</v>
+        <v>1.005016348148804</v>
       </c>
       <c r="E10">
-        <v>0.9161059255840529</v>
+        <v>0.9162268121862148</v>
       </c>
       <c r="F10">
-        <v>0.9378898089721878</v>
+        <v>0.937980821648062</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036908264049943</v>
+        <v>1.036927812157308</v>
       </c>
       <c r="J10">
-        <v>0.9240083060105715</v>
+        <v>0.9241423375550627</v>
       </c>
       <c r="K10">
-        <v>1.019265285705753</v>
+        <v>1.019295617730251</v>
       </c>
       <c r="L10">
-        <v>0.9321752900524972</v>
+        <v>0.9322934277317935</v>
       </c>
       <c r="M10">
-        <v>0.9534789714492911</v>
+        <v>0.9535680398429305</v>
+      </c>
+      <c r="N10">
+        <v>0.9496412221475939</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8795281338485874</v>
+        <v>0.8796878471498472</v>
       </c>
       <c r="D11">
-        <v>1.000259079588023</v>
+        <v>1.000294020849616</v>
       </c>
       <c r="E11">
-        <v>0.9068238391650101</v>
+        <v>0.9069595420427329</v>
       </c>
       <c r="F11">
-        <v>0.9284806674377718</v>
+        <v>0.9285833454851439</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034399975721829</v>
+        <v>1.034422065623633</v>
       </c>
       <c r="J11">
-        <v>0.9149399323887475</v>
+        <v>0.9150900158233454</v>
       </c>
       <c r="K11">
-        <v>1.015176111700847</v>
+        <v>1.01521039449737</v>
       </c>
       <c r="L11">
-        <v>0.9237463437863047</v>
+        <v>0.9238787303793567</v>
       </c>
       <c r="M11">
-        <v>0.9448903047450594</v>
+        <v>0.9449906273138147</v>
+      </c>
+      <c r="N11">
+        <v>0.94338500101179</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8752088075109631</v>
+        <v>0.8753757692380999</v>
       </c>
       <c r="D12">
-        <v>0.9984410023583257</v>
+        <v>0.9984776018436675</v>
       </c>
       <c r="E12">
-        <v>0.9032313919440205</v>
+        <v>0.9033730967203855</v>
       </c>
       <c r="F12">
-        <v>0.9248419919556263</v>
+        <v>0.9249494227403322</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03342931547982</v>
+        <v>1.033452442797904</v>
       </c>
       <c r="J12">
-        <v>0.9114257473388957</v>
+        <v>0.911582312437295</v>
       </c>
       <c r="K12">
-        <v>1.013598131375619</v>
+        <v>1.013634026835904</v>
       </c>
       <c r="L12">
-        <v>0.9204812077487003</v>
+        <v>0.9206193549961191</v>
       </c>
       <c r="M12">
-        <v>0.9415661333580392</v>
+        <v>0.9416710330950178</v>
+      </c>
+      <c r="N12">
+        <v>0.9409606411865654</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8761441543072693</v>
+        <v>0.8763095295208723</v>
       </c>
       <c r="D13">
-        <v>0.9988339913612327</v>
+        <v>0.9988702275226111</v>
       </c>
       <c r="E13">
-        <v>0.9040090168002739</v>
+        <v>0.9041494089494847</v>
       </c>
       <c r="F13">
-        <v>0.9256294615362051</v>
+        <v>0.9257358515828819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033639396973941</v>
+        <v>1.033662297037057</v>
       </c>
       <c r="J13">
-        <v>0.9121866405231058</v>
+        <v>0.9123417890509981</v>
       </c>
       <c r="K13">
-        <v>1.013939455276854</v>
+        <v>1.013974997460987</v>
       </c>
       <c r="L13">
-        <v>0.921188114889342</v>
+        <v>0.9213250028130412</v>
       </c>
       <c r="M13">
-        <v>0.9422856661376797</v>
+        <v>0.9423895639643518</v>
+      </c>
+      <c r="N13">
+        <v>0.9414855588880688</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8791750196867912</v>
+        <v>0.8793353181915252</v>
       </c>
       <c r="D14">
-        <v>1.000110134361892</v>
+        <v>1.000145209334431</v>
       </c>
       <c r="E14">
-        <v>0.9065300095360572</v>
+        <v>0.9066661974352082</v>
       </c>
       <c r="F14">
-        <v>0.9281829871321956</v>
+        <v>0.9282860486838412</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03432057389617</v>
+        <v>1.034342747470945</v>
       </c>
       <c r="J14">
-        <v>0.9146525965920739</v>
+        <v>0.9148032042493192</v>
       </c>
       <c r="K14">
-        <v>1.015046940143736</v>
+        <v>1.01508135300625</v>
       </c>
       <c r="L14">
-        <v>0.923479344219896</v>
+        <v>0.9236121965768825</v>
       </c>
       <c r="M14">
-        <v>0.9446184107560009</v>
+        <v>0.9447191028293681</v>
+      </c>
+      <c r="N14">
+        <v>0.9431867719576263</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8810172663605956</v>
+        <v>0.8811745258645867</v>
       </c>
       <c r="D15">
-        <v>1.000887807426727</v>
+        <v>1.000922188356473</v>
       </c>
       <c r="E15">
-        <v>0.9080632304375955</v>
+        <v>0.9081968987122835</v>
       </c>
       <c r="F15">
-        <v>0.929736429836264</v>
+        <v>0.9298375002383136</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034734910450099</v>
+        <v>1.034756649669218</v>
       </c>
       <c r="J15">
-        <v>0.9161517500164601</v>
+        <v>0.9162996335647683</v>
       </c>
       <c r="K15">
-        <v>1.015721165786796</v>
+        <v>1.015754903469583</v>
       </c>
       <c r="L15">
-        <v>0.924872447278546</v>
+        <v>0.925002879589131</v>
       </c>
       <c r="M15">
-        <v>0.9460371748953443</v>
+        <v>0.9461359481803763</v>
+      </c>
+      <c r="N15">
+        <v>0.9442210209554895</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8913840025042887</v>
+        <v>0.8915247799922686</v>
       </c>
       <c r="D16">
-        <v>1.005290939147755</v>
+        <v>1.005321570850115</v>
       </c>
       <c r="E16">
-        <v>0.9167031898705378</v>
+        <v>0.9168231550156043</v>
       </c>
       <c r="F16">
-        <v>0.9384955565140131</v>
+        <v>0.9385858469488922</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037069607479192</v>
+        <v>1.037088998440357</v>
       </c>
       <c r="J16">
-        <v>0.9245912453731691</v>
+        <v>0.9247242760949752</v>
       </c>
       <c r="K16">
-        <v>1.019528917697128</v>
+        <v>1.019559005488635</v>
       </c>
       <c r="L16">
-        <v>0.9327172786422977</v>
+        <v>0.9328345287739096</v>
       </c>
       <c r="M16">
-        <v>0.9540315266947795</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9541198973425435</v>
+      </c>
+      <c r="N16">
+        <v>0.9500433862488062</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8976006596828445</v>
+        <v>0.8977320211548898</v>
       </c>
       <c r="D17">
-        <v>1.007952188862784</v>
+        <v>1.007980690915065</v>
       </c>
       <c r="E17">
-        <v>0.9218939189715847</v>
+        <v>0.9220060267643703</v>
       </c>
       <c r="F17">
-        <v>0.943761185865326</v>
+        <v>0.9438453336229737</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038471121767646</v>
+        <v>1.038489177330036</v>
       </c>
       <c r="J17">
-        <v>0.9296545221233801</v>
+        <v>0.9297790061643617</v>
       </c>
       <c r="K17">
-        <v>1.02182220939897</v>
+        <v>1.021850221866272</v>
       </c>
       <c r="L17">
-        <v>0.9374256079321015</v>
+        <v>0.9375352830448827</v>
       </c>
       <c r="M17">
-        <v>0.9588327818469519</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9589152133883766</v>
+      </c>
+      <c r="N17">
+        <v>0.9535364207800884</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.90113323065957</v>
+        <v>0.9012593855811714</v>
       </c>
       <c r="D18">
-        <v>1.009470933894846</v>
+        <v>1.009498262510931</v>
       </c>
       <c r="E18">
-        <v>0.924846587173195</v>
+        <v>0.9249543412414503</v>
       </c>
       <c r="F18">
-        <v>0.9467572133267097</v>
+        <v>0.9468379699252545</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039267593138202</v>
+        <v>1.039284912374161</v>
       </c>
       <c r="J18">
-        <v>0.9325323046380688</v>
+        <v>0.9326520430542637</v>
       </c>
       <c r="K18">
-        <v>1.023128164986778</v>
+        <v>1.02315503323914</v>
       </c>
       <c r="L18">
-        <v>0.9401022265821144</v>
+        <v>0.9402076990402694</v>
       </c>
       <c r="M18">
-        <v>0.9615629542402966</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.961642103260826</v>
+      </c>
+      <c r="N18">
+        <v>0.9555216516677408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9023226989491484</v>
+        <v>0.9024471232364221</v>
       </c>
       <c r="D19">
-        <v>1.009983338600178</v>
+        <v>1.010010277851956</v>
       </c>
       <c r="E19">
-        <v>0.9258412840398792</v>
+        <v>0.9259475895267253</v>
       </c>
       <c r="F19">
-        <v>0.9477666080257741</v>
+        <v>0.94784623831096</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039535749697458</v>
+        <v>1.039552824522618</v>
       </c>
       <c r="J19">
-        <v>0.933501380602562</v>
+        <v>0.9336195384278841</v>
       </c>
       <c r="K19">
-        <v>1.023568312054918</v>
+        <v>1.023594800521701</v>
       </c>
       <c r="L19">
-        <v>0.9410036527264493</v>
+        <v>0.9411077259992356</v>
       </c>
       <c r="M19">
-        <v>0.9624825038028607</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9625605619867471</v>
+      </c>
+      <c r="N19">
+        <v>0.9561901480177371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8969435409708985</v>
+        <v>0.8970758822098071</v>
       </c>
       <c r="D20">
-        <v>1.007670186594829</v>
+        <v>1.007698909800991</v>
       </c>
       <c r="E20">
-        <v>0.9213449150741954</v>
+        <v>0.9214578414305827</v>
       </c>
       <c r="F20">
-        <v>0.9432041722667944</v>
+        <v>0.9432889586126907</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03832296062072</v>
+        <v>1.038341154913607</v>
       </c>
       <c r="J20">
-        <v>0.9291192504069689</v>
+        <v>0.9292446258913134</v>
       </c>
       <c r="K20">
-        <v>1.021579492645802</v>
+        <v>1.021607720701648</v>
       </c>
       <c r="L20">
-        <v>0.9369277982464199</v>
+        <v>0.9370382630868109</v>
       </c>
       <c r="M20">
-        <v>0.9583250624566934</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9584081118264124</v>
+      </c>
+      <c r="N20">
+        <v>0.9531671571663541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8782878218517984</v>
+        <v>0.8784495963940293</v>
       </c>
       <c r="D21">
-        <v>0.9997361544502774</v>
+        <v>0.9997715668087511</v>
       </c>
       <c r="E21">
-        <v>0.9057918727201597</v>
+        <v>0.9059292836144077</v>
       </c>
       <c r="F21">
-        <v>0.9274352300050469</v>
+        <v>0.9275392590217899</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034121113257204</v>
+        <v>1.034143497943145</v>
       </c>
       <c r="J21">
-        <v>0.9139307001359802</v>
+        <v>0.9140826292960091</v>
       </c>
       <c r="K21">
-        <v>1.014722527191326</v>
+        <v>1.014757268219866</v>
       </c>
       <c r="L21">
-        <v>0.9228085612541395</v>
+        <v>0.9229425878608527</v>
       </c>
       <c r="M21">
-        <v>0.9439353825726431</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9440370066625999</v>
+      </c>
+      <c r="N21">
+        <v>0.9426887470203754</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8654840528653178</v>
+        <v>0.8656680965064585</v>
       </c>
       <c r="D22">
-        <v>0.994379351808494</v>
+        <v>0.994419875601477</v>
       </c>
       <c r="E22">
-        <v>0.8951571186854609</v>
+        <v>0.8953129194995444</v>
       </c>
       <c r="F22">
-        <v>0.9166714849690532</v>
+        <v>0.9167901367041471</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031249610463533</v>
+        <v>1.031275190816477</v>
       </c>
       <c r="J22">
-        <v>0.903518417211874</v>
+        <v>0.9036901613400253</v>
       </c>
       <c r="K22">
-        <v>1.010062983246463</v>
+        <v>1.010102692309282</v>
       </c>
       <c r="L22">
-        <v>0.9131370040847516</v>
+        <v>0.9132886564882833</v>
       </c>
       <c r="M22">
-        <v>0.9340965070989529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9342121961020935</v>
+      </c>
+      <c r="N22">
+        <v>0.9355059040345661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8723870400739131</v>
+        <v>0.8725588462697305</v>
       </c>
       <c r="D23">
-        <v>0.9972578640978333</v>
+        <v>0.9972955742641445</v>
       </c>
       <c r="E23">
-        <v>0.9008865178234228</v>
+        <v>0.9010322271201421</v>
       </c>
       <c r="F23">
-        <v>0.922468009877375</v>
+        <v>0.9225786201594535</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032795961297778</v>
+        <v>1.032819783175109</v>
       </c>
       <c r="J23">
-        <v>0.9091306294030539</v>
+        <v>0.9092915128014203</v>
       </c>
       <c r="K23">
-        <v>1.012569763572139</v>
+        <v>1.012606738777647</v>
       </c>
       <c r="L23">
-        <v>0.9183491411551333</v>
+        <v>0.9184911284625646</v>
       </c>
       <c r="M23">
-        <v>0.9393965425641476</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9395045018780653</v>
+      </c>
+      <c r="N23">
+        <v>0.9393773324298518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.897240751289427</v>
+        <v>0.897372648942209</v>
       </c>
       <c r="D24">
-        <v>1.007797714197955</v>
+        <v>1.007826337264407</v>
       </c>
       <c r="E24">
-        <v>0.9215932162842296</v>
+        <v>0.9217057720669367</v>
       </c>
       <c r="F24">
-        <v>0.9434560938228904</v>
+        <v>0.9435405910330881</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03838997278578</v>
+        <v>1.038408104262372</v>
       </c>
       <c r="J24">
-        <v>0.929361348302568</v>
+        <v>0.9294863202508752</v>
       </c>
       <c r="K24">
-        <v>1.02168926318301</v>
+        <v>1.021717393621406</v>
       </c>
       <c r="L24">
-        <v>0.9371529506721337</v>
+        <v>0.9372630580100786</v>
       </c>
       <c r="M24">
-        <v>0.9585546947348668</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.958637464380199</v>
+      </c>
+      <c r="N24">
+        <v>0.9533341715744588</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9224568607866374</v>
+        <v>0.9225535533679485</v>
       </c>
       <c r="D25">
-        <v>1.018727477584301</v>
+        <v>1.01874822782806</v>
       </c>
       <c r="E25">
-        <v>0.9427141526854202</v>
+        <v>0.9427971500803336</v>
       </c>
       <c r="F25">
-        <v>0.96488995850379</v>
+        <v>0.9649516071683838</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044065602695642</v>
+        <v>1.044078786122846</v>
       </c>
       <c r="J25">
-        <v>0.9499086676494262</v>
+        <v>0.9500012758968195</v>
       </c>
       <c r="K25">
-        <v>1.031041866741284</v>
+        <v>1.031062309749261</v>
       </c>
       <c r="L25">
-        <v>0.9562720068612145</v>
+        <v>0.956353504385713</v>
       </c>
       <c r="M25">
-        <v>0.9780589159447487</v>
+        <v>0.9781195156496355</v>
+      </c>
+      <c r="N25">
+        <v>0.967506119737212</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9405196844762584</v>
+        <v>0.9883550781759577</v>
       </c>
       <c r="D2">
-        <v>1.026648275011908</v>
+        <v>1.035214876241786</v>
       </c>
       <c r="E2">
-        <v>0.9579051857601071</v>
+        <v>1.008003121925424</v>
       </c>
       <c r="F2">
-        <v>0.9802748942144008</v>
+        <v>1.025193987898342</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048087931563795</v>
+        <v>1.049121010172264</v>
       </c>
       <c r="J2">
-        <v>0.9646376369235287</v>
+        <v>1.010889754385283</v>
       </c>
       <c r="K2">
-        <v>1.037748432705364</v>
+        <v>1.046204479519831</v>
       </c>
       <c r="L2">
-        <v>0.9699838809659098</v>
+        <v>1.019352075268639</v>
       </c>
       <c r="M2">
-        <v>0.992016047314994</v>
+        <v>1.03631314340643</v>
       </c>
       <c r="N2">
-        <v>0.9776093863700541</v>
+        <v>1.012325333787186</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9526052909508029</v>
+        <v>0.9977993187956022</v>
       </c>
       <c r="D3">
-        <v>1.03199624588263</v>
+        <v>1.040204902961966</v>
       </c>
       <c r="E3">
-        <v>0.9680926960334162</v>
+        <v>1.015754768574732</v>
       </c>
       <c r="F3">
-        <v>0.9905882042507049</v>
+        <v>1.032368961089312</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050750593650344</v>
+        <v>1.05075916010175</v>
       </c>
       <c r="J3">
-        <v>0.974477012934952</v>
+        <v>1.018350156914345</v>
       </c>
       <c r="K3">
-        <v>1.042235464362572</v>
+        <v>1.050347954837874</v>
       </c>
       <c r="L3">
-        <v>0.9791507990599352</v>
+        <v>1.02618995598231</v>
       </c>
       <c r="M3">
-        <v>1.001342944273318</v>
+        <v>1.042603772065636</v>
       </c>
       <c r="N3">
-        <v>0.9843959724444497</v>
+        <v>1.019796330943559</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9600481441962496</v>
+        <v>1.0036976338725</v>
       </c>
       <c r="D4">
-        <v>1.035298007732494</v>
+        <v>1.043328003053854</v>
       </c>
       <c r="E4">
-        <v>0.9743754728633101</v>
+        <v>1.020603366813316</v>
       </c>
       <c r="F4">
-        <v>0.9969367505455424</v>
+        <v>1.036858162719904</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052371147380046</v>
+        <v>1.0517700955414</v>
       </c>
       <c r="J4">
-        <v>0.9805321387275258</v>
+        <v>1.023007224419528</v>
       </c>
       <c r="K4">
-        <v>1.044988294155427</v>
+        <v>1.05293017605696</v>
       </c>
       <c r="L4">
-        <v>0.9847933287083972</v>
+        <v>1.03045932768198</v>
       </c>
       <c r="M4">
-        <v>1.007072287431898</v>
+        <v>1.046531198221506</v>
       </c>
       <c r="N4">
-        <v>0.988569685772186</v>
+        <v>1.024460012018772</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9630950362535686</v>
+        <v>1.006129846107788</v>
       </c>
       <c r="D5">
-        <v>1.03665069252411</v>
+        <v>1.044617038837705</v>
       </c>
       <c r="E5">
-        <v>0.9769492805786377</v>
+        <v>1.022604289933925</v>
       </c>
       <c r="F5">
-        <v>0.9995343000212507</v>
+        <v>1.038710961491938</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053029493998541</v>
+        <v>1.052183895981403</v>
       </c>
       <c r="J5">
-        <v>0.9830096935199799</v>
+        <v>1.024926940725082</v>
       </c>
       <c r="K5">
-        <v>1.046111988228662</v>
+        <v>1.053993355903034</v>
       </c>
       <c r="L5">
-        <v>0.9871022922471619</v>
+        <v>1.032219387521747</v>
       </c>
       <c r="M5">
-        <v>1.00941360748723</v>
+        <v>1.048150126812865</v>
       </c>
       <c r="N5">
-        <v>0.9902767422426115</v>
+        <v>1.026382454541675</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9636020266811998</v>
+        <v>1.006535538118515</v>
       </c>
       <c r="D6">
-        <v>1.036875809449415</v>
+        <v>1.04483210960709</v>
       </c>
       <c r="E6">
-        <v>0.9773776505535345</v>
+        <v>1.022938129897799</v>
       </c>
       <c r="F6">
-        <v>0.9999664231555673</v>
+        <v>1.039020095860464</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053138730079465</v>
+        <v>1.052252733219482</v>
       </c>
       <c r="J6">
-        <v>0.9834218705412342</v>
+        <v>1.025247106683411</v>
       </c>
       <c r="K6">
-        <v>1.046298756364932</v>
+        <v>1.054170590810378</v>
       </c>
       <c r="L6">
-        <v>0.987486433406194</v>
+        <v>1.032512933982924</v>
       </c>
       <c r="M6">
-        <v>1.009802935262218</v>
+        <v>1.048420122694846</v>
       </c>
       <c r="N6">
-        <v>0.990560694439886</v>
+        <v>1.026703075172388</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9600891694545303</v>
+        <v>1.003730315272713</v>
       </c>
       <c r="D7">
-        <v>1.035316218172882</v>
+        <v>1.043345319423876</v>
       </c>
       <c r="E7">
-        <v>0.9744101213727561</v>
+        <v>1.020630247059123</v>
       </c>
       <c r="F7">
-        <v>0.9969717318347525</v>
+        <v>1.036883052469588</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052380032439162</v>
+        <v>1.051775668075003</v>
       </c>
       <c r="J7">
-        <v>0.9805655032322584</v>
+        <v>1.023033022217627</v>
       </c>
       <c r="K7">
-        <v>1.045003438027983</v>
+        <v>1.05294446867219</v>
       </c>
       <c r="L7">
-        <v>0.9848244220146991</v>
+        <v>1.030482979412025</v>
       </c>
       <c r="M7">
-        <v>1.007103829512495</v>
+        <v>1.046552954201803</v>
       </c>
       <c r="N7">
-        <v>0.9885926769715796</v>
+        <v>1.024485846452704</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9446875886002792</v>
+        <v>0.9915930754987645</v>
       </c>
       <c r="D8">
-        <v>1.028490215666471</v>
+        <v>1.036924075427369</v>
       </c>
       <c r="E8">
-        <v>0.9614164024700856</v>
+        <v>1.010659113075624</v>
       </c>
       <c r="F8">
-        <v>0.9838317476089649</v>
+        <v>1.027652034323242</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04901000741369</v>
+        <v>1.049685135896902</v>
       </c>
       <c r="J8">
-        <v>0.9680317103915906</v>
+        <v>1.01344798752464</v>
       </c>
       <c r="K8">
-        <v>1.039297617107274</v>
+        <v>1.047626078322905</v>
       </c>
       <c r="L8">
-        <v>0.9731456829525882</v>
+        <v>1.021696610011692</v>
       </c>
       <c r="M8">
-        <v>0.9952352755519638</v>
+        <v>1.03847002852327</v>
       </c>
       <c r="N8">
-        <v>0.979950969754763</v>
+        <v>1.014887199911034</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9142034204705968</v>
+        <v>0.9683968256724274</v>
       </c>
       <c r="D9">
-        <v>1.015104157914112</v>
+        <v>1.024727106674797</v>
       </c>
       <c r="E9">
-        <v>0.9357916631158394</v>
+        <v>0.9916742199356696</v>
       </c>
       <c r="F9">
-        <v>0.9578402415100588</v>
+        <v>1.010093565378224</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042202202125076</v>
+        <v>1.045597676738407</v>
       </c>
       <c r="J9">
-        <v>0.9431974949383868</v>
+        <v>0.9951171468604204</v>
       </c>
       <c r="K9">
-        <v>1.027956843261388</v>
+        <v>1.037431349862644</v>
       </c>
       <c r="L9">
-        <v>0.9500201068203803</v>
+        <v>1.00490383704355</v>
       </c>
       <c r="M9">
-        <v>0.9716564895767374</v>
+        <v>1.023024976990069</v>
       </c>
       <c r="N9">
-        <v>0.9628070903306283</v>
+        <v>0.9965303273504944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.890810033007039</v>
+        <v>0.9514212948074566</v>
       </c>
       <c r="D10">
-        <v>1.005016348148804</v>
+        <v>1.015886251709307</v>
       </c>
       <c r="E10">
-        <v>0.9162268121862148</v>
+        <v>0.9778479371066358</v>
       </c>
       <c r="F10">
-        <v>0.937980821648062</v>
+        <v>0.9973286463748384</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036927812157308</v>
+        <v>1.042555773959247</v>
       </c>
       <c r="J10">
-        <v>0.9241423375550627</v>
+        <v>0.9817042852031949</v>
       </c>
       <c r="K10">
-        <v>1.019295617730251</v>
+        <v>1.029974479136459</v>
       </c>
       <c r="L10">
-        <v>0.9322934277317935</v>
+        <v>0.9926290137666947</v>
       </c>
       <c r="M10">
-        <v>0.9535680398429305</v>
+        <v>1.011746301027931</v>
       </c>
       <c r="N10">
-        <v>0.9496412221475939</v>
+        <v>0.9830984178912386</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8796878471498472</v>
+        <v>0.9436297617791112</v>
       </c>
       <c r="D11">
-        <v>1.000294020849616</v>
+        <v>1.011857711469794</v>
       </c>
       <c r="E11">
-        <v>0.9069595420427329</v>
+        <v>0.9715228758796287</v>
       </c>
       <c r="F11">
-        <v>0.9285833454851439</v>
+        <v>0.9914973803443214</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034422065623633</v>
+        <v>1.041150875904111</v>
       </c>
       <c r="J11">
-        <v>0.9150900158233454</v>
+        <v>0.9755513451363284</v>
       </c>
       <c r="K11">
-        <v>1.01521039449737</v>
+        <v>1.026559420477795</v>
       </c>
       <c r="L11">
-        <v>0.9238787303793567</v>
+        <v>0.9870025809273237</v>
       </c>
       <c r="M11">
-        <v>0.9449906273138147</v>
+        <v>1.006581444927732</v>
       </c>
       <c r="N11">
-        <v>0.94338500101179</v>
+        <v>0.9769367399437252</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8753757692380999</v>
+        <v>0.9406607511182136</v>
       </c>
       <c r="D12">
-        <v>0.9984776018436675</v>
+        <v>1.010327914895923</v>
       </c>
       <c r="E12">
-        <v>0.9033730967203855</v>
+        <v>0.969116340167446</v>
       </c>
       <c r="F12">
-        <v>0.9249494227403322</v>
+        <v>0.9892802546822383</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033452442797904</v>
+        <v>1.040614554741431</v>
       </c>
       <c r="J12">
-        <v>0.911582312437295</v>
+        <v>0.9732075337245611</v>
       </c>
       <c r="K12">
-        <v>1.013634026835904</v>
+        <v>1.025259887629318</v>
       </c>
       <c r="L12">
-        <v>0.9206193549961191</v>
+        <v>0.9848601451349744</v>
       </c>
       <c r="M12">
-        <v>0.9416710330950178</v>
+        <v>1.004615750671174</v>
       </c>
       <c r="N12">
-        <v>0.9409606411865654</v>
+        <v>0.9745896000509146</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8763095295208723</v>
+        <v>0.9413011592261343</v>
       </c>
       <c r="D13">
-        <v>0.9988702275226111</v>
+        <v>1.010657633213334</v>
       </c>
       <c r="E13">
-        <v>0.9041494089494847</v>
+        <v>0.9696352494546905</v>
       </c>
       <c r="F13">
-        <v>0.9257358515828819</v>
+        <v>0.989758248146685</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033662297037057</v>
+        <v>1.040730276053065</v>
       </c>
       <c r="J13">
-        <v>0.9123417890509981</v>
+        <v>0.9737130464289032</v>
       </c>
       <c r="K13">
-        <v>1.013974997460987</v>
+        <v>1.025540100960111</v>
       </c>
       <c r="L13">
-        <v>0.9213250028130412</v>
+        <v>0.9853221858104633</v>
       </c>
       <c r="M13">
-        <v>0.9423895639643518</v>
+        <v>1.005039626595325</v>
       </c>
       <c r="N13">
-        <v>0.9414855588880688</v>
+        <v>0.9750958306412794</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8793353181915252</v>
+        <v>0.9433859258421857</v>
       </c>
       <c r="D14">
-        <v>1.000145209334431</v>
+        <v>1.011731960938932</v>
       </c>
       <c r="E14">
-        <v>0.9066661974352082</v>
+        <v>0.9713251569106027</v>
       </c>
       <c r="F14">
-        <v>0.9282860486838412</v>
+        <v>0.9913151902872591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034342747470945</v>
+        <v>1.041106847137561</v>
       </c>
       <c r="J14">
-        <v>0.9148032042493192</v>
+        <v>0.9753588368072121</v>
       </c>
       <c r="K14">
-        <v>1.01508135300625</v>
+        <v>1.026452653265773</v>
       </c>
       <c r="L14">
-        <v>0.9236121965768825</v>
+        <v>0.9868265951012233</v>
       </c>
       <c r="M14">
-        <v>0.9447191028293681</v>
+        <v>1.006419955810728</v>
       </c>
       <c r="N14">
-        <v>0.9431867719576263</v>
+        <v>0.9767439582307007</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8811745258645867</v>
+        <v>0.9446602102669244</v>
       </c>
       <c r="D15">
-        <v>1.000922188356473</v>
+        <v>1.012389352679536</v>
       </c>
       <c r="E15">
-        <v>0.9081968987122835</v>
+        <v>0.9723585863205356</v>
       </c>
       <c r="F15">
-        <v>0.9298375002383136</v>
+        <v>0.9922675178164707</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034756649669218</v>
+        <v>1.04133690360052</v>
       </c>
       <c r="J15">
-        <v>0.9162996335647683</v>
+        <v>0.9763649180580931</v>
       </c>
       <c r="K15">
-        <v>1.015754903469583</v>
+        <v>1.027010694715522</v>
       </c>
       <c r="L15">
-        <v>0.925002879589131</v>
+        <v>0.9877463609333721</v>
       </c>
       <c r="M15">
-        <v>0.9461359481803763</v>
+        <v>1.007263997874644</v>
       </c>
       <c r="N15">
-        <v>0.9442210209554895</v>
+        <v>0.977751468232357</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8915247799922686</v>
+        <v>0.951928400392538</v>
       </c>
       <c r="D16">
-        <v>1.005321570850115</v>
+        <v>1.016149120835709</v>
       </c>
       <c r="E16">
-        <v>0.9168231550156043</v>
+        <v>0.9782600714850065</v>
       </c>
       <c r="F16">
-        <v>0.9385858469488922</v>
+        <v>0.9977087990774892</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037088998440357</v>
+        <v>1.042647058188904</v>
       </c>
       <c r="J16">
-        <v>0.9247242760949752</v>
+        <v>0.9821048373944619</v>
       </c>
       <c r="K16">
-        <v>1.019559005488635</v>
+        <v>1.03019695375266</v>
       </c>
       <c r="L16">
-        <v>0.9328345287739096</v>
+        <v>0.9929953940146851</v>
       </c>
       <c r="M16">
-        <v>0.9541198973425435</v>
+        <v>1.012082745665427</v>
       </c>
       <c r="N16">
-        <v>0.9500433862488062</v>
+        <v>0.9834995389125614</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8977320211548898</v>
+        <v>0.9563638569780294</v>
       </c>
       <c r="D17">
-        <v>1.007980690915065</v>
+        <v>1.018451708451301</v>
       </c>
       <c r="E17">
-        <v>0.9220060267643703</v>
+        <v>0.9818672558469692</v>
       </c>
       <c r="F17">
-        <v>0.9438453336229737</v>
+        <v>1.00103702175931</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038489177330036</v>
+        <v>1.043444546064131</v>
       </c>
       <c r="J17">
-        <v>0.9297790061643617</v>
+        <v>0.985608720788455</v>
       </c>
       <c r="K17">
-        <v>1.021850221866272</v>
+        <v>1.032143766489862</v>
       </c>
       <c r="L17">
-        <v>0.9375352830448827</v>
+        <v>0.9962008672361348</v>
       </c>
       <c r="M17">
-        <v>0.9589152133883766</v>
+        <v>1.015026892626941</v>
       </c>
       <c r="N17">
-        <v>0.9535364207800884</v>
+        <v>0.9870083982228748</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9012593855811714</v>
+        <v>0.9589090911581174</v>
       </c>
       <c r="D18">
-        <v>1.009498262510931</v>
+        <v>1.019775685069981</v>
       </c>
       <c r="E18">
-        <v>0.9249543412414503</v>
+        <v>0.9839391161353499</v>
       </c>
       <c r="F18">
-        <v>0.9468379699252545</v>
+        <v>1.002949404429766</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039284912374161</v>
+        <v>1.043901340748433</v>
       </c>
       <c r="J18">
-        <v>0.9326520430542637</v>
+        <v>0.9876196760608124</v>
       </c>
       <c r="K18">
-        <v>1.02315503323914</v>
+        <v>1.033261577395515</v>
       </c>
       <c r="L18">
-        <v>0.9402076990402694</v>
+        <v>0.9980409624948086</v>
       </c>
       <c r="M18">
-        <v>0.961642103260826</v>
+        <v>1.016717420782132</v>
       </c>
       <c r="N18">
-        <v>0.9555216516677408</v>
+        <v>0.9890222092823788</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9024471232364221</v>
+        <v>0.959770081588041</v>
       </c>
       <c r="D19">
-        <v>1.010010277851956</v>
+        <v>1.020223981471334</v>
       </c>
       <c r="E19">
-        <v>0.9259475895267253</v>
+        <v>0.9846402878518106</v>
       </c>
       <c r="F19">
-        <v>0.94784623831096</v>
+        <v>1.003596724047439</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039552824522618</v>
+        <v>1.04405571269622</v>
       </c>
       <c r="J19">
-        <v>0.9336195384278841</v>
+        <v>0.9882999748593457</v>
       </c>
       <c r="K19">
-        <v>1.023594800521701</v>
+        <v>1.033639798753176</v>
       </c>
       <c r="L19">
-        <v>0.9411077259992356</v>
+        <v>0.9986635245803999</v>
       </c>
       <c r="M19">
-        <v>0.9625605619867471</v>
+        <v>1.017289449028312</v>
       </c>
       <c r="N19">
-        <v>0.9561901480177371</v>
+        <v>0.9897034741832376</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8970758822098071</v>
+        <v>0.9558923649680401</v>
       </c>
       <c r="D20">
-        <v>1.007698909800991</v>
+        <v>1.018206658639605</v>
       </c>
       <c r="E20">
-        <v>0.9214578414305827</v>
+        <v>0.9814836065348774</v>
       </c>
       <c r="F20">
-        <v>0.9432889586126907</v>
+        <v>1.000682962051905</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038341154913607</v>
+        <v>1.043359857219804</v>
       </c>
       <c r="J20">
-        <v>0.9292446258913134</v>
+        <v>0.9852362231783017</v>
       </c>
       <c r="K20">
-        <v>1.021607720701648</v>
+        <v>1.031936746414314</v>
       </c>
       <c r="L20">
-        <v>0.9370382630868109</v>
+        <v>0.9958600505731947</v>
       </c>
       <c r="M20">
-        <v>0.9584081118264124</v>
+        <v>1.014713813016634</v>
       </c>
       <c r="N20">
-        <v>0.9531671571663541</v>
+        <v>0.9866353716233891</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8784495963940293</v>
+        <v>0.9427741587801675</v>
       </c>
       <c r="D21">
-        <v>0.9997715668087511</v>
+        <v>1.011416550197302</v>
       </c>
       <c r="E21">
-        <v>0.9059292836144077</v>
+        <v>0.9708291547895394</v>
       </c>
       <c r="F21">
-        <v>0.9275392590217899</v>
+        <v>0.9908581700169883</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034143497943145</v>
+        <v>1.040996367626933</v>
       </c>
       <c r="J21">
-        <v>0.9140826292960091</v>
+        <v>0.9748758610619895</v>
       </c>
       <c r="K21">
-        <v>1.014757268219866</v>
+        <v>1.026184813156212</v>
       </c>
       <c r="L21">
-        <v>0.9229425878608527</v>
+        <v>0.9863850855768338</v>
       </c>
       <c r="M21">
-        <v>0.9440370066625999</v>
+        <v>1.006014831952222</v>
       </c>
       <c r="N21">
-        <v>0.9426887470203754</v>
+        <v>0.9762602966045216</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8656680965064585</v>
+        <v>0.9340873899956252</v>
       </c>
       <c r="D22">
-        <v>0.994419875601477</v>
+        <v>1.006951900383774</v>
       </c>
       <c r="E22">
-        <v>0.8953129194995444</v>
+        <v>0.9637957257417989</v>
       </c>
       <c r="F22">
-        <v>0.9167901367041471</v>
+        <v>0.9843816083887332</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031275190816477</v>
+        <v>1.039425750495453</v>
       </c>
       <c r="J22">
-        <v>0.9036901613400253</v>
+        <v>0.9680202205919337</v>
       </c>
       <c r="K22">
-        <v>1.010102692309282</v>
+        <v>1.022386885399157</v>
       </c>
       <c r="L22">
-        <v>0.9132886564882833</v>
+        <v>0.9801202103657795</v>
       </c>
       <c r="M22">
-        <v>0.9342121961020935</v>
+        <v>1.000268950629019</v>
       </c>
       <c r="N22">
-        <v>0.9355059040345661</v>
+        <v>0.9693949203386453</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8725588462697305</v>
+        <v>0.9387373374554823</v>
       </c>
       <c r="D23">
-        <v>0.9972955742641445</v>
+        <v>1.00933848743382</v>
       </c>
       <c r="E23">
-        <v>0.9010322271201421</v>
+        <v>0.9675584201881449</v>
       </c>
       <c r="F23">
-        <v>0.9225786201594535</v>
+        <v>0.987845425997726</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032819783175109</v>
+        <v>1.040266880338173</v>
       </c>
       <c r="J23">
-        <v>0.9092915128014203</v>
+        <v>0.9716894109582265</v>
       </c>
       <c r="K23">
-        <v>1.012606738777647</v>
+        <v>1.024418609692009</v>
       </c>
       <c r="L23">
-        <v>0.9184911284625646</v>
+        <v>0.9834727070153041</v>
       </c>
       <c r="M23">
-        <v>0.9395045018780653</v>
+        <v>1.003343079659373</v>
       </c>
       <c r="N23">
-        <v>0.9393773324298518</v>
+        <v>0.9730693213761205</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.897372648942209</v>
+        <v>0.9561055407419299</v>
       </c>
       <c r="D24">
-        <v>1.007826337264407</v>
+        <v>1.018317444833622</v>
       </c>
       <c r="E24">
-        <v>0.9217057720669367</v>
+        <v>0.9816570600336744</v>
       </c>
       <c r="F24">
-        <v>0.9435405910330881</v>
+        <v>1.000843035343943</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038408104262372</v>
+        <v>1.043398150222953</v>
       </c>
       <c r="J24">
-        <v>0.9294863202508752</v>
+        <v>0.9854046397032223</v>
       </c>
       <c r="K24">
-        <v>1.021717393621406</v>
+        <v>1.032030344448798</v>
       </c>
       <c r="L24">
-        <v>0.9372630580100786</v>
+        <v>0.9960141420142293</v>
       </c>
       <c r="M24">
-        <v>0.958637464380199</v>
+        <v>1.014855362493641</v>
       </c>
       <c r="N24">
-        <v>0.9533341715744588</v>
+        <v>0.986804027319093</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9225535533679485</v>
+        <v>0.9746356309538936</v>
       </c>
       <c r="D25">
-        <v>1.01874822782806</v>
+        <v>1.027995822678878</v>
       </c>
       <c r="E25">
-        <v>0.9427971500803336</v>
+        <v>0.9967704364538208</v>
       </c>
       <c r="F25">
-        <v>0.9649516071683838</v>
+        <v>1.014803905234323</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044078786122846</v>
+        <v>1.046706508769255</v>
       </c>
       <c r="J25">
-        <v>0.9500012758968195</v>
+        <v>1.000047832726334</v>
       </c>
       <c r="K25">
-        <v>1.031062309749261</v>
+        <v>1.040174546149753</v>
       </c>
       <c r="L25">
-        <v>0.956353504385713</v>
+        <v>1.009419094975687</v>
       </c>
       <c r="M25">
-        <v>0.9781195156496355</v>
+        <v>1.0271766755048</v>
       </c>
       <c r="N25">
-        <v>0.967506119737212</v>
+        <v>1.001468015355895</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9883550781759577</v>
+        <v>0.9890992999454279</v>
       </c>
       <c r="D2">
-        <v>1.035214876241786</v>
+        <v>1.035851178223076</v>
       </c>
       <c r="E2">
-        <v>1.008003121925424</v>
+        <v>1.009429661874985</v>
       </c>
       <c r="F2">
-        <v>1.025193987898342</v>
+        <v>1.026231344029648</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.049121010172264</v>
+        <v>1.05471506050967</v>
       </c>
       <c r="J2">
-        <v>1.010889754385283</v>
+        <v>1.011611010287227</v>
       </c>
       <c r="K2">
-        <v>1.046204479519831</v>
+        <v>1.046832660995377</v>
       </c>
       <c r="L2">
-        <v>1.019352075268639</v>
+        <v>1.020759171288063</v>
       </c>
       <c r="M2">
-        <v>1.03631314340643</v>
+        <v>1.037336941328709</v>
       </c>
       <c r="N2">
-        <v>1.012325333787186</v>
+        <v>1.007840454468303</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9977993187956022</v>
+        <v>0.9933904667615133</v>
       </c>
       <c r="D3">
-        <v>1.040204902961966</v>
+        <v>1.0389139414165</v>
       </c>
       <c r="E3">
-        <v>1.015754768574732</v>
+        <v>1.01294543764462</v>
       </c>
       <c r="F3">
-        <v>1.032368961089312</v>
+        <v>1.030023570281003</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05075916010175</v>
+        <v>1.055782704278081</v>
       </c>
       <c r="J3">
-        <v>1.018350156914345</v>
+        <v>1.014062950524531</v>
       </c>
       <c r="K3">
-        <v>1.050347954837874</v>
+        <v>1.049071992730571</v>
       </c>
       <c r="L3">
-        <v>1.02618995598231</v>
+        <v>1.023415315937462</v>
       </c>
       <c r="M3">
-        <v>1.042603772065636</v>
+        <v>1.040286182253035</v>
       </c>
       <c r="N3">
-        <v>1.019796330943559</v>
+        <v>1.008664833005178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.0036976338725</v>
+        <v>0.9961126026163249</v>
       </c>
       <c r="D4">
-        <v>1.043328003053854</v>
+        <v>1.040846471034757</v>
       </c>
       <c r="E4">
-        <v>1.020603366813316</v>
+        <v>1.015179019361928</v>
       </c>
       <c r="F4">
-        <v>1.036858162719904</v>
+        <v>1.032425762276157</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0517700955414</v>
+        <v>1.05643978657047</v>
       </c>
       <c r="J4">
-        <v>1.023007224419528</v>
+        <v>1.015616273872835</v>
       </c>
       <c r="K4">
-        <v>1.05293017605696</v>
+        <v>1.050475695747547</v>
       </c>
       <c r="L4">
-        <v>1.03045932768198</v>
+        <v>1.025097634789997</v>
       </c>
       <c r="M4">
-        <v>1.046531198221506</v>
+        <v>1.042147975408377</v>
       </c>
       <c r="N4">
-        <v>1.024460012018772</v>
+        <v>1.009186868665643</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006129846107788</v>
+        <v>0.9972443844794706</v>
       </c>
       <c r="D5">
-        <v>1.044617038837705</v>
+        <v>1.04164737000719</v>
       </c>
       <c r="E5">
-        <v>1.022604289933925</v>
+        <v>1.016108419803512</v>
       </c>
       <c r="F5">
-        <v>1.038710961491938</v>
+        <v>1.03342362078886</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052183895981403</v>
+        <v>1.056708060714289</v>
       </c>
       <c r="J5">
-        <v>1.024926940725082</v>
+        <v>1.016261568001749</v>
       </c>
       <c r="K5">
-        <v>1.053993355903034</v>
+        <v>1.051055179119513</v>
       </c>
       <c r="L5">
-        <v>1.032219387521747</v>
+        <v>1.025796415800664</v>
       </c>
       <c r="M5">
-        <v>1.048150126812865</v>
+        <v>1.042919797627882</v>
       </c>
       <c r="N5">
-        <v>1.026382454541675</v>
+        <v>1.009403682785795</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006535538118515</v>
+        <v>0.997433689260268</v>
       </c>
       <c r="D6">
-        <v>1.04483210960709</v>
+        <v>1.041781175335203</v>
       </c>
       <c r="E6">
-        <v>1.022938129897799</v>
+        <v>1.016263916021944</v>
       </c>
       <c r="F6">
-        <v>1.039020095860464</v>
+        <v>1.033590470107065</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052252733219482</v>
+        <v>1.056752641448441</v>
       </c>
       <c r="J6">
-        <v>1.025247106683411</v>
+        <v>1.01636946949754</v>
       </c>
       <c r="K6">
-        <v>1.054170590810378</v>
+        <v>1.051151859284752</v>
       </c>
       <c r="L6">
-        <v>1.032512933982924</v>
+        <v>1.025913254659487</v>
       </c>
       <c r="M6">
-        <v>1.048420122694846</v>
+        <v>1.043048759869037</v>
       </c>
       <c r="N6">
-        <v>1.026703075172388</v>
+        <v>1.009439933641061</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003730315272713</v>
+        <v>0.9961277744833388</v>
       </c>
       <c r="D7">
-        <v>1.043345319423876</v>
+        <v>1.040857217677895</v>
       </c>
       <c r="E7">
-        <v>1.020630247059123</v>
+        <v>1.015191475373527</v>
       </c>
       <c r="F7">
-        <v>1.036883052469588</v>
+        <v>1.032439142516142</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051775668075003</v>
+        <v>1.056443402400975</v>
       </c>
       <c r="J7">
-        <v>1.023033022217627</v>
+        <v>1.015624926365822</v>
       </c>
       <c r="K7">
-        <v>1.05294446867219</v>
+        <v>1.050483480343166</v>
       </c>
       <c r="L7">
-        <v>1.030482979412025</v>
+        <v>1.025107004884982</v>
       </c>
       <c r="M7">
-        <v>1.046552954201803</v>
+        <v>1.04215833091751</v>
       </c>
       <c r="N7">
-        <v>1.024485846452704</v>
+        <v>1.009189776057604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9915930754987645</v>
+        <v>0.9905610911533158</v>
       </c>
       <c r="D8">
-        <v>1.036924075427369</v>
+        <v>1.036896619731348</v>
       </c>
       <c r="E8">
-        <v>1.010659113075624</v>
+        <v>1.010626586599305</v>
       </c>
       <c r="F8">
-        <v>1.027652034323242</v>
+        <v>1.027523844051231</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049685135896902</v>
+        <v>1.055082937885771</v>
       </c>
       <c r="J8">
-        <v>1.01344798752464</v>
+        <v>1.012446684646604</v>
       </c>
       <c r="K8">
-        <v>1.047626078322905</v>
+        <v>1.047598962279117</v>
       </c>
       <c r="L8">
-        <v>1.021696610011692</v>
+        <v>1.021664512564755</v>
       </c>
       <c r="M8">
-        <v>1.03847002852327</v>
+        <v>1.038343460194658</v>
       </c>
       <c r="N8">
-        <v>1.014887199911034</v>
+        <v>1.008121463920193</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9683968256724274</v>
+        <v>0.9803127286506459</v>
       </c>
       <c r="D9">
-        <v>1.024727106674797</v>
+        <v>1.029527628049326</v>
       </c>
       <c r="E9">
-        <v>0.9916742199356696</v>
+        <v>1.002251468610581</v>
       </c>
       <c r="F9">
-        <v>1.010093565378224</v>
+        <v>1.018450984040051</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045597676738407</v>
+        <v>1.052421455694056</v>
       </c>
       <c r="J9">
-        <v>0.9951171468604204</v>
+        <v>1.006580376606224</v>
       </c>
       <c r="K9">
-        <v>1.037431349862644</v>
+        <v>1.042159140229503</v>
       </c>
       <c r="L9">
-        <v>1.00490383704355</v>
+        <v>1.015308122618626</v>
       </c>
       <c r="M9">
-        <v>1.023024976990069</v>
+        <v>1.031251635378621</v>
       </c>
       <c r="N9">
-        <v>0.9965303273504944</v>
+        <v>1.006148018758817</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9514212948074566</v>
+        <v>0.9731533031071045</v>
       </c>
       <c r="D10">
-        <v>1.015886251709307</v>
+        <v>1.024334287737806</v>
       </c>
       <c r="E10">
-        <v>0.9778479371066358</v>
+        <v>0.996423990573193</v>
       </c>
       <c r="F10">
-        <v>0.9973286463748384</v>
+        <v>1.012101960344824</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.042555773959247</v>
+        <v>1.050461049929103</v>
       </c>
       <c r="J10">
-        <v>0.9817042852031949</v>
+        <v>1.002474109094655</v>
       </c>
       <c r="K10">
-        <v>1.029974479136459</v>
+        <v>1.038277652711468</v>
       </c>
       <c r="L10">
-        <v>0.9926290137666947</v>
+        <v>1.010858112548169</v>
       </c>
       <c r="M10">
-        <v>1.011746301027931</v>
+        <v>1.026256094755422</v>
       </c>
       <c r="N10">
-        <v>0.9830984178912386</v>
+        <v>1.004765760769986</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9436297617791112</v>
+        <v>0.9699678722746056</v>
       </c>
       <c r="D11">
-        <v>1.011857711469794</v>
+        <v>1.022014472590362</v>
       </c>
       <c r="E11">
-        <v>0.9715228758796287</v>
+        <v>0.9938375924980777</v>
       </c>
       <c r="F11">
-        <v>0.9914973803443214</v>
+        <v>1.009275766755191</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041150875904111</v>
+        <v>1.049565972643267</v>
       </c>
       <c r="J11">
-        <v>0.9755513451363284</v>
+        <v>1.000645683204342</v>
       </c>
       <c r="K11">
-        <v>1.026559420477795</v>
+        <v>1.036532836288267</v>
       </c>
       <c r="L11">
-        <v>0.9870025809273237</v>
+        <v>1.008876666089697</v>
       </c>
       <c r="M11">
-        <v>1.006581444927732</v>
+        <v>1.024024850388639</v>
       </c>
       <c r="N11">
-        <v>0.9769367399437252</v>
+        <v>1.004150100684317</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9406607511182136</v>
+        <v>0.9687711289389649</v>
       </c>
       <c r="D12">
-        <v>1.010327914895923</v>
+        <v>1.021141703866961</v>
       </c>
       <c r="E12">
-        <v>0.969116340167446</v>
+        <v>0.9928669436338057</v>
       </c>
       <c r="F12">
-        <v>0.9892802546822383</v>
+        <v>1.008213895377964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040614554741431</v>
+        <v>1.049226368337563</v>
       </c>
       <c r="J12">
-        <v>0.9732075337245611</v>
+        <v>0.9999585855503342</v>
       </c>
       <c r="K12">
-        <v>1.025259887629318</v>
+        <v>1.035874769709596</v>
       </c>
       <c r="L12">
-        <v>0.9848601451349744</v>
+        <v>1.008132089672718</v>
       </c>
       <c r="M12">
-        <v>1.004615750671174</v>
+        <v>1.023185404065646</v>
       </c>
       <c r="N12">
-        <v>0.9745896000509146</v>
+        <v>1.003918721512188</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9413011592261343</v>
+        <v>0.9690284587492849</v>
       </c>
       <c r="D13">
-        <v>1.010657633213334</v>
+        <v>1.021329424255742</v>
       </c>
       <c r="E13">
-        <v>0.9696352494546905</v>
+        <v>0.9930756090678529</v>
       </c>
       <c r="F13">
-        <v>0.989758248146685</v>
+        <v>1.008442226629592</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040730276053065</v>
+        <v>1.049299540586722</v>
       </c>
       <c r="J13">
-        <v>0.9737130464289032</v>
+        <v>1.00010633578056</v>
       </c>
       <c r="K13">
-        <v>1.025540100960111</v>
+        <v>1.036016383706025</v>
       </c>
       <c r="L13">
-        <v>0.9853221858104633</v>
+        <v>1.008292198464338</v>
       </c>
       <c r="M13">
-        <v>1.005039626595325</v>
+        <v>1.023365957803449</v>
       </c>
       <c r="N13">
-        <v>0.9750958306412794</v>
+        <v>1.00396847715336</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9433859258421857</v>
+        <v>0.9698692294303034</v>
       </c>
       <c r="D14">
-        <v>1.011731960938932</v>
+        <v>1.021942557869028</v>
       </c>
       <c r="E14">
-        <v>0.9713251569106027</v>
+        <v>0.9937575640774967</v>
       </c>
       <c r="F14">
-        <v>0.9913151902872591</v>
+        <v>1.009188242073705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041106847137561</v>
+        <v>1.04953804749826</v>
       </c>
       <c r="J14">
-        <v>0.9753588368072121</v>
+        <v>1.000589051670421</v>
       </c>
       <c r="K14">
-        <v>1.026452653265773</v>
+        <v>1.036478645565521</v>
       </c>
       <c r="L14">
-        <v>0.9868265951012233</v>
+        <v>1.008815296475008</v>
       </c>
       <c r="M14">
-        <v>1.006419955810728</v>
+        <v>1.023955681569681</v>
       </c>
       <c r="N14">
-        <v>0.9767439582307007</v>
+        <v>1.004131030530875</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9446602102669244</v>
+        <v>0.9703854407674382</v>
       </c>
       <c r="D15">
-        <v>1.012389352679536</v>
+        <v>1.022318848017341</v>
       </c>
       <c r="E15">
-        <v>0.9723585863205356</v>
+        <v>0.9941764065848252</v>
       </c>
       <c r="F15">
-        <v>0.9922675178164707</v>
+        <v>1.009646267521768</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04133690360052</v>
+        <v>1.049684048404834</v>
       </c>
       <c r="J15">
-        <v>0.9763649180580931</v>
+        <v>1.000885405425549</v>
       </c>
       <c r="K15">
-        <v>1.027010694715522</v>
+        <v>1.036762129692638</v>
       </c>
       <c r="L15">
-        <v>0.9877463609333721</v>
+        <v>1.00913644578629</v>
       </c>
       <c r="M15">
-        <v>1.007263997874644</v>
+        <v>1.024317603726961</v>
       </c>
       <c r="N15">
-        <v>0.977751468232357</v>
+        <v>1.004230824065019</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.951928400392538</v>
+        <v>0.9733628519459541</v>
       </c>
       <c r="D16">
-        <v>1.016149120835709</v>
+        <v>1.024486714628217</v>
       </c>
       <c r="E16">
-        <v>0.9782600714850065</v>
+        <v>0.9965942731347673</v>
       </c>
       <c r="F16">
-        <v>0.9977087990774892</v>
+        <v>1.012287858632472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042647058188904</v>
+        <v>1.050519463737268</v>
       </c>
       <c r="J16">
-        <v>0.9821048373944619</v>
+        <v>1.002594363200425</v>
       </c>
       <c r="K16">
-        <v>1.03019695375266</v>
+        <v>1.038392071869974</v>
       </c>
       <c r="L16">
-        <v>0.9929953940146851</v>
+        <v>1.010988433052797</v>
       </c>
       <c r="M16">
-        <v>1.012082745665427</v>
+        <v>1.026402703753244</v>
       </c>
       <c r="N16">
-        <v>0.9834995389125614</v>
+        <v>1.004806248935353</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9563638569780294</v>
+        <v>0.9752071664277056</v>
       </c>
       <c r="D17">
-        <v>1.018451708451301</v>
+        <v>1.02582725320088</v>
       </c>
       <c r="E17">
-        <v>0.9818672558469692</v>
+        <v>0.9980937304067795</v>
       </c>
       <c r="F17">
-        <v>1.00103702175931</v>
+        <v>1.013923877121026</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043444546064131</v>
+        <v>1.051030995928661</v>
       </c>
       <c r="J17">
-        <v>0.985608720788455</v>
+        <v>1.003652604862875</v>
       </c>
       <c r="K17">
-        <v>1.032143766489862</v>
+        <v>1.039397100242673</v>
       </c>
       <c r="L17">
-        <v>0.9962008672361348</v>
+        <v>1.012135266194069</v>
       </c>
       <c r="M17">
-        <v>1.015026892626941</v>
+        <v>1.027692096755706</v>
       </c>
       <c r="N17">
-        <v>0.9870083982228748</v>
+        <v>1.005162527422473</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9589090911581174</v>
+        <v>0.9762747390111293</v>
       </c>
       <c r="D18">
-        <v>1.019775685069981</v>
+        <v>1.026602338997312</v>
       </c>
       <c r="E18">
-        <v>0.9839391161353499</v>
+        <v>0.9989622873318189</v>
       </c>
       <c r="F18">
-        <v>1.002949404429766</v>
+        <v>1.014870744520489</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043901340748433</v>
+        <v>1.051324919078403</v>
       </c>
       <c r="J18">
-        <v>0.9876196760608124</v>
+        <v>1.004265024106519</v>
       </c>
       <c r="K18">
-        <v>1.033261577395515</v>
+        <v>1.039977154540634</v>
       </c>
       <c r="L18">
-        <v>0.9980409624948086</v>
+        <v>1.012798957121362</v>
       </c>
       <c r="M18">
-        <v>1.016717420782132</v>
+        <v>1.028437633300284</v>
       </c>
       <c r="N18">
-        <v>0.9890222092823788</v>
+        <v>1.005368694153596</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.959770081588041</v>
+        <v>0.9766373861295365</v>
       </c>
       <c r="D19">
-        <v>1.020223981471334</v>
+        <v>1.026865477136853</v>
       </c>
       <c r="E19">
-        <v>0.9846402878518106</v>
+        <v>0.9992574302312111</v>
       </c>
       <c r="F19">
-        <v>1.003596724047439</v>
+        <v>1.01519236299193</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04405571269622</v>
+        <v>1.051424390911788</v>
       </c>
       <c r="J19">
-        <v>0.9882999748593457</v>
+        <v>1.004473033913072</v>
       </c>
       <c r="K19">
-        <v>1.033639798753176</v>
+        <v>1.040173902674071</v>
       </c>
       <c r="L19">
-        <v>0.9986635245803999</v>
+        <v>1.013024381392174</v>
       </c>
       <c r="M19">
-        <v>1.017289449028312</v>
+        <v>1.028690744379424</v>
       </c>
       <c r="N19">
-        <v>0.9897034741832376</v>
+        <v>1.005438716306482</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9558923649680401</v>
+        <v>0.9750101405068571</v>
       </c>
       <c r="D20">
-        <v>1.018206658639605</v>
+        <v>1.02568413519296</v>
       </c>
       <c r="E20">
-        <v>0.9814836065348774</v>
+        <v>0.9979334820374206</v>
       </c>
       <c r="F20">
-        <v>1.000682962051905</v>
+        <v>1.013749116356334</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043359857219804</v>
+        <v>1.05097657446028</v>
       </c>
       <c r="J20">
-        <v>0.9852362231783017</v>
+        <v>1.00353956826555</v>
       </c>
       <c r="K20">
-        <v>1.031936746414314</v>
+        <v>1.039289909883891</v>
       </c>
       <c r="L20">
-        <v>0.9958600505731947</v>
+        <v>1.012012766262217</v>
       </c>
       <c r="M20">
-        <v>1.014713813016634</v>
+        <v>1.027554437010382</v>
       </c>
       <c r="N20">
-        <v>0.9866353716233891</v>
+        <v>1.005124473061624</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9427741587801675</v>
+        <v>0.9696220229262233</v>
       </c>
       <c r="D21">
-        <v>1.011416550197302</v>
+        <v>1.021762314753553</v>
       </c>
       <c r="E21">
-        <v>0.9708291547895394</v>
+        <v>0.9935570238066014</v>
       </c>
       <c r="F21">
-        <v>0.9908581700169883</v>
+        <v>1.008968897452813</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040996367626933</v>
+        <v>1.049468011650938</v>
       </c>
       <c r="J21">
-        <v>0.9748758610619895</v>
+        <v>1.00044712611318</v>
       </c>
       <c r="K21">
-        <v>1.026184813156212</v>
+        <v>1.036342798810025</v>
       </c>
       <c r="L21">
-        <v>0.9863850855768338</v>
+        <v>1.008661497162284</v>
       </c>
       <c r="M21">
-        <v>1.006014831952222</v>
+        <v>1.023782320521111</v>
       </c>
       <c r="N21">
-        <v>0.9762602966045216</v>
+        <v>1.004083238041775</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9340873899956252</v>
+        <v>0.9661556169772146</v>
       </c>
       <c r="D22">
-        <v>1.006951900383774</v>
+        <v>1.019232147560169</v>
       </c>
       <c r="E22">
-        <v>0.9637957257417989</v>
+        <v>0.9907475732698621</v>
       </c>
       <c r="F22">
-        <v>0.9843816083887332</v>
+        <v>1.005893107674888</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039425750495453</v>
+        <v>1.048478146542277</v>
       </c>
       <c r="J22">
-        <v>0.9680202205919337</v>
+        <v>0.9984566518865732</v>
       </c>
       <c r="K22">
-        <v>1.022386885399157</v>
+        <v>1.034432002952297</v>
       </c>
       <c r="L22">
-        <v>0.9801202103657795</v>
+        <v>1.006504578171571</v>
       </c>
       <c r="M22">
-        <v>1.000268950629019</v>
+        <v>1.021348718000463</v>
       </c>
       <c r="N22">
-        <v>0.9693949203386453</v>
+        <v>1.003412910057662</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9387373374554823</v>
+        <v>0.9680009324297781</v>
       </c>
       <c r="D23">
-        <v>1.00933848743382</v>
+        <v>1.020579681657675</v>
       </c>
       <c r="E23">
-        <v>0.9675584201881449</v>
+        <v>0.9922425601930537</v>
       </c>
       <c r="F23">
-        <v>0.987845425997726</v>
+        <v>1.00753048788872</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040266880338173</v>
+        <v>1.049006881359304</v>
       </c>
       <c r="J23">
-        <v>0.9716894109582265</v>
+        <v>0.9995163426730173</v>
       </c>
       <c r="K23">
-        <v>1.024418609692009</v>
+        <v>1.035450550575532</v>
       </c>
       <c r="L23">
-        <v>0.9834727070153041</v>
+        <v>1.007652860421074</v>
       </c>
       <c r="M23">
-        <v>1.003343079659373</v>
+        <v>1.022644835770133</v>
       </c>
       <c r="N23">
-        <v>0.9730693213761205</v>
+        <v>1.003769790954807</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9561055407419299</v>
+        <v>0.9750991932815872</v>
       </c>
       <c r="D24">
-        <v>1.018317444833622</v>
+        <v>1.025748825130355</v>
       </c>
       <c r="E24">
-        <v>0.9816570600336744</v>
+        <v>0.9980059100435796</v>
       </c>
       <c r="F24">
-        <v>1.000843035343943</v>
+        <v>1.013828106036728</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043398150222953</v>
+        <v>1.05100117890154</v>
       </c>
       <c r="J24">
-        <v>0.9854046397032223</v>
+        <v>1.003590659553776</v>
       </c>
       <c r="K24">
-        <v>1.032030344448798</v>
+        <v>1.039338363610616</v>
       </c>
       <c r="L24">
-        <v>0.9960141420142293</v>
+        <v>1.012068134866136</v>
       </c>
       <c r="M24">
-        <v>1.014855362493641</v>
+        <v>1.027616659717749</v>
       </c>
       <c r="N24">
-        <v>0.986804027319093</v>
+        <v>1.005141673262404</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9746356309538936</v>
+        <v>0.9830173797629828</v>
       </c>
       <c r="D25">
-        <v>1.027995822678878</v>
+        <v>1.031480731651787</v>
       </c>
       <c r="E25">
-        <v>0.9967704364538208</v>
+        <v>1.004458008184161</v>
       </c>
       <c r="F25">
-        <v>1.014803905234323</v>
+        <v>1.020847657757407</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046706508769255</v>
+        <v>1.053141654456128</v>
       </c>
       <c r="J25">
-        <v>1.000047832726334</v>
+        <v>1.008130112240126</v>
       </c>
       <c r="K25">
-        <v>1.040174546149753</v>
+        <v>1.043609243342476</v>
       </c>
       <c r="L25">
-        <v>1.009419094975687</v>
+        <v>1.016987511268968</v>
       </c>
       <c r="M25">
-        <v>1.0271766755048</v>
+        <v>1.033130736737312</v>
       </c>
       <c r="N25">
-        <v>1.001468015355895</v>
+        <v>1.006669522155595</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9890992999454279</v>
+        <v>1.023385068751647</v>
       </c>
       <c r="D2">
-        <v>1.035851178223076</v>
+        <v>1.043585436892055</v>
       </c>
       <c r="E2">
-        <v>1.009429661874985</v>
+        <v>1.034859835735106</v>
       </c>
       <c r="F2">
-        <v>1.026231344029648</v>
+        <v>1.047955900078149</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05471506050967</v>
+        <v>1.036437067706018</v>
       </c>
       <c r="J2">
-        <v>1.011611010287227</v>
+        <v>1.028565585854488</v>
       </c>
       <c r="K2">
-        <v>1.046832660995377</v>
+        <v>1.046358887549175</v>
       </c>
       <c r="L2">
-        <v>1.020759171288063</v>
+        <v>1.037658099075009</v>
       </c>
       <c r="M2">
-        <v>1.037336941328709</v>
+        <v>1.050717091070147</v>
       </c>
       <c r="N2">
-        <v>1.007840454468303</v>
+        <v>1.013565718673979</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9933904667615133</v>
+        <v>1.024299847077426</v>
       </c>
       <c r="D3">
-        <v>1.0389139414165</v>
+        <v>1.044185885886594</v>
       </c>
       <c r="E3">
-        <v>1.01294543764462</v>
+        <v>1.035647395873392</v>
       </c>
       <c r="F3">
-        <v>1.030023570281003</v>
+        <v>1.048770402599349</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055782704278081</v>
+        <v>1.036547826643293</v>
       </c>
       <c r="J3">
-        <v>1.014062950524531</v>
+        <v>1.029118999771919</v>
       </c>
       <c r="K3">
-        <v>1.049071992730571</v>
+        <v>1.046770952161814</v>
       </c>
       <c r="L3">
-        <v>1.023415315937462</v>
+        <v>1.0382549921942</v>
       </c>
       <c r="M3">
-        <v>1.040286182253035</v>
+        <v>1.051343535366301</v>
       </c>
       <c r="N3">
-        <v>1.008664833005178</v>
+        <v>1.013750277036997</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9961126026163249</v>
+        <v>1.024892292105958</v>
       </c>
       <c r="D4">
-        <v>1.040846471034757</v>
+        <v>1.044572859244941</v>
       </c>
       <c r="E4">
-        <v>1.015179019361928</v>
+        <v>1.036157429088871</v>
       </c>
       <c r="F4">
-        <v>1.032425762276157</v>
+        <v>1.049296926171565</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05643978657047</v>
+        <v>1.036616997160368</v>
       </c>
       <c r="J4">
-        <v>1.015616273872835</v>
+        <v>1.029477011433194</v>
       </c>
       <c r="K4">
-        <v>1.050475695747547</v>
+        <v>1.047035335644918</v>
       </c>
       <c r="L4">
-        <v>1.025097634789997</v>
+        <v>1.038640995729939</v>
       </c>
       <c r="M4">
-        <v>1.042147975408377</v>
+        <v>1.051747722940824</v>
       </c>
       <c r="N4">
-        <v>1.009186868665643</v>
+        <v>1.013869622249261</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9972443844794706</v>
+        <v>1.025141479862231</v>
       </c>
       <c r="D5">
-        <v>1.04164737000719</v>
+        <v>1.044735167688048</v>
       </c>
       <c r="E5">
-        <v>1.016108419803512</v>
+        <v>1.036371948104555</v>
       </c>
       <c r="F5">
-        <v>1.03342362078886</v>
+        <v>1.049518151510465</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056708060714289</v>
+        <v>1.036645477193856</v>
       </c>
       <c r="J5">
-        <v>1.016261568001749</v>
+        <v>1.029627498302021</v>
       </c>
       <c r="K5">
-        <v>1.051055179119513</v>
+        <v>1.047145941835028</v>
       </c>
       <c r="L5">
-        <v>1.025796415800664</v>
+        <v>1.038803216075573</v>
       </c>
       <c r="M5">
-        <v>1.042919797627882</v>
+        <v>1.051917362872507</v>
       </c>
       <c r="N5">
-        <v>1.009403682785795</v>
+        <v>1.013919776289624</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.997433689260268</v>
+        <v>1.025183326812532</v>
       </c>
       <c r="D6">
-        <v>1.041781175335203</v>
+        <v>1.044762397921908</v>
       </c>
       <c r="E6">
-        <v>1.016263916021944</v>
+        <v>1.03640797266772</v>
       </c>
       <c r="F6">
-        <v>1.033590470107065</v>
+        <v>1.049555288816392</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056752641448441</v>
+        <v>1.036650223939825</v>
       </c>
       <c r="J6">
-        <v>1.01636946949754</v>
+        <v>1.029652764432567</v>
       </c>
       <c r="K6">
-        <v>1.051151859284752</v>
+        <v>1.047164481339715</v>
       </c>
       <c r="L6">
-        <v>1.025913254659487</v>
+        <v>1.038830450288087</v>
       </c>
       <c r="M6">
-        <v>1.043048759869037</v>
+        <v>1.05194582965731</v>
       </c>
       <c r="N6">
-        <v>1.009439933641061</v>
+        <v>1.013928196266239</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9961277744833388</v>
+        <v>1.02489562127972</v>
       </c>
       <c r="D7">
-        <v>1.040857217677895</v>
+        <v>1.044575029495427</v>
       </c>
       <c r="E7">
-        <v>1.015191475373527</v>
+        <v>1.036160295107541</v>
       </c>
       <c r="F7">
-        <v>1.032439142516142</v>
+        <v>1.04929988268992</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056443402400975</v>
+        <v>1.03661738006823</v>
       </c>
       <c r="J7">
-        <v>1.015624926365822</v>
+        <v>1.029479022330918</v>
       </c>
       <c r="K7">
-        <v>1.050483480343166</v>
+        <v>1.047036815697124</v>
       </c>
       <c r="L7">
-        <v>1.025107004884982</v>
+        <v>1.03864316354614</v>
       </c>
       <c r="M7">
-        <v>1.04215833091751</v>
+        <v>1.051749990782628</v>
       </c>
       <c r="N7">
-        <v>1.009189776057604</v>
+        <v>1.013870292483936</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9905610911533158</v>
+        <v>1.023694113525804</v>
       </c>
       <c r="D8">
-        <v>1.036896619731348</v>
+        <v>1.043788682491779</v>
       </c>
       <c r="E8">
-        <v>1.010626586599305</v>
+        <v>1.035125905503853</v>
       </c>
       <c r="F8">
-        <v>1.027523844051231</v>
+        <v>1.048231270186549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055082937885771</v>
+        <v>1.036475015676046</v>
       </c>
       <c r="J8">
-        <v>1.012446684646604</v>
+        <v>1.028752631450287</v>
       </c>
       <c r="K8">
-        <v>1.047598962279117</v>
+        <v>1.046498611370726</v>
       </c>
       <c r="L8">
-        <v>1.021664512564755</v>
+        <v>1.037859867913003</v>
       </c>
       <c r="M8">
-        <v>1.038343460194658</v>
+        <v>1.050929040675104</v>
       </c>
       <c r="N8">
-        <v>1.008121463920193</v>
+        <v>1.013628106614608</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9803127286506459</v>
+        <v>1.021580954743713</v>
       </c>
       <c r="D9">
-        <v>1.029527628049326</v>
+        <v>1.042391213495345</v>
       </c>
       <c r="E9">
-        <v>1.002251468610581</v>
+        <v>1.033306539523106</v>
       </c>
       <c r="F9">
-        <v>1.018450984040051</v>
+        <v>1.046344393919148</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052421455694056</v>
+        <v>1.036205074382693</v>
       </c>
       <c r="J9">
-        <v>1.006580376606224</v>
+        <v>1.027472041128935</v>
       </c>
       <c r="K9">
-        <v>1.042159140229503</v>
+        <v>1.045533082305144</v>
       </c>
       <c r="L9">
-        <v>1.015308122618626</v>
+        <v>1.036477928822416</v>
       </c>
       <c r="M9">
-        <v>1.031251635378621</v>
+        <v>1.049473592140324</v>
       </c>
       <c r="N9">
-        <v>1.006148018758817</v>
+        <v>1.013200776620715</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9731533031071045</v>
+        <v>1.020174973877969</v>
       </c>
       <c r="D10">
-        <v>1.024334287737806</v>
+        <v>1.04145175234375</v>
       </c>
       <c r="E10">
-        <v>0.996423990573193</v>
+        <v>1.032095986937694</v>
       </c>
       <c r="F10">
-        <v>1.012101960344824</v>
+        <v>1.045084014185421</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050461049929103</v>
+        <v>1.0360123587411</v>
       </c>
       <c r="J10">
-        <v>1.002474109094655</v>
+        <v>1.02661797634811</v>
       </c>
       <c r="K10">
-        <v>1.038277652711468</v>
+        <v>1.044877984868486</v>
       </c>
       <c r="L10">
-        <v>1.010858112548169</v>
+        <v>1.035555592326848</v>
       </c>
       <c r="M10">
-        <v>1.026256094755422</v>
+        <v>1.048497467550641</v>
       </c>
       <c r="N10">
-        <v>1.004765760769986</v>
+        <v>1.0129155316632</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9699678722746056</v>
+        <v>1.01956684460077</v>
       </c>
       <c r="D11">
-        <v>1.022014472590362</v>
+        <v>1.041043129613477</v>
       </c>
       <c r="E11">
-        <v>0.9938375924980777</v>
+        <v>1.031572384056553</v>
       </c>
       <c r="F11">
-        <v>1.009275766755191</v>
+        <v>1.044537697152602</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049565972643267</v>
+        <v>1.035925900161599</v>
       </c>
       <c r="J11">
-        <v>1.000645683204342</v>
+        <v>1.026248089784796</v>
       </c>
       <c r="K11">
-        <v>1.036532836288267</v>
+        <v>1.04459163758389</v>
       </c>
       <c r="L11">
-        <v>1.008876666089697</v>
+        <v>1.035155979504879</v>
       </c>
       <c r="M11">
-        <v>1.024024850388639</v>
+        <v>1.048073435955354</v>
       </c>
       <c r="N11">
-        <v>1.004150100684317</v>
+        <v>1.012791937282401</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9687711289389649</v>
+        <v>1.019341059990264</v>
       </c>
       <c r="D12">
-        <v>1.021141703866961</v>
+        <v>1.040891076218107</v>
       </c>
       <c r="E12">
-        <v>0.9928669436338057</v>
+        <v>1.031377982547419</v>
       </c>
       <c r="F12">
-        <v>1.008213895377964</v>
+        <v>1.044334687890625</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049226368337563</v>
+        <v>1.035893334287914</v>
       </c>
       <c r="J12">
-        <v>0.9999585855503342</v>
+        <v>1.026110687817823</v>
       </c>
       <c r="K12">
-        <v>1.035874769709596</v>
+        <v>1.044484873794102</v>
       </c>
       <c r="L12">
-        <v>1.008132089672718</v>
+        <v>1.035007511504573</v>
       </c>
       <c r="M12">
-        <v>1.023185404065646</v>
+        <v>1.04791572872163</v>
       </c>
       <c r="N12">
-        <v>1.003918721512188</v>
+        <v>1.012746016969684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9690284587492849</v>
+        <v>1.019389486937384</v>
       </c>
       <c r="D13">
-        <v>1.021329424255742</v>
+        <v>1.040923704493739</v>
       </c>
       <c r="E13">
-        <v>0.9930756090678529</v>
+        <v>1.031419678326815</v>
       </c>
       <c r="F13">
-        <v>1.008442226629592</v>
+        <v>1.044378237781221</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049299540586722</v>
+        <v>1.035900340183085</v>
       </c>
       <c r="J13">
-        <v>1.00010633578056</v>
+        <v>1.026140161425531</v>
       </c>
       <c r="K13">
-        <v>1.036016383706025</v>
+        <v>1.044507793135924</v>
       </c>
       <c r="L13">
-        <v>1.008292198464338</v>
+        <v>1.035039359912581</v>
       </c>
       <c r="M13">
-        <v>1.023365957803449</v>
+        <v>1.047949566617163</v>
       </c>
       <c r="N13">
-        <v>1.00396847715336</v>
+        <v>1.012755867563139</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9698692294303034</v>
+        <v>1.01954817909405</v>
       </c>
       <c r="D14">
-        <v>1.021942557869028</v>
+        <v>1.041030566383183</v>
       </c>
       <c r="E14">
-        <v>0.9937575640774967</v>
+        <v>1.031556312964403</v>
       </c>
       <c r="F14">
-        <v>1.009188242073705</v>
+        <v>1.044520918021173</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04953804749826</v>
+        <v>1.03592321745641</v>
       </c>
       <c r="J14">
-        <v>1.000589051670421</v>
+        <v>1.026236732285874</v>
       </c>
       <c r="K14">
-        <v>1.036478645565521</v>
+        <v>1.044582820638843</v>
       </c>
       <c r="L14">
-        <v>1.008815296475008</v>
+        <v>1.035143707779845</v>
       </c>
       <c r="M14">
-        <v>1.023955681569681</v>
+        <v>1.048060403957483</v>
       </c>
       <c r="N14">
-        <v>1.004131030530875</v>
+        <v>1.012788141734723</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9703854407674382</v>
+        <v>1.019645968074622</v>
       </c>
       <c r="D15">
-        <v>1.022318848017341</v>
+        <v>1.041096371447364</v>
       </c>
       <c r="E15">
-        <v>0.9941764065848252</v>
+        <v>1.031640509771934</v>
       </c>
       <c r="F15">
-        <v>1.009646267521768</v>
+        <v>1.04460881711451</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049684048404834</v>
+        <v>1.035937253130293</v>
       </c>
       <c r="J15">
-        <v>1.000885405425549</v>
+        <v>1.026296231534769</v>
       </c>
       <c r="K15">
-        <v>1.036762129692638</v>
+        <v>1.04462899439077</v>
       </c>
       <c r="L15">
-        <v>1.00913644578629</v>
+        <v>1.035207995477611</v>
       </c>
       <c r="M15">
-        <v>1.024317603726961</v>
+        <v>1.048128667652054</v>
       </c>
       <c r="N15">
-        <v>1.004230824065019</v>
+        <v>1.012808025357155</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9733628519459541</v>
+        <v>1.020215347616173</v>
       </c>
       <c r="D16">
-        <v>1.024486714628217</v>
+        <v>1.041478832923724</v>
       </c>
       <c r="E16">
-        <v>0.9965942731347673</v>
+        <v>1.03213074897651</v>
       </c>
       <c r="F16">
-        <v>1.012287858632472</v>
+        <v>1.045120259728737</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050519463737268</v>
+        <v>1.036018033361346</v>
       </c>
       <c r="J16">
-        <v>1.002594363200425</v>
+        <v>1.02664252309505</v>
       </c>
       <c r="K16">
-        <v>1.038392071869974</v>
+        <v>1.04489693236693</v>
       </c>
       <c r="L16">
-        <v>1.010988433052797</v>
+        <v>1.035582108473539</v>
       </c>
       <c r="M16">
-        <v>1.026402703753244</v>
+        <v>1.048525580562898</v>
       </c>
       <c r="N16">
-        <v>1.004806248935353</v>
+        <v>1.012923732531805</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9752071664277056</v>
+        <v>1.020572684412656</v>
       </c>
       <c r="D17">
-        <v>1.02582725320088</v>
+        <v>1.041718252558563</v>
       </c>
       <c r="E17">
-        <v>0.9980937304067795</v>
+        <v>1.032438418002059</v>
       </c>
       <c r="F17">
-        <v>1.013923877121026</v>
+        <v>1.045440924500852</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051030995928661</v>
+        <v>1.03606789922019</v>
       </c>
       <c r="J17">
-        <v>1.003652604862875</v>
+        <v>1.026859724388249</v>
       </c>
       <c r="K17">
-        <v>1.039397100242673</v>
+        <v>1.04506428503626</v>
       </c>
       <c r="L17">
-        <v>1.012135266194069</v>
+        <v>1.035816717671763</v>
       </c>
       <c r="M17">
-        <v>1.027692096755706</v>
+        <v>1.048774189844278</v>
       </c>
       <c r="N17">
-        <v>1.005162527422473</v>
+        <v>1.012996291051103</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9762747390111293</v>
+        <v>1.020781177467085</v>
       </c>
       <c r="D18">
-        <v>1.026602338997312</v>
+        <v>1.041857725281028</v>
       </c>
       <c r="E18">
-        <v>0.9989622873318189</v>
+        <v>1.032617931450227</v>
       </c>
       <c r="F18">
-        <v>1.014870744520489</v>
+        <v>1.045627908259124</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051324919078403</v>
+        <v>1.036096694497611</v>
       </c>
       <c r="J18">
-        <v>1.004265024106519</v>
+        <v>1.026986407321082</v>
       </c>
       <c r="K18">
-        <v>1.039977154540634</v>
+        <v>1.045161639756379</v>
       </c>
       <c r="L18">
-        <v>1.012798957121362</v>
+        <v>1.035953538483523</v>
       </c>
       <c r="M18">
-        <v>1.028437633300284</v>
+        <v>1.048919067783507</v>
       </c>
       <c r="N18">
-        <v>1.005368694153596</v>
+        <v>1.013038605325615</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9766373861295365</v>
+        <v>1.020852279126579</v>
       </c>
       <c r="D19">
-        <v>1.026865477136853</v>
+        <v>1.041905251836535</v>
       </c>
       <c r="E19">
-        <v>0.9992574302312111</v>
+        <v>1.03267915022924</v>
       </c>
       <c r="F19">
-        <v>1.01519236299193</v>
+        <v>1.045691655570476</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051424390911788</v>
+        <v>1.036106463611919</v>
       </c>
       <c r="J19">
-        <v>1.004473033913072</v>
+        <v>1.027029601724771</v>
       </c>
       <c r="K19">
-        <v>1.040173902674071</v>
+        <v>1.045194791168381</v>
       </c>
       <c r="L19">
-        <v>1.013024381392174</v>
+        <v>1.036000186943489</v>
       </c>
       <c r="M19">
-        <v>1.028690744379424</v>
+        <v>1.048968445032292</v>
       </c>
       <c r="N19">
-        <v>1.005438716306482</v>
+        <v>1.013053032051251</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9750101405068571</v>
+        <v>1.020534338872093</v>
       </c>
       <c r="D20">
-        <v>1.02568413519296</v>
+        <v>1.041692583358513</v>
       </c>
       <c r="E20">
-        <v>0.9979334820374206</v>
+        <v>1.032405402294539</v>
       </c>
       <c r="F20">
-        <v>1.013749116356334</v>
+        <v>1.045406525836359</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05097657446028</v>
+        <v>1.036062579138926</v>
       </c>
       <c r="J20">
-        <v>1.00353956826555</v>
+        <v>1.026836421452042</v>
       </c>
       <c r="K20">
-        <v>1.039289909883891</v>
+        <v>1.045046356481717</v>
       </c>
       <c r="L20">
-        <v>1.012012766262217</v>
+        <v>1.035791548670243</v>
       </c>
       <c r="M20">
-        <v>1.027554437010382</v>
+        <v>1.048747530025211</v>
       </c>
       <c r="N20">
-        <v>1.005124473061624</v>
+        <v>1.012988507021221</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9696220229262233</v>
+        <v>1.019501445393817</v>
       </c>
       <c r="D21">
-        <v>1.021762314753553</v>
+        <v>1.040999105731103</v>
       </c>
       <c r="E21">
-        <v>0.9935570238066014</v>
+        <v>1.031516075029331</v>
       </c>
       <c r="F21">
-        <v>1.008968897452813</v>
+        <v>1.044478904516299</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049468011650938</v>
+        <v>1.035916493118958</v>
       </c>
       <c r="J21">
-        <v>1.00044712611318</v>
+        <v>1.026208294832087</v>
       </c>
       <c r="K21">
-        <v>1.036342798810025</v>
+        <v>1.044560737982276</v>
       </c>
       <c r="L21">
-        <v>1.008661497162284</v>
+        <v>1.035112980862017</v>
       </c>
       <c r="M21">
-        <v>1.023782320521111</v>
+        <v>1.048027770713373</v>
       </c>
       <c r="N21">
-        <v>1.004083238041775</v>
+        <v>1.012778638119883</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9661556169772146</v>
+        <v>1.018852613082645</v>
       </c>
       <c r="D22">
-        <v>1.019232147560169</v>
+        <v>1.040561512018963</v>
       </c>
       <c r="E22">
-        <v>0.9907475732698621</v>
+        <v>1.030957429120528</v>
       </c>
       <c r="F22">
-        <v>1.005893107674888</v>
+        <v>1.043895194140521</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048478146542277</v>
+        <v>1.035822032458076</v>
       </c>
       <c r="J22">
-        <v>0.9984566518865732</v>
+        <v>1.025813311491309</v>
       </c>
       <c r="K22">
-        <v>1.034432002952297</v>
+        <v>1.044253087380566</v>
       </c>
       <c r="L22">
-        <v>1.006504578171571</v>
+        <v>1.034686142242961</v>
       </c>
       <c r="M22">
-        <v>1.021348718000463</v>
+        <v>1.04757405573118</v>
       </c>
       <c r="N22">
-        <v>1.003412910057662</v>
+        <v>1.012646616798488</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9680009324297781</v>
+        <v>1.019196515199945</v>
       </c>
       <c r="D23">
-        <v>1.020579681657675</v>
+        <v>1.040793637462392</v>
       </c>
       <c r="E23">
-        <v>0.9922425601930537</v>
+        <v>1.031253529059222</v>
       </c>
       <c r="F23">
-        <v>1.00753048788872</v>
+        <v>1.044204674708619</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049006881359304</v>
+        <v>1.035872354923127</v>
       </c>
       <c r="J23">
-        <v>0.9995163426730173</v>
+        <v>1.02602270452714</v>
       </c>
       <c r="K23">
-        <v>1.035450550575532</v>
+        <v>1.044416398366549</v>
       </c>
       <c r="L23">
-        <v>1.007652860421074</v>
+        <v>1.034912435626128</v>
       </c>
       <c r="M23">
-        <v>1.022644835770133</v>
+        <v>1.047814689292678</v>
       </c>
       <c r="N23">
-        <v>1.003769790954807</v>
+        <v>1.012716610158148</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9750991932815872</v>
+        <v>1.02055166537193</v>
       </c>
       <c r="D24">
-        <v>1.025748825130355</v>
+        <v>1.041704182711252</v>
       </c>
       <c r="E24">
-        <v>0.9980059100435796</v>
+        <v>1.032420320500869</v>
       </c>
       <c r="F24">
-        <v>1.013828106036728</v>
+        <v>1.045422069280963</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05100117890154</v>
+        <v>1.036064983952738</v>
       </c>
       <c r="J24">
-        <v>1.003590659553776</v>
+        <v>1.02684695106727</v>
       </c>
       <c r="K24">
-        <v>1.039338363610616</v>
+        <v>1.045054458424997</v>
       </c>
       <c r="L24">
-        <v>1.012068134866136</v>
+        <v>1.035802921529086</v>
       </c>
       <c r="M24">
-        <v>1.027616659717749</v>
+        <v>1.048759576856793</v>
       </c>
       <c r="N24">
-        <v>1.005141673262404</v>
+        <v>1.012992024313652</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9830173797629828</v>
+        <v>1.022126769841063</v>
       </c>
       <c r="D25">
-        <v>1.031480731651787</v>
+        <v>1.042753880004794</v>
       </c>
       <c r="E25">
-        <v>1.004458008184161</v>
+        <v>1.033776480787627</v>
       </c>
       <c r="F25">
-        <v>1.020847657757407</v>
+        <v>1.046832639545364</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053141654456128</v>
+        <v>1.03627711396376</v>
       </c>
       <c r="J25">
-        <v>1.008130112240126</v>
+        <v>1.027803168593636</v>
       </c>
       <c r="K25">
-        <v>1.043609243342476</v>
+        <v>1.045784714398231</v>
       </c>
       <c r="L25">
-        <v>1.016987511268968</v>
+        <v>1.036835383025759</v>
       </c>
       <c r="M25">
-        <v>1.033130736737312</v>
+        <v>1.049850895314679</v>
       </c>
       <c r="N25">
-        <v>1.006669522155595</v>
+        <v>1.013311316516233</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023385068751647</v>
+        <v>0.9890992999454288</v>
       </c>
       <c r="D2">
-        <v>1.043585436892055</v>
+        <v>1.035851178223076</v>
       </c>
       <c r="E2">
-        <v>1.034859835735106</v>
+        <v>1.009429661874986</v>
       </c>
       <c r="F2">
-        <v>1.047955900078149</v>
+        <v>1.026231344029648</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036437067706018</v>
+        <v>1.05471506050967</v>
       </c>
       <c r="J2">
-        <v>1.028565585854488</v>
+        <v>1.011611010287227</v>
       </c>
       <c r="K2">
-        <v>1.046358887549175</v>
+        <v>1.046832660995377</v>
       </c>
       <c r="L2">
-        <v>1.037658099075009</v>
+        <v>1.020759171288064</v>
       </c>
       <c r="M2">
-        <v>1.050717091070147</v>
+        <v>1.03733694132871</v>
       </c>
       <c r="N2">
-        <v>1.013565718673979</v>
+        <v>1.007840454468303</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.024299847077426</v>
+        <v>0.9933904667615135</v>
       </c>
       <c r="D3">
-        <v>1.044185885886594</v>
+        <v>1.038913941416501</v>
       </c>
       <c r="E3">
-        <v>1.035647395873392</v>
+        <v>1.01294543764462</v>
       </c>
       <c r="F3">
-        <v>1.048770402599349</v>
+        <v>1.030023570281004</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036547826643293</v>
+        <v>1.055782704278081</v>
       </c>
       <c r="J3">
-        <v>1.029118999771919</v>
+        <v>1.014062950524531</v>
       </c>
       <c r="K3">
-        <v>1.046770952161814</v>
+        <v>1.049071992730571</v>
       </c>
       <c r="L3">
-        <v>1.0382549921942</v>
+        <v>1.023415315937462</v>
       </c>
       <c r="M3">
-        <v>1.051343535366301</v>
+        <v>1.040286182253035</v>
       </c>
       <c r="N3">
-        <v>1.013750277036997</v>
+        <v>1.008664833005178</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024892292105958</v>
+        <v>0.9961126026163245</v>
       </c>
       <c r="D4">
-        <v>1.044572859244941</v>
+        <v>1.040846471034757</v>
       </c>
       <c r="E4">
-        <v>1.036157429088871</v>
+        <v>1.015179019361927</v>
       </c>
       <c r="F4">
-        <v>1.049296926171565</v>
+        <v>1.032425762276157</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036616997160368</v>
+        <v>1.05643978657047</v>
       </c>
       <c r="J4">
-        <v>1.029477011433194</v>
+        <v>1.015616273872835</v>
       </c>
       <c r="K4">
-        <v>1.047035335644918</v>
+        <v>1.050475695747547</v>
       </c>
       <c r="L4">
-        <v>1.038640995729939</v>
+        <v>1.025097634789996</v>
       </c>
       <c r="M4">
-        <v>1.051747722940824</v>
+        <v>1.042147975408376</v>
       </c>
       <c r="N4">
-        <v>1.013869622249261</v>
+        <v>1.009186868665643</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.025141479862231</v>
+        <v>0.9972443844794709</v>
       </c>
       <c r="D5">
-        <v>1.044735167688048</v>
+        <v>1.04164737000719</v>
       </c>
       <c r="E5">
-        <v>1.036371948104555</v>
+        <v>1.016108419803513</v>
       </c>
       <c r="F5">
-        <v>1.049518151510465</v>
+        <v>1.033423620788861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036645477193856</v>
+        <v>1.056708060714289</v>
       </c>
       <c r="J5">
-        <v>1.029627498302021</v>
+        <v>1.016261568001749</v>
       </c>
       <c r="K5">
-        <v>1.047145941835028</v>
+        <v>1.051055179119513</v>
       </c>
       <c r="L5">
-        <v>1.038803216075573</v>
+        <v>1.025796415800664</v>
       </c>
       <c r="M5">
-        <v>1.051917362872507</v>
+        <v>1.042919797627882</v>
       </c>
       <c r="N5">
-        <v>1.013919776289624</v>
+        <v>1.009403682785795</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.025183326812532</v>
+        <v>0.9974336892602679</v>
       </c>
       <c r="D6">
-        <v>1.044762397921908</v>
+        <v>1.041781175335203</v>
       </c>
       <c r="E6">
-        <v>1.03640797266772</v>
+        <v>1.016263916021944</v>
       </c>
       <c r="F6">
-        <v>1.049555288816392</v>
+        <v>1.033590470107064</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036650223939825</v>
+        <v>1.056752641448441</v>
       </c>
       <c r="J6">
-        <v>1.029652764432567</v>
+        <v>1.01636946949754</v>
       </c>
       <c r="K6">
-        <v>1.047164481339715</v>
+        <v>1.051151859284752</v>
       </c>
       <c r="L6">
-        <v>1.038830450288087</v>
+        <v>1.025913254659487</v>
       </c>
       <c r="M6">
-        <v>1.05194582965731</v>
+        <v>1.043048759869036</v>
       </c>
       <c r="N6">
-        <v>1.013928196266239</v>
+        <v>1.009439933641061</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02489562127972</v>
+        <v>0.9961277744833382</v>
       </c>
       <c r="D7">
-        <v>1.044575029495427</v>
+        <v>1.040857217677895</v>
       </c>
       <c r="E7">
-        <v>1.036160295107541</v>
+        <v>1.015191475373527</v>
       </c>
       <c r="F7">
-        <v>1.04929988268992</v>
+        <v>1.032439142516142</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03661738006823</v>
+        <v>1.056443402400975</v>
       </c>
       <c r="J7">
-        <v>1.029479022330918</v>
+        <v>1.015624926365821</v>
       </c>
       <c r="K7">
-        <v>1.047036815697124</v>
+        <v>1.050483480343166</v>
       </c>
       <c r="L7">
-        <v>1.03864316354614</v>
+        <v>1.025107004884982</v>
       </c>
       <c r="M7">
-        <v>1.051749990782628</v>
+        <v>1.042158330917509</v>
       </c>
       <c r="N7">
-        <v>1.013870292483936</v>
+        <v>1.009189776057604</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023694113525804</v>
+        <v>0.9905610911533163</v>
       </c>
       <c r="D8">
-        <v>1.043788682491779</v>
+        <v>1.036896619731349</v>
       </c>
       <c r="E8">
-        <v>1.035125905503853</v>
+        <v>1.010626586599305</v>
       </c>
       <c r="F8">
-        <v>1.048231270186549</v>
+        <v>1.027523844051232</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036475015676046</v>
+        <v>1.055082937885771</v>
       </c>
       <c r="J8">
-        <v>1.028752631450287</v>
+        <v>1.012446684646604</v>
       </c>
       <c r="K8">
-        <v>1.046498611370726</v>
+        <v>1.047598962279118</v>
       </c>
       <c r="L8">
-        <v>1.037859867913003</v>
+        <v>1.021664512564755</v>
       </c>
       <c r="M8">
-        <v>1.050929040675104</v>
+        <v>1.038343460194659</v>
       </c>
       <c r="N8">
-        <v>1.013628106614608</v>
+        <v>1.008121463920193</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021580954743713</v>
+        <v>0.9803127286506462</v>
       </c>
       <c r="D9">
-        <v>1.042391213495345</v>
+        <v>1.029527628049327</v>
       </c>
       <c r="E9">
-        <v>1.033306539523106</v>
+        <v>1.002251468610582</v>
       </c>
       <c r="F9">
-        <v>1.046344393919148</v>
+        <v>1.018450984040051</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036205074382693</v>
+        <v>1.052421455694056</v>
       </c>
       <c r="J9">
-        <v>1.027472041128935</v>
+        <v>1.006580376606224</v>
       </c>
       <c r="K9">
-        <v>1.045533082305144</v>
+        <v>1.042159140229503</v>
       </c>
       <c r="L9">
-        <v>1.036477928822416</v>
+        <v>1.015308122618626</v>
       </c>
       <c r="M9">
-        <v>1.049473592140324</v>
+        <v>1.031251635378621</v>
       </c>
       <c r="N9">
-        <v>1.013200776620715</v>
+        <v>1.006148018758817</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020174973877969</v>
+        <v>0.973153303107105</v>
       </c>
       <c r="D10">
-        <v>1.04145175234375</v>
+        <v>1.024334287737805</v>
       </c>
       <c r="E10">
-        <v>1.032095986937694</v>
+        <v>0.9964239905731934</v>
       </c>
       <c r="F10">
-        <v>1.045084014185421</v>
+        <v>1.012101960344825</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.0360123587411</v>
+        <v>1.050461049929103</v>
       </c>
       <c r="J10">
-        <v>1.02661797634811</v>
+        <v>1.002474109094656</v>
       </c>
       <c r="K10">
-        <v>1.044877984868486</v>
+        <v>1.038277652711468</v>
       </c>
       <c r="L10">
-        <v>1.035555592326848</v>
+        <v>1.01085811254817</v>
       </c>
       <c r="M10">
-        <v>1.048497467550641</v>
+        <v>1.026256094755422</v>
       </c>
       <c r="N10">
-        <v>1.0129155316632</v>
+        <v>1.004765760769986</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.01956684460077</v>
+        <v>0.9699678722746063</v>
       </c>
       <c r="D11">
-        <v>1.041043129613477</v>
+        <v>1.022014472590363</v>
       </c>
       <c r="E11">
-        <v>1.031572384056553</v>
+        <v>0.9938375924980782</v>
       </c>
       <c r="F11">
-        <v>1.044537697152602</v>
+        <v>1.009275766755191</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035925900161599</v>
+        <v>1.049565972643268</v>
       </c>
       <c r="J11">
-        <v>1.026248089784796</v>
+        <v>1.000645683204342</v>
       </c>
       <c r="K11">
-        <v>1.04459163758389</v>
+        <v>1.036532836288268</v>
       </c>
       <c r="L11">
-        <v>1.035155979504879</v>
+        <v>1.008876666089698</v>
       </c>
       <c r="M11">
-        <v>1.048073435955354</v>
+        <v>1.02402485038864</v>
       </c>
       <c r="N11">
-        <v>1.012791937282401</v>
+        <v>1.004150100684317</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.019341059990264</v>
+        <v>0.9687711289389643</v>
       </c>
       <c r="D12">
-        <v>1.040891076218107</v>
+        <v>1.021141703866962</v>
       </c>
       <c r="E12">
-        <v>1.031377982547419</v>
+        <v>0.9928669436338051</v>
       </c>
       <c r="F12">
-        <v>1.044334687890625</v>
+        <v>1.008213895377964</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035893334287914</v>
+        <v>1.049226368337563</v>
       </c>
       <c r="J12">
-        <v>1.026110687817823</v>
+        <v>0.9999585855503339</v>
       </c>
       <c r="K12">
-        <v>1.044484873794102</v>
+        <v>1.035874769709596</v>
       </c>
       <c r="L12">
-        <v>1.035007511504573</v>
+        <v>1.008132089672717</v>
       </c>
       <c r="M12">
-        <v>1.04791572872163</v>
+        <v>1.023185404065647</v>
       </c>
       <c r="N12">
-        <v>1.012746016969684</v>
+        <v>1.003918721512188</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019389486937384</v>
+        <v>0.9690284587492851</v>
       </c>
       <c r="D13">
-        <v>1.040923704493739</v>
+        <v>1.021329424255742</v>
       </c>
       <c r="E13">
-        <v>1.031419678326815</v>
+        <v>0.993075609067853</v>
       </c>
       <c r="F13">
-        <v>1.044378237781221</v>
+        <v>1.008442226629592</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035900340183085</v>
+        <v>1.049299540586722</v>
       </c>
       <c r="J13">
-        <v>1.026140161425531</v>
+        <v>1.00010633578056</v>
       </c>
       <c r="K13">
-        <v>1.044507793135924</v>
+        <v>1.036016383706025</v>
       </c>
       <c r="L13">
-        <v>1.035039359912581</v>
+        <v>1.008292198464338</v>
       </c>
       <c r="M13">
-        <v>1.047949566617163</v>
+        <v>1.023365957803449</v>
       </c>
       <c r="N13">
-        <v>1.012755867563139</v>
+        <v>1.00396847715336</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01954817909405</v>
+        <v>0.9698692294303031</v>
       </c>
       <c r="D14">
-        <v>1.041030566383183</v>
+        <v>1.021942557869028</v>
       </c>
       <c r="E14">
-        <v>1.031556312964403</v>
+        <v>0.9937575640774964</v>
       </c>
       <c r="F14">
-        <v>1.044520918021173</v>
+        <v>1.009188242073705</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03592321745641</v>
+        <v>1.04953804749826</v>
       </c>
       <c r="J14">
-        <v>1.026236732285874</v>
+        <v>1.00058905167042</v>
       </c>
       <c r="K14">
-        <v>1.044582820638843</v>
+        <v>1.036478645565521</v>
       </c>
       <c r="L14">
-        <v>1.035143707779845</v>
+        <v>1.008815296475008</v>
       </c>
       <c r="M14">
-        <v>1.048060403957483</v>
+        <v>1.02395568156968</v>
       </c>
       <c r="N14">
-        <v>1.012788141734723</v>
+        <v>1.004131030530875</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019645968074622</v>
+        <v>0.9703854407674377</v>
       </c>
       <c r="D15">
-        <v>1.041096371447364</v>
+        <v>1.022318848017341</v>
       </c>
       <c r="E15">
-        <v>1.031640509771934</v>
+        <v>0.9941764065848246</v>
       </c>
       <c r="F15">
-        <v>1.04460881711451</v>
+        <v>1.009646267521768</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035937253130293</v>
+        <v>1.049684048404834</v>
       </c>
       <c r="J15">
-        <v>1.026296231534769</v>
+        <v>1.000885405425548</v>
       </c>
       <c r="K15">
-        <v>1.04462899439077</v>
+        <v>1.036762129692638</v>
       </c>
       <c r="L15">
-        <v>1.035207995477611</v>
+        <v>1.009136445786289</v>
       </c>
       <c r="M15">
-        <v>1.048128667652054</v>
+        <v>1.024317603726961</v>
       </c>
       <c r="N15">
-        <v>1.012808025357155</v>
+        <v>1.004230824065019</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020215347616173</v>
+        <v>0.9733628519459538</v>
       </c>
       <c r="D16">
-        <v>1.041478832923724</v>
+        <v>1.024486714628216</v>
       </c>
       <c r="E16">
-        <v>1.03213074897651</v>
+        <v>0.9965942731347669</v>
       </c>
       <c r="F16">
-        <v>1.045120259728737</v>
+        <v>1.012287858632472</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036018033361346</v>
+        <v>1.050519463737268</v>
       </c>
       <c r="J16">
-        <v>1.02664252309505</v>
+        <v>1.002594363200425</v>
       </c>
       <c r="K16">
-        <v>1.04489693236693</v>
+        <v>1.038392071869974</v>
       </c>
       <c r="L16">
-        <v>1.035582108473539</v>
+        <v>1.010988433052796</v>
       </c>
       <c r="M16">
-        <v>1.048525580562898</v>
+        <v>1.026402703753244</v>
       </c>
       <c r="N16">
-        <v>1.012923732531805</v>
+        <v>1.004806248935352</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020572684412656</v>
+        <v>0.9752071664277052</v>
       </c>
       <c r="D17">
-        <v>1.041718252558563</v>
+        <v>1.02582725320088</v>
       </c>
       <c r="E17">
-        <v>1.032438418002059</v>
+        <v>0.9980937304067791</v>
       </c>
       <c r="F17">
-        <v>1.045440924500852</v>
+        <v>1.013923877121025</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03606789922019</v>
+        <v>1.051030995928661</v>
       </c>
       <c r="J17">
-        <v>1.026859724388249</v>
+        <v>1.003652604862874</v>
       </c>
       <c r="K17">
-        <v>1.04506428503626</v>
+        <v>1.039397100242672</v>
       </c>
       <c r="L17">
-        <v>1.035816717671763</v>
+        <v>1.012135266194068</v>
       </c>
       <c r="M17">
-        <v>1.048774189844278</v>
+        <v>1.027692096755705</v>
       </c>
       <c r="N17">
-        <v>1.012996291051103</v>
+        <v>1.005162527422473</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020781177467085</v>
+        <v>0.9762747390111292</v>
       </c>
       <c r="D18">
-        <v>1.041857725281028</v>
+        <v>1.026602338997312</v>
       </c>
       <c r="E18">
-        <v>1.032617931450227</v>
+        <v>0.9989622873318189</v>
       </c>
       <c r="F18">
-        <v>1.045627908259124</v>
+        <v>1.014870744520489</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036096694497611</v>
+        <v>1.051324919078403</v>
       </c>
       <c r="J18">
-        <v>1.026986407321082</v>
+        <v>1.004265024106519</v>
       </c>
       <c r="K18">
-        <v>1.045161639756379</v>
+        <v>1.039977154540634</v>
       </c>
       <c r="L18">
-        <v>1.035953538483523</v>
+        <v>1.012798957121362</v>
       </c>
       <c r="M18">
-        <v>1.048919067783507</v>
+        <v>1.028437633300284</v>
       </c>
       <c r="N18">
-        <v>1.013038605325615</v>
+        <v>1.005368694153596</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020852279126579</v>
+        <v>0.9766373861295365</v>
       </c>
       <c r="D19">
-        <v>1.041905251836535</v>
+        <v>1.026865477136854</v>
       </c>
       <c r="E19">
-        <v>1.03267915022924</v>
+        <v>0.9992574302312112</v>
       </c>
       <c r="F19">
-        <v>1.045691655570476</v>
+        <v>1.01519236299193</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036106463611919</v>
+        <v>1.051424390911788</v>
       </c>
       <c r="J19">
-        <v>1.027029601724771</v>
+        <v>1.004473033913072</v>
       </c>
       <c r="K19">
-        <v>1.045194791168381</v>
+        <v>1.040173902674071</v>
       </c>
       <c r="L19">
-        <v>1.036000186943489</v>
+        <v>1.013024381392174</v>
       </c>
       <c r="M19">
-        <v>1.048968445032292</v>
+        <v>1.028690744379424</v>
       </c>
       <c r="N19">
-        <v>1.013053032051251</v>
+        <v>1.005438716306482</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020534338872093</v>
+        <v>0.9750101405068575</v>
       </c>
       <c r="D20">
-        <v>1.041692583358513</v>
+        <v>1.02568413519296</v>
       </c>
       <c r="E20">
-        <v>1.032405402294539</v>
+        <v>0.9979334820374213</v>
       </c>
       <c r="F20">
-        <v>1.045406525836359</v>
+        <v>1.013749116356334</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036062579138926</v>
+        <v>1.05097657446028</v>
       </c>
       <c r="J20">
-        <v>1.026836421452042</v>
+        <v>1.003539568265551</v>
       </c>
       <c r="K20">
-        <v>1.045046356481717</v>
+        <v>1.039289909883891</v>
       </c>
       <c r="L20">
-        <v>1.035791548670243</v>
+        <v>1.012012766262217</v>
       </c>
       <c r="M20">
-        <v>1.048747530025211</v>
+        <v>1.027554437010382</v>
       </c>
       <c r="N20">
-        <v>1.012988507021221</v>
+        <v>1.005124473061624</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019501445393817</v>
+        <v>0.9696220229262237</v>
       </c>
       <c r="D21">
-        <v>1.040999105731103</v>
+        <v>1.021762314753553</v>
       </c>
       <c r="E21">
-        <v>1.031516075029331</v>
+        <v>0.9935570238066018</v>
       </c>
       <c r="F21">
-        <v>1.044478904516299</v>
+        <v>1.008968897452813</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035916493118958</v>
+        <v>1.049468011650938</v>
       </c>
       <c r="J21">
-        <v>1.026208294832087</v>
+        <v>1.000447126113181</v>
       </c>
       <c r="K21">
-        <v>1.044560737982276</v>
+        <v>1.036342798810026</v>
       </c>
       <c r="L21">
-        <v>1.035112980862017</v>
+        <v>1.008661497162284</v>
       </c>
       <c r="M21">
-        <v>1.048027770713373</v>
+        <v>1.023782320521111</v>
       </c>
       <c r="N21">
-        <v>1.012778638119883</v>
+        <v>1.004083238041775</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018852613082645</v>
+        <v>0.9661556169772152</v>
       </c>
       <c r="D22">
-        <v>1.040561512018963</v>
+        <v>1.01923214756017</v>
       </c>
       <c r="E22">
-        <v>1.030957429120528</v>
+        <v>0.9907475732698626</v>
       </c>
       <c r="F22">
-        <v>1.043895194140521</v>
+        <v>1.005893107674889</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035822032458076</v>
+        <v>1.048478146542277</v>
       </c>
       <c r="J22">
-        <v>1.025813311491309</v>
+        <v>0.998456651886574</v>
       </c>
       <c r="K22">
-        <v>1.044253087380566</v>
+        <v>1.034432002952298</v>
       </c>
       <c r="L22">
-        <v>1.034686142242961</v>
+        <v>1.006504578171572</v>
       </c>
       <c r="M22">
-        <v>1.04757405573118</v>
+        <v>1.021348718000463</v>
       </c>
       <c r="N22">
-        <v>1.012646616798488</v>
+        <v>1.003412910057662</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019196515199945</v>
+        <v>0.9680009324297778</v>
       </c>
       <c r="D23">
-        <v>1.040793637462392</v>
+        <v>1.020579681657675</v>
       </c>
       <c r="E23">
-        <v>1.031253529059222</v>
+        <v>0.9922425601930529</v>
       </c>
       <c r="F23">
-        <v>1.044204674708619</v>
+        <v>1.00753048788872</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035872354923127</v>
+        <v>1.049006881359304</v>
       </c>
       <c r="J23">
-        <v>1.02602270452714</v>
+        <v>0.9995163426730169</v>
       </c>
       <c r="K23">
-        <v>1.044416398366549</v>
+        <v>1.035450550575532</v>
       </c>
       <c r="L23">
-        <v>1.034912435626128</v>
+        <v>1.007652860421073</v>
       </c>
       <c r="M23">
-        <v>1.047814689292678</v>
+        <v>1.022644835770133</v>
       </c>
       <c r="N23">
-        <v>1.012716610158148</v>
+        <v>1.003769790954807</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.02055166537193</v>
+        <v>0.9750991932815876</v>
       </c>
       <c r="D24">
-        <v>1.041704182711252</v>
+        <v>1.025748825130355</v>
       </c>
       <c r="E24">
-        <v>1.032420320500869</v>
+        <v>0.99800591004358</v>
       </c>
       <c r="F24">
-        <v>1.045422069280963</v>
+        <v>1.013828106036728</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036064983952738</v>
+        <v>1.05100117890154</v>
       </c>
       <c r="J24">
-        <v>1.02684695106727</v>
+        <v>1.003590659553776</v>
       </c>
       <c r="K24">
-        <v>1.045054458424997</v>
+        <v>1.039338363610616</v>
       </c>
       <c r="L24">
-        <v>1.035802921529086</v>
+        <v>1.012068134866137</v>
       </c>
       <c r="M24">
-        <v>1.048759576856793</v>
+        <v>1.027616659717749</v>
       </c>
       <c r="N24">
-        <v>1.012992024313652</v>
+        <v>1.005141673262404</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022126769841063</v>
+        <v>0.9830173797629818</v>
       </c>
       <c r="D25">
-        <v>1.042753880004794</v>
+        <v>1.031480731651786</v>
       </c>
       <c r="E25">
-        <v>1.033776480787627</v>
+        <v>1.00445800818416</v>
       </c>
       <c r="F25">
-        <v>1.046832639545364</v>
+        <v>1.020847657757406</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03627711396376</v>
+        <v>1.053141654456128</v>
       </c>
       <c r="J25">
-        <v>1.027803168593636</v>
+        <v>1.008130112240125</v>
       </c>
       <c r="K25">
-        <v>1.045784714398231</v>
+        <v>1.043609243342476</v>
       </c>
       <c r="L25">
-        <v>1.036835383025759</v>
+        <v>1.016987511268967</v>
       </c>
       <c r="M25">
-        <v>1.049850895314679</v>
+        <v>1.033130736737311</v>
       </c>
       <c r="N25">
-        <v>1.013311316516233</v>
+        <v>1.006669522155595</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9890992999454288</v>
+        <v>0.9909719956757526</v>
       </c>
       <c r="D2">
-        <v>1.035851178223076</v>
+        <v>1.03869721364547</v>
       </c>
       <c r="E2">
-        <v>1.009429661874986</v>
+        <v>1.012224059336872</v>
       </c>
       <c r="F2">
-        <v>1.026231344029648</v>
+        <v>1.031840859793721</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05471506050967</v>
+        <v>1.050728529102007</v>
       </c>
       <c r="J2">
-        <v>1.011611010287227</v>
+        <v>1.013426127111048</v>
       </c>
       <c r="K2">
-        <v>1.046832660995377</v>
+        <v>1.049642527242204</v>
       </c>
       <c r="L2">
-        <v>1.020759171288064</v>
+        <v>1.023515680481865</v>
       </c>
       <c r="M2">
-        <v>1.03733694132871</v>
+        <v>1.042873731658506</v>
       </c>
       <c r="N2">
-        <v>1.007840454468303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008312749982045</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.042504070550327</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.046171814789661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9933904667615135</v>
+        <v>0.9948088796562868</v>
       </c>
       <c r="D3">
-        <v>1.038913941416501</v>
+        <v>1.040601533763679</v>
       </c>
       <c r="E3">
-        <v>1.01294543764462</v>
+        <v>1.015092172084989</v>
       </c>
       <c r="F3">
-        <v>1.030023570281004</v>
+        <v>1.034375608290245</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055782704278081</v>
+        <v>1.051081483394161</v>
       </c>
       <c r="J3">
-        <v>1.014062950524531</v>
+        <v>1.015442067212408</v>
       </c>
       <c r="K3">
-        <v>1.049071992730571</v>
+        <v>1.050739986497767</v>
       </c>
       <c r="L3">
-        <v>1.023415315937462</v>
+        <v>1.025535519998831</v>
       </c>
       <c r="M3">
-        <v>1.040286182253035</v>
+        <v>1.044586757450385</v>
       </c>
       <c r="N3">
-        <v>1.008664833005178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.00900878251836</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.043859810590161</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.046945157656542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9961126026163245</v>
+        <v>0.9972501406294603</v>
       </c>
       <c r="D4">
-        <v>1.040846471034757</v>
+        <v>1.041816300555877</v>
       </c>
       <c r="E4">
-        <v>1.015179019361927</v>
+        <v>1.01692335183761</v>
       </c>
       <c r="F4">
-        <v>1.032425762276157</v>
+        <v>1.035994248141159</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05643978657047</v>
+        <v>1.051296130227384</v>
       </c>
       <c r="J4">
-        <v>1.015616273872835</v>
+        <v>1.016724450620007</v>
       </c>
       <c r="K4">
-        <v>1.050475695747547</v>
+        <v>1.051434934120068</v>
       </c>
       <c r="L4">
-        <v>1.025097634789996</v>
+        <v>1.026821729055583</v>
       </c>
       <c r="M4">
-        <v>1.042147975408376</v>
+        <v>1.045676828213357</v>
       </c>
       <c r="N4">
-        <v>1.009186868665643</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.00945113703752</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044722524005625</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.04743742065584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9972443844794709</v>
+        <v>0.9982679537343139</v>
       </c>
       <c r="D5">
-        <v>1.04164737000719</v>
+        <v>1.04232707268099</v>
       </c>
       <c r="E5">
-        <v>1.016108419803513</v>
+        <v>1.017688698800015</v>
       </c>
       <c r="F5">
-        <v>1.033423620788861</v>
+        <v>1.036671479315291</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056708060714289</v>
+        <v>1.051384908256686</v>
       </c>
       <c r="J5">
-        <v>1.016261568001749</v>
+        <v>1.017259514554439</v>
       </c>
       <c r="K5">
-        <v>1.051055179119513</v>
+        <v>1.051727654461417</v>
       </c>
       <c r="L5">
-        <v>1.025796415800664</v>
+        <v>1.027358854957878</v>
       </c>
       <c r="M5">
-        <v>1.042919797627882</v>
+        <v>1.046132551200087</v>
       </c>
       <c r="N5">
-        <v>1.009403682785795</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009635754775515</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045083196008746</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.047651491104268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9974336892602679</v>
+        <v>0.9984396592432696</v>
       </c>
       <c r="D6">
-        <v>1.041781175335203</v>
+        <v>1.042417693750369</v>
       </c>
       <c r="E6">
-        <v>1.016263916021944</v>
+        <v>1.017818407769785</v>
       </c>
       <c r="F6">
-        <v>1.033590470107064</v>
+        <v>1.036787060842989</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056752641448441</v>
+        <v>1.051401822686529</v>
       </c>
       <c r="J6">
-        <v>1.01636946949754</v>
+        <v>1.017350387877383</v>
       </c>
       <c r="K6">
-        <v>1.051151859284752</v>
+        <v>1.051781640184908</v>
       </c>
       <c r="L6">
-        <v>1.025913254659487</v>
+        <v>1.027450279044949</v>
       </c>
       <c r="M6">
-        <v>1.043048759869036</v>
+        <v>1.046210958887173</v>
       </c>
       <c r="N6">
-        <v>1.009439933641061</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.009667287835507</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045145250042066</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.047698318103701</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9961277744833382</v>
+        <v>0.997267452020091</v>
       </c>
       <c r="D7">
-        <v>1.040857217677895</v>
+        <v>1.041836760628503</v>
       </c>
       <c r="E7">
-        <v>1.015191475373527</v>
+        <v>1.016937714679572</v>
       </c>
       <c r="F7">
-        <v>1.032439142516142</v>
+        <v>1.036009065856171</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056443402400975</v>
+        <v>1.051303201931208</v>
       </c>
       <c r="J7">
-        <v>1.015624926365821</v>
+        <v>1.016735199492145</v>
       </c>
       <c r="K7">
-        <v>1.050483480343166</v>
+        <v>1.051452330017835</v>
       </c>
       <c r="L7">
-        <v>1.025107004884982</v>
+        <v>1.026832991299071</v>
       </c>
       <c r="M7">
-        <v>1.042158330917509</v>
+        <v>1.045688619766756</v>
       </c>
       <c r="N7">
-        <v>1.009189776057604</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009455349177496</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044731856175229</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.047469626506325</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9905610911533163</v>
+        <v>0.99228206193657</v>
       </c>
       <c r="D8">
-        <v>1.036896619731349</v>
+        <v>1.039361046964997</v>
       </c>
       <c r="E8">
-        <v>1.010626586599305</v>
+        <v>1.013203622906895</v>
       </c>
       <c r="F8">
-        <v>1.027523844051232</v>
+        <v>1.032708902349709</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055082937885771</v>
+        <v>1.050857818724361</v>
       </c>
       <c r="J8">
-        <v>1.012446684646604</v>
+        <v>1.014116538825445</v>
       </c>
       <c r="K8">
-        <v>1.047598962279118</v>
+        <v>1.050032991220186</v>
       </c>
       <c r="L8">
-        <v>1.021664512564755</v>
+        <v>1.024207664338478</v>
       </c>
       <c r="M8">
-        <v>1.038343460194659</v>
+        <v>1.043463314348061</v>
       </c>
       <c r="N8">
-        <v>1.008121463920193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008551866892685</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.042970684276228</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.046470570083731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9803127286506462</v>
+        <v>0.9831591264900622</v>
       </c>
       <c r="D9">
-        <v>1.029527628049327</v>
+        <v>1.034840361437104</v>
       </c>
       <c r="E9">
-        <v>1.002251468610582</v>
+        <v>1.006420492721188</v>
       </c>
       <c r="F9">
-        <v>1.018450984040051</v>
+        <v>1.0267143111917</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052421455694056</v>
+        <v>1.049957677471848</v>
       </c>
       <c r="J9">
-        <v>1.006580376606224</v>
+        <v>1.009320924113239</v>
       </c>
       <c r="K9">
-        <v>1.042159140229503</v>
+        <v>1.047392382445385</v>
       </c>
       <c r="L9">
-        <v>1.015308122618626</v>
+        <v>1.019410253756214</v>
       </c>
       <c r="M9">
-        <v>1.031251635378621</v>
+        <v>1.039388341818287</v>
       </c>
       <c r="N9">
-        <v>1.006148018758817</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006893411775678</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.039745620564486</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.04460038739498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.973153303107105</v>
+        <v>0.9768790330470407</v>
       </c>
       <c r="D10">
-        <v>1.024334287737805</v>
+        <v>1.031781905100776</v>
       </c>
       <c r="E10">
-        <v>0.9964239905731934</v>
+        <v>1.001810508900843</v>
       </c>
       <c r="F10">
-        <v>1.012101960344825</v>
+        <v>1.022682924892442</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050461049929103</v>
+        <v>1.049306743647075</v>
       </c>
       <c r="J10">
-        <v>1.002474109094656</v>
+        <v>1.006040998443607</v>
       </c>
       <c r="K10">
-        <v>1.038277652711468</v>
+        <v>1.045600096584741</v>
       </c>
       <c r="L10">
-        <v>1.01085811254817</v>
+        <v>1.016147150813783</v>
       </c>
       <c r="M10">
-        <v>1.026256094755422</v>
+        <v>1.036654363525838</v>
       </c>
       <c r="N10">
-        <v>1.004765760769986</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005761078568973</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03763334569734</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.043349794995861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9699678722746063</v>
+        <v>0.9744678592173333</v>
       </c>
       <c r="D11">
-        <v>1.022014472590363</v>
+        <v>1.030839640649345</v>
       </c>
       <c r="E11">
-        <v>0.9938375924980782</v>
+        <v>1.000215769116863</v>
       </c>
       <c r="F11">
-        <v>1.009275766755191</v>
+        <v>1.021601086722097</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049565972643268</v>
+        <v>1.049177048106585</v>
       </c>
       <c r="J11">
-        <v>1.000645683204342</v>
+        <v>1.00494277830958</v>
       </c>
       <c r="K11">
-        <v>1.036532836288268</v>
+        <v>1.045202494666612</v>
       </c>
       <c r="L11">
-        <v>1.008876666089698</v>
+        <v>1.015133617495217</v>
       </c>
       <c r="M11">
-        <v>1.02402485038864</v>
+        <v>1.036126820279309</v>
       </c>
       <c r="N11">
-        <v>1.004150100684317</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005413334604839</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.03765247879552</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.043101173197666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9687711289389643</v>
+        <v>0.9737005639752309</v>
       </c>
       <c r="D12">
-        <v>1.021141703866962</v>
+        <v>1.030630281561089</v>
       </c>
       <c r="E12">
-        <v>0.9928669436338051</v>
+        <v>0.9997756213901096</v>
       </c>
       <c r="F12">
-        <v>1.008213895377964</v>
+        <v>1.021446989820446</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049226368337563</v>
+        <v>1.049184862651305</v>
       </c>
       <c r="J12">
-        <v>0.9999585855503339</v>
+        <v>1.004661228980446</v>
       </c>
       <c r="K12">
-        <v>1.035874769709596</v>
+        <v>1.045193276026927</v>
       </c>
       <c r="L12">
-        <v>1.008132089672717</v>
+        <v>1.01490712140281</v>
       </c>
       <c r="M12">
-        <v>1.023185404065647</v>
+        <v>1.036174519792354</v>
       </c>
       <c r="N12">
-        <v>1.003918721512188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.005342618789005</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038016855995826</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.043094655453097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9690284587492851</v>
+        <v>0.9741537205643733</v>
       </c>
       <c r="D13">
-        <v>1.021329424255742</v>
+        <v>1.030988397840784</v>
       </c>
       <c r="E13">
-        <v>0.993075609067853</v>
+        <v>1.000201730999218</v>
       </c>
       <c r="F13">
-        <v>1.008442226629592</v>
+        <v>1.02201240826824</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049299540586722</v>
+        <v>1.049311210481841</v>
       </c>
       <c r="J13">
-        <v>1.00010633578056</v>
+        <v>1.00499691208401</v>
       </c>
       <c r="K13">
-        <v>1.036016383706025</v>
+        <v>1.045502928197555</v>
       </c>
       <c r="L13">
-        <v>1.008292198464338</v>
+        <v>1.015281046256814</v>
       </c>
       <c r="M13">
-        <v>1.023365957803449</v>
+        <v>1.036687036091895</v>
       </c>
       <c r="N13">
-        <v>1.00396847715336</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005483497194906</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038698929025609</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.043311119842653</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9698692294303031</v>
+        <v>0.9750239486362348</v>
       </c>
       <c r="D14">
-        <v>1.021942557869028</v>
+        <v>1.031498141500412</v>
       </c>
       <c r="E14">
-        <v>0.9937575640774964</v>
+        <v>1.000892175822179</v>
       </c>
       <c r="F14">
-        <v>1.009188242073705</v>
+        <v>1.02273432264011</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04953804749826</v>
+        <v>1.049453737231834</v>
       </c>
       <c r="J14">
-        <v>1.00058905167042</v>
+        <v>1.005511180414756</v>
       </c>
       <c r="K14">
-        <v>1.036478645565521</v>
+        <v>1.04586575337669</v>
       </c>
       <c r="L14">
-        <v>1.008815296475008</v>
+        <v>1.015814233405786</v>
       </c>
       <c r="M14">
-        <v>1.02395568156968</v>
+        <v>1.037256295350644</v>
       </c>
       <c r="N14">
-        <v>1.004131030530875</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.00567792743706</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.039322307219562</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.043569052789232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9703854407674377</v>
+        <v>0.9755033936931239</v>
       </c>
       <c r="D15">
-        <v>1.022318848017341</v>
+        <v>1.031752920538286</v>
       </c>
       <c r="E15">
-        <v>0.9941764065848246</v>
+        <v>1.001254083235342</v>
       </c>
       <c r="F15">
-        <v>1.009646267521768</v>
+        <v>1.023077287797996</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049684048404834</v>
+        <v>1.049517452205387</v>
       </c>
       <c r="J15">
-        <v>1.000885405425548</v>
+        <v>1.005774501118892</v>
       </c>
       <c r="K15">
-        <v>1.036762129692638</v>
+        <v>1.046031133399296</v>
       </c>
       <c r="L15">
-        <v>1.009136445786289</v>
+        <v>1.016080591755362</v>
       </c>
       <c r="M15">
-        <v>1.024317603726961</v>
+        <v>1.037507153042734</v>
       </c>
       <c r="N15">
-        <v>1.004230824065019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00577267704533</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.039558131939379</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.043691785739212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9733628519459538</v>
+        <v>0.9780722167662057</v>
       </c>
       <c r="D16">
-        <v>1.024486714628216</v>
+        <v>1.03298658735861</v>
       </c>
       <c r="E16">
-        <v>0.9965942731347669</v>
+        <v>1.003124640362517</v>
       </c>
       <c r="F16">
-        <v>1.012287858632472</v>
+        <v>1.024698827836278</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050519463737268</v>
+        <v>1.049786650553564</v>
       </c>
       <c r="J16">
-        <v>1.002594363200425</v>
+        <v>1.007104007984473</v>
       </c>
       <c r="K16">
-        <v>1.038392071869974</v>
+        <v>1.046749743428262</v>
       </c>
       <c r="L16">
-        <v>1.010988433052796</v>
+        <v>1.017401194111836</v>
       </c>
       <c r="M16">
-        <v>1.026402703753244</v>
+        <v>1.038600599435682</v>
       </c>
       <c r="N16">
-        <v>1.004806248935352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.00622672017712</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040383662200095</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.044202993444269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9752071664277052</v>
+        <v>0.9795884347795114</v>
       </c>
       <c r="D17">
-        <v>1.02582725320088</v>
+        <v>1.033666443496972</v>
       </c>
       <c r="E17">
-        <v>0.9980937304067791</v>
+        <v>1.004199240960078</v>
       </c>
       <c r="F17">
-        <v>1.013923877121025</v>
+        <v>1.025561351023248</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051030995928661</v>
+        <v>1.049915626793365</v>
       </c>
       <c r="J17">
-        <v>1.003652604862874</v>
+        <v>1.007854245156152</v>
       </c>
       <c r="K17">
-        <v>1.039397100242672</v>
+        <v>1.047108850358267</v>
       </c>
       <c r="L17">
-        <v>1.012135266194068</v>
+        <v>1.01813404071225</v>
       </c>
       <c r="M17">
-        <v>1.027692096755705</v>
+        <v>1.039135564718342</v>
       </c>
       <c r="N17">
-        <v>1.005162527422473</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006472945053539</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040677445361587</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.044459453318579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9762747390111292</v>
+        <v>0.9803386515364368</v>
       </c>
       <c r="D18">
-        <v>1.026602338997312</v>
+        <v>1.033913174818917</v>
       </c>
       <c r="E18">
-        <v>0.9989622873318189</v>
+        <v>1.004673576070021</v>
       </c>
       <c r="F18">
-        <v>1.014870744520489</v>
+        <v>1.025818547416189</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051324919078403</v>
+        <v>1.049928873124233</v>
       </c>
       <c r="J18">
-        <v>1.004265024106519</v>
+        <v>1.008165586080282</v>
       </c>
       <c r="K18">
-        <v>1.039977154540634</v>
+        <v>1.047171118731917</v>
       </c>
       <c r="L18">
-        <v>1.012798957121362</v>
+        <v>1.01841212221102</v>
       </c>
       <c r="M18">
-        <v>1.028437633300284</v>
+        <v>1.039206019629022</v>
       </c>
       <c r="N18">
-        <v>1.005368694153596</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006559305461407</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040495391621103</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.044491968845433</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9766373861295365</v>
+        <v>0.9803964363962963</v>
       </c>
       <c r="D19">
-        <v>1.026865477136854</v>
+        <v>1.033787973203398</v>
       </c>
       <c r="E19">
-        <v>0.9992574302312112</v>
+        <v>1.004601703591977</v>
       </c>
       <c r="F19">
-        <v>1.01519236299193</v>
+        <v>1.025527994812993</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051424390911788</v>
+        <v>1.049846506465958</v>
       </c>
       <c r="J19">
-        <v>1.004473033913072</v>
+        <v>1.008081968339417</v>
       </c>
       <c r="K19">
-        <v>1.040173902674071</v>
+        <v>1.046986343253883</v>
       </c>
       <c r="L19">
-        <v>1.013024381392174</v>
+        <v>1.018277355853786</v>
       </c>
       <c r="M19">
-        <v>1.028690744379424</v>
+        <v>1.03885790368203</v>
       </c>
       <c r="N19">
-        <v>1.005438716306482</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006505185787645</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039894533603918</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.044367655775295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9750101405068575</v>
+        <v>0.9785157143875083</v>
       </c>
       <c r="D20">
-        <v>1.02568413519296</v>
+        <v>1.032605781421968</v>
       </c>
       <c r="E20">
-        <v>0.9979334820374213</v>
+        <v>1.003013015726498</v>
       </c>
       <c r="F20">
-        <v>1.013749116356334</v>
+        <v>1.023740030934153</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05097657446028</v>
+        <v>1.049493335543839</v>
       </c>
       <c r="J20">
-        <v>1.003539568265551</v>
+        <v>1.006900699900563</v>
       </c>
       <c r="K20">
-        <v>1.039289909883891</v>
+        <v>1.046098543973419</v>
       </c>
       <c r="L20">
-        <v>1.012012766262217</v>
+        <v>1.017003090982645</v>
       </c>
       <c r="M20">
-        <v>1.027554437010382</v>
+        <v>1.037377901507862</v>
       </c>
       <c r="N20">
-        <v>1.005124473061624</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.006059651391609</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.038195390474773</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.043743837005622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9696220229262237</v>
+        <v>0.9737347961950069</v>
       </c>
       <c r="D21">
-        <v>1.021762314753553</v>
+        <v>1.030239263233059</v>
       </c>
       <c r="E21">
-        <v>0.9935570238066018</v>
+        <v>0.9994845342938918</v>
       </c>
       <c r="F21">
-        <v>1.008968897452813</v>
+        <v>1.020594565778082</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049468011650938</v>
+        <v>1.048954221254487</v>
       </c>
       <c r="J21">
-        <v>1.000447126113181</v>
+        <v>1.004373233232384</v>
       </c>
       <c r="K21">
-        <v>1.036342798810026</v>
+        <v>1.044669530245635</v>
       </c>
       <c r="L21">
-        <v>1.008661497162284</v>
+        <v>1.014475678916172</v>
       </c>
       <c r="M21">
-        <v>1.023782320521111</v>
+        <v>1.035195997194149</v>
       </c>
       <c r="N21">
-        <v>1.004083238041775</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00518085155467</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.036427649717074</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.042736675890107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9661556169772152</v>
+        <v>0.9706895520744039</v>
       </c>
       <c r="D22">
-        <v>1.01923214756017</v>
+        <v>1.028741134887189</v>
       </c>
       <c r="E22">
-        <v>0.9907475732698626</v>
+        <v>0.9972555586580796</v>
       </c>
       <c r="F22">
-        <v>1.005893107674889</v>
+        <v>1.018626849818426</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048478146542277</v>
+        <v>1.048604437025433</v>
       </c>
       <c r="J22">
-        <v>0.998456651886574</v>
+        <v>1.002772378969092</v>
       </c>
       <c r="K22">
-        <v>1.034432002952298</v>
+        <v>1.043763945762741</v>
       </c>
       <c r="L22">
-        <v>1.006504578171572</v>
+        <v>1.01288158022689</v>
       </c>
       <c r="M22">
-        <v>1.021348718000463</v>
+        <v>1.033838121264012</v>
       </c>
       <c r="N22">
-        <v>1.003412910057662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004625033076328</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035352975030095</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.042083033820829</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9680009324297778</v>
+        <v>0.9723060834697776</v>
       </c>
       <c r="D23">
-        <v>1.020579681657675</v>
+        <v>1.029526088480258</v>
       </c>
       <c r="E23">
-        <v>0.9922425601930529</v>
+        <v>0.9984368668950941</v>
       </c>
       <c r="F23">
-        <v>1.00753048788872</v>
+        <v>1.019668360585557</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049006881359304</v>
+        <v>1.048786506859582</v>
       </c>
       <c r="J23">
-        <v>0.9995163426730169</v>
+        <v>1.003620597923584</v>
       </c>
       <c r="K23">
-        <v>1.035450550575532</v>
+        <v>1.044234663331269</v>
       </c>
       <c r="L23">
-        <v>1.007652860421073</v>
+        <v>1.013725822363873</v>
       </c>
       <c r="M23">
-        <v>1.022644835770133</v>
+        <v>1.034555969729082</v>
       </c>
       <c r="N23">
-        <v>1.003769790954807</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004918992223192</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.035921107827091</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.042406312383379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9750991932815876</v>
+        <v>0.9785531796720731</v>
       </c>
       <c r="D24">
-        <v>1.025748825130355</v>
+        <v>1.032587888973875</v>
       </c>
       <c r="E24">
-        <v>0.99800591004358</v>
+        <v>1.003022367363955</v>
       </c>
       <c r="F24">
-        <v>1.013828106036728</v>
+        <v>1.023715512819968</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05100117890154</v>
+        <v>1.049477889286415</v>
       </c>
       <c r="J24">
-        <v>1.003590659553776</v>
+        <v>1.006902556659108</v>
       </c>
       <c r="K24">
-        <v>1.039338363610616</v>
+        <v>1.046065912998679</v>
       </c>
       <c r="L24">
-        <v>1.012068134866137</v>
+        <v>1.016996613922644</v>
       </c>
       <c r="M24">
-        <v>1.027616659717749</v>
+        <v>1.037338575289451</v>
       </c>
       <c r="N24">
-        <v>1.005141673262404</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.006056714107689</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.038123364255411</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.043693647061428</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9830173797629818</v>
+        <v>0.9855650184911748</v>
       </c>
       <c r="D25">
-        <v>1.031480731651786</v>
+        <v>1.036046311925934</v>
       </c>
       <c r="E25">
-        <v>1.00445800818416</v>
+        <v>1.008204860088081</v>
       </c>
       <c r="F25">
-        <v>1.020847657757406</v>
+        <v>1.028293388835887</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053141654456128</v>
+        <v>1.050211936764232</v>
       </c>
       <c r="J25">
-        <v>1.008130112240125</v>
+        <v>1.010588137883955</v>
       </c>
       <c r="K25">
-        <v>1.043609243342476</v>
+        <v>1.04810968760915</v>
       </c>
       <c r="L25">
-        <v>1.016987511268967</v>
+        <v>1.020677127532721</v>
       </c>
       <c r="M25">
-        <v>1.033130736737311</v>
+        <v>1.040467808028177</v>
       </c>
       <c r="N25">
-        <v>1.006669522155595</v>
+        <v>1.007332868666661</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.040599946081698</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.045135842095529</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_9/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9909719956757526</v>
+        <v>0.9913314810319728</v>
       </c>
       <c r="D2">
-        <v>1.03869721364547</v>
+        <v>1.036347981602068</v>
       </c>
       <c r="E2">
-        <v>1.012224059336872</v>
+        <v>1.012187755674164</v>
       </c>
       <c r="F2">
-        <v>1.031840859793721</v>
+        <v>1.030969572694389</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050728529102007</v>
+        <v>1.049763497330528</v>
       </c>
       <c r="J2">
-        <v>1.013426127111048</v>
+        <v>1.013774593855476</v>
       </c>
       <c r="K2">
-        <v>1.049642527242204</v>
+        <v>1.047323132813289</v>
       </c>
       <c r="L2">
-        <v>1.023515680481865</v>
+        <v>1.023479867361242</v>
       </c>
       <c r="M2">
-        <v>1.042873731658506</v>
+        <v>1.042013675549444</v>
       </c>
       <c r="N2">
-        <v>1.008312749982045</v>
+        <v>1.010781362202787</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.042504070550327</v>
+        <v>1.041823395371398</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.046171814789661</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.044540522907756</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.024642626593417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9948088796562868</v>
+        <v>0.9950925251940141</v>
       </c>
       <c r="D3">
-        <v>1.040601533763679</v>
+        <v>1.038115277277638</v>
       </c>
       <c r="E3">
-        <v>1.015092172084989</v>
+        <v>1.014985024758027</v>
       </c>
       <c r="F3">
-        <v>1.034375608290245</v>
+        <v>1.033420353424345</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.051081483394161</v>
+        <v>1.050058704754514</v>
       </c>
       <c r="J3">
-        <v>1.015442067212408</v>
+        <v>1.015717872864052</v>
       </c>
       <c r="K3">
-        <v>1.050739986497767</v>
+        <v>1.048282631217901</v>
       </c>
       <c r="L3">
-        <v>1.025535519998831</v>
+        <v>1.025429693538608</v>
       </c>
       <c r="M3">
-        <v>1.044586757450385</v>
+        <v>1.043642752489534</v>
       </c>
       <c r="N3">
-        <v>1.00900878251836</v>
+        <v>1.01131631566252</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.043859810590161</v>
+        <v>1.043112697035769</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.046945157656542</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.04521604477319</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024798419894662</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9972501406294603</v>
+        <v>0.9974861540500868</v>
       </c>
       <c r="D4">
-        <v>1.041816300555877</v>
+        <v>1.039243230579391</v>
       </c>
       <c r="E4">
-        <v>1.01692335183761</v>
+        <v>1.016771528526214</v>
       </c>
       <c r="F4">
-        <v>1.035994248141159</v>
+        <v>1.034985837097569</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051296130227384</v>
+        <v>1.050236671663291</v>
       </c>
       <c r="J4">
-        <v>1.016724450620007</v>
+        <v>1.016954383593308</v>
       </c>
       <c r="K4">
-        <v>1.051434934120068</v>
+        <v>1.048890016929548</v>
       </c>
       <c r="L4">
-        <v>1.026821729055583</v>
+        <v>1.026671663829295</v>
       </c>
       <c r="M4">
-        <v>1.045676828213357</v>
+        <v>1.04467958292709</v>
       </c>
       <c r="N4">
-        <v>1.00945113703752</v>
+        <v>1.011656402776275</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044722524005625</v>
+        <v>1.043933275387156</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.04743742065584</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.045646481034962</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02489449245045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9982679537343139</v>
+        <v>0.9984842103716688</v>
       </c>
       <c r="D5">
-        <v>1.04232707268099</v>
+        <v>1.039717849464716</v>
       </c>
       <c r="E5">
-        <v>1.017688698800015</v>
+        <v>1.017518311134211</v>
       </c>
       <c r="F5">
-        <v>1.036671479315291</v>
+        <v>1.035640952196383</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051384908256686</v>
+        <v>1.050310153140331</v>
       </c>
       <c r="J5">
-        <v>1.017259514554439</v>
+        <v>1.017470366770166</v>
       </c>
       <c r="K5">
-        <v>1.051727654461417</v>
+        <v>1.049146238373995</v>
       </c>
       <c r="L5">
-        <v>1.027358854957878</v>
+        <v>1.027190387522326</v>
       </c>
       <c r="M5">
-        <v>1.046132551200087</v>
+        <v>1.045113133445479</v>
       </c>
       <c r="N5">
-        <v>1.009635754775515</v>
+        <v>1.011798356789516</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045083196008746</v>
+        <v>1.044276399848933</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.047651491104268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.045835460344966</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02493489699013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9984396592432696</v>
+        <v>0.998652542462851</v>
       </c>
       <c r="D6">
-        <v>1.042417693750369</v>
+        <v>1.039802316651849</v>
       </c>
       <c r="E6">
-        <v>1.017818407769785</v>
+        <v>1.017644856759575</v>
       </c>
       <c r="F6">
-        <v>1.036787060842989</v>
+        <v>1.035752786078731</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051401822686529</v>
+        <v>1.050324463621414</v>
       </c>
       <c r="J6">
-        <v>1.017350387877383</v>
+        <v>1.017557978401983</v>
       </c>
       <c r="K6">
-        <v>1.051781640184908</v>
+        <v>1.049194011207332</v>
       </c>
       <c r="L6">
-        <v>1.027450279044949</v>
+        <v>1.027278674917299</v>
       </c>
       <c r="M6">
-        <v>1.046210958887173</v>
+        <v>1.045187783287222</v>
       </c>
       <c r="N6">
-        <v>1.009667287835507</v>
+        <v>1.011822596464127</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045145250042066</v>
+        <v>1.044335479883743</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.047698318103701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.045878768113255</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024942999705675</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.997267452020091</v>
+        <v>0.997512810839575</v>
       </c>
       <c r="D7">
-        <v>1.041836760628503</v>
+        <v>1.039265370058608</v>
       </c>
       <c r="E7">
-        <v>1.016937714679572</v>
+        <v>1.016793252876864</v>
       </c>
       <c r="F7">
-        <v>1.036009065856171</v>
+        <v>1.035005405322419</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051303201931208</v>
+        <v>1.050244457810339</v>
       </c>
       <c r="J7">
-        <v>1.016735199492145</v>
+        <v>1.01697423979088</v>
       </c>
       <c r="K7">
-        <v>1.051452330017835</v>
+        <v>1.048909063090389</v>
       </c>
       <c r="L7">
-        <v>1.026832991299071</v>
+        <v>1.026690201703496</v>
       </c>
       <c r="M7">
-        <v>1.045688619766756</v>
+        <v>1.044696068236038</v>
       </c>
       <c r="N7">
-        <v>1.009455349177496</v>
+        <v>1.01168831304524</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044731856175229</v>
+        <v>1.043946322342005</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.047469626506325</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.045681863326816</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024899392884207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.99228206193657</v>
+        <v>0.9926455915796878</v>
       </c>
       <c r="D8">
-        <v>1.039361046964997</v>
+        <v>1.036972520084473</v>
       </c>
       <c r="E8">
-        <v>1.013203622906895</v>
+        <v>1.013166981892399</v>
       </c>
       <c r="F8">
-        <v>1.032708902349709</v>
+        <v>1.031824992926579</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050857818724361</v>
+        <v>1.049876247490111</v>
       </c>
       <c r="J8">
-        <v>1.014116538825445</v>
+        <v>1.014469301991831</v>
       </c>
       <c r="K8">
-        <v>1.050032991220186</v>
+        <v>1.047673923729625</v>
       </c>
       <c r="L8">
-        <v>1.024207664338478</v>
+        <v>1.024171503589744</v>
       </c>
       <c r="M8">
-        <v>1.043463314348061</v>
+        <v>1.042590462664791</v>
       </c>
       <c r="N8">
-        <v>1.008551866892685</v>
+        <v>1.011052470856206</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.042970684276228</v>
+        <v>1.042279882720833</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.046470570083731</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.044813507166926</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024702832568248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9831591264900622</v>
+        <v>0.9837116093118612</v>
       </c>
       <c r="D9">
-        <v>1.034840361437104</v>
+        <v>1.032781434669714</v>
       </c>
       <c r="E9">
-        <v>1.006420492721188</v>
+        <v>1.006558673325001</v>
       </c>
       <c r="F9">
-        <v>1.0267143111917</v>
+        <v>1.026034592317377</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.049957677471848</v>
+        <v>1.049114437969043</v>
       </c>
       <c r="J9">
-        <v>1.009320924113239</v>
+        <v>1.009852961290895</v>
       </c>
       <c r="K9">
-        <v>1.047392382445385</v>
+        <v>1.045364138670103</v>
       </c>
       <c r="L9">
-        <v>1.019410253756214</v>
+        <v>1.019546229380332</v>
       </c>
       <c r="M9">
-        <v>1.039388341818287</v>
+        <v>1.038718940298845</v>
       </c>
       <c r="N9">
-        <v>1.006893411775678</v>
+        <v>1.009789388923958</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.039745620564486</v>
+        <v>1.039215833393329</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.04460038739498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.043176940273497</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.024311876524403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9768790330470407</v>
+        <v>0.9776083378731996</v>
       </c>
       <c r="D10">
-        <v>1.031781905100776</v>
+        <v>1.029960205328931</v>
       </c>
       <c r="E10">
-        <v>1.001810508900843</v>
+        <v>1.002105604105437</v>
       </c>
       <c r="F10">
-        <v>1.022682924892442</v>
+        <v>1.022168422611247</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.049306743647075</v>
+        <v>1.048562411225999</v>
       </c>
       <c r="J10">
-        <v>1.006040998443607</v>
+        <v>1.006739412328395</v>
       </c>
       <c r="K10">
-        <v>1.045600096584741</v>
+        <v>1.043808798930332</v>
       </c>
       <c r="L10">
-        <v>1.016147150813783</v>
+        <v>1.016436945006268</v>
       </c>
       <c r="M10">
-        <v>1.036654363525838</v>
+        <v>1.036148631874432</v>
       </c>
       <c r="N10">
-        <v>1.005761078568973</v>
+        <v>1.009050985056893</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03763334569734</v>
+        <v>1.037233116306284</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.043349794995861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.042095558032396</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024041462544053</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9744678592173333</v>
+        <v>0.9753255312851853</v>
       </c>
       <c r="D11">
-        <v>1.030839640649345</v>
+        <v>1.029098776958585</v>
       </c>
       <c r="E11">
-        <v>1.000215769116863</v>
+        <v>1.000618068990734</v>
       </c>
       <c r="F11">
-        <v>1.021601086722097</v>
+        <v>1.021178613573412</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.049177048106585</v>
+        <v>1.048465487647497</v>
       </c>
       <c r="J11">
-        <v>1.00494277830958</v>
+        <v>1.005762084427607</v>
       </c>
       <c r="K11">
-        <v>1.045202494666612</v>
+        <v>1.043492033446107</v>
       </c>
       <c r="L11">
-        <v>1.015133617495217</v>
+        <v>1.015528338841133</v>
       </c>
       <c r="M11">
-        <v>1.036126820279309</v>
+        <v>1.035711887003134</v>
       </c>
       <c r="N11">
-        <v>1.005413334604839</v>
+        <v>1.009037153214507</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.03765247879552</v>
+        <v>1.037324271529001</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.043101173197666</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.041907316819393</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024018087272847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9737005639752309</v>
+        <v>0.9746052443112598</v>
       </c>
       <c r="D12">
-        <v>1.030630281561089</v>
+        <v>1.028904412119892</v>
       </c>
       <c r="E12">
-        <v>0.9997756213901096</v>
+        <v>1.00021677389468</v>
       </c>
       <c r="F12">
-        <v>1.021446989820446</v>
+        <v>1.021055653254248</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.049184862651305</v>
+        <v>1.048479121544049</v>
       </c>
       <c r="J12">
-        <v>1.004661228980446</v>
+        <v>1.005524644422375</v>
       </c>
       <c r="K12">
-        <v>1.045193276026927</v>
+        <v>1.043498037826624</v>
       </c>
       <c r="L12">
-        <v>1.01490712140281</v>
+        <v>1.015339822036927</v>
       </c>
       <c r="M12">
-        <v>1.036174519792354</v>
+        <v>1.035790280264561</v>
       </c>
       <c r="N12">
-        <v>1.005342618789005</v>
+        <v>1.009094729748482</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038016855995826</v>
+        <v>1.037713030196602</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.043094655453097</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.041911561949961</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024040710828727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9741537205643733</v>
+        <v>0.9750308930697487</v>
       </c>
       <c r="D13">
-        <v>1.030988397840784</v>
+        <v>1.029222823150643</v>
       </c>
       <c r="E13">
-        <v>1.000201730999218</v>
+        <v>1.000619284512181</v>
       </c>
       <c r="F13">
-        <v>1.02201240826824</v>
+        <v>1.021598304829618</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.049311210481841</v>
+        <v>1.048589040710157</v>
       </c>
       <c r="J13">
-        <v>1.00499691208401</v>
+        <v>1.005834273325691</v>
       </c>
       <c r="K13">
-        <v>1.045502928197555</v>
+        <v>1.04376855844489</v>
       </c>
       <c r="L13">
-        <v>1.015281046256814</v>
+        <v>1.015690635549386</v>
       </c>
       <c r="M13">
-        <v>1.036687036091895</v>
+        <v>1.036280406944797</v>
       </c>
       <c r="N13">
-        <v>1.005483497194906</v>
+        <v>1.009175485848435</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038698929025609</v>
+        <v>1.038377480260959</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.043311119842653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.042100112607205</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.024105916665526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9750239486362348</v>
+        <v>0.9758486873804435</v>
       </c>
       <c r="D14">
-        <v>1.031498141500412</v>
+        <v>1.029680501653039</v>
       </c>
       <c r="E14">
-        <v>1.000892175822179</v>
+        <v>1.001265496011518</v>
       </c>
       <c r="F14">
-        <v>1.02273432264011</v>
+        <v>1.02228038778925</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.049453737231834</v>
+        <v>1.048710320292081</v>
       </c>
       <c r="J14">
-        <v>1.005511180414756</v>
+        <v>1.006299031830926</v>
       </c>
       <c r="K14">
-        <v>1.04586575337669</v>
+        <v>1.044079848612527</v>
       </c>
       <c r="L14">
-        <v>1.015814233405786</v>
+        <v>1.016180523915115</v>
       </c>
       <c r="M14">
-        <v>1.037256295350644</v>
+        <v>1.036810449436637</v>
       </c>
       <c r="N14">
-        <v>1.00567792743706</v>
+        <v>1.009243720253103</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.039322307219562</v>
+        <v>1.038969904437802</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.043569052789232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.042321744794904</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.024171309915041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9755033936931239</v>
+        <v>0.9762999926529293</v>
       </c>
       <c r="D15">
-        <v>1.031752920538286</v>
+        <v>1.029910700874772</v>
       </c>
       <c r="E15">
-        <v>1.001254083235342</v>
+        <v>1.001603681974096</v>
       </c>
       <c r="F15">
-        <v>1.023077287797996</v>
+        <v>1.02260232804258</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.049517452205387</v>
+        <v>1.048764003941178</v>
       </c>
       <c r="J15">
-        <v>1.005774501118892</v>
+        <v>1.006535787569311</v>
       </c>
       <c r="K15">
-        <v>1.046031133399296</v>
+        <v>1.044220839681209</v>
       </c>
       <c r="L15">
-        <v>1.016080591755362</v>
+        <v>1.016423658636067</v>
       </c>
       <c r="M15">
-        <v>1.037507153042734</v>
+        <v>1.037040592073179</v>
       </c>
       <c r="N15">
-        <v>1.00577267704533</v>
+        <v>1.009269431991032</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.039558131939379</v>
+        <v>1.039189365410309</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.043691785739212</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.042427806539627</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.024198707160473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9780722167662057</v>
+        <v>0.9787323193364016</v>
       </c>
       <c r="D16">
-        <v>1.03298658735861</v>
+        <v>1.031032688068522</v>
       </c>
       <c r="E16">
-        <v>1.003124640362517</v>
+        <v>1.003358441485476</v>
       </c>
       <c r="F16">
-        <v>1.024698827836278</v>
+        <v>1.024120701069619</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.049786650553564</v>
+        <v>1.048987149368934</v>
       </c>
       <c r="J16">
-        <v>1.007104007984473</v>
+        <v>1.007736334786014</v>
       </c>
       <c r="K16">
-        <v>1.046749743428262</v>
+        <v>1.044828265195692</v>
       </c>
       <c r="L16">
-        <v>1.017401194111836</v>
+        <v>1.017630821536229</v>
       </c>
       <c r="M16">
-        <v>1.038600599435682</v>
+        <v>1.038032250051046</v>
       </c>
       <c r="N16">
-        <v>1.00622672017712</v>
+        <v>1.009386695262947</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040383662200095</v>
+        <v>1.039934430010957</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.044202993444269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.042860708351503</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.024304736532635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9795884347795114</v>
+        <v>0.9801827642612239</v>
       </c>
       <c r="D17">
-        <v>1.033666443496972</v>
+        <v>1.031657231925306</v>
       </c>
       <c r="E17">
-        <v>1.004199240960078</v>
+        <v>1.004376596121756</v>
       </c>
       <c r="F17">
-        <v>1.025561351023248</v>
+        <v>1.02493135885659</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.049915626793365</v>
+        <v>1.049093002741367</v>
       </c>
       <c r="J17">
-        <v>1.007854245156152</v>
+        <v>1.008424383169426</v>
       </c>
       <c r="K17">
-        <v>1.047108850358267</v>
+        <v>1.045132065174827</v>
       </c>
       <c r="L17">
-        <v>1.01813404071225</v>
+        <v>1.018308320463587</v>
       </c>
       <c r="M17">
-        <v>1.039135564718342</v>
+        <v>1.038515929933462</v>
       </c>
       <c r="N17">
-        <v>1.006472945053539</v>
+        <v>1.009471117948586</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040677445361587</v>
+        <v>1.040187627561661</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.044459453318579</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.04307831572608</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.024351294456276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9803386515364368</v>
+        <v>0.9809079285814756</v>
       </c>
       <c r="D18">
-        <v>1.033913174818917</v>
+        <v>1.031889254080525</v>
       </c>
       <c r="E18">
-        <v>1.004673576070021</v>
+        <v>1.004829151327127</v>
       </c>
       <c r="F18">
-        <v>1.025818547416189</v>
+        <v>1.025168432813894</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.049928873124233</v>
+        <v>1.049099815765676</v>
       </c>
       <c r="J18">
-        <v>1.008165586080282</v>
+        <v>1.008712133885748</v>
       </c>
       <c r="K18">
-        <v>1.047171118731917</v>
+        <v>1.04517934013484</v>
       </c>
       <c r="L18">
-        <v>1.01841212221102</v>
+        <v>1.018565044740176</v>
       </c>
       <c r="M18">
-        <v>1.039206019629022</v>
+        <v>1.038566421932014</v>
       </c>
       <c r="N18">
-        <v>1.006559305461407</v>
+        <v>1.009492901060351</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040495391621103</v>
+        <v>1.039989687723497</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.044491968845433</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.043099091151177</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02434465183816</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9803964363962963</v>
+        <v>0.9809698394116263</v>
       </c>
       <c r="D19">
-        <v>1.033787973203398</v>
+        <v>1.031783432762005</v>
       </c>
       <c r="E19">
-        <v>1.004601703591977</v>
+        <v>1.004761134022984</v>
       </c>
       <c r="F19">
-        <v>1.025527994812993</v>
+        <v>1.024882765205897</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.049846506465958</v>
+        <v>1.049025404432139</v>
       </c>
       <c r="J19">
-        <v>1.008081968339417</v>
+        <v>1.008632615932491</v>
       </c>
       <c r="K19">
-        <v>1.046986343253883</v>
+        <v>1.045013476934112</v>
       </c>
       <c r="L19">
-        <v>1.018277355853786</v>
+        <v>1.018434081911972</v>
       </c>
       <c r="M19">
-        <v>1.03885790368203</v>
+        <v>1.038223063814196</v>
       </c>
       <c r="N19">
-        <v>1.006505185787645</v>
+        <v>1.009440261726485</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039894533603918</v>
+        <v>1.039392427261149</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.044367655775295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.042988777744691</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.024294320385233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9785157143875083</v>
+        <v>0.9791707081153262</v>
       </c>
       <c r="D20">
-        <v>1.032605781421968</v>
+        <v>1.030713824574624</v>
       </c>
       <c r="E20">
-        <v>1.003013015726498</v>
+        <v>1.003244522296285</v>
       </c>
       <c r="F20">
-        <v>1.023740030934153</v>
+        <v>1.023166789191012</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.049493335543839</v>
+        <v>1.048719654616931</v>
       </c>
       <c r="J20">
-        <v>1.006900699900563</v>
+        <v>1.007528868344498</v>
       </c>
       <c r="K20">
-        <v>1.046098543973419</v>
+        <v>1.044237284129956</v>
       </c>
       <c r="L20">
-        <v>1.017003090982645</v>
+        <v>1.017230559604966</v>
       </c>
       <c r="M20">
-        <v>1.037377901507862</v>
+        <v>1.03681415358386</v>
       </c>
       <c r="N20">
-        <v>1.006059651391609</v>
+        <v>1.009170050401957</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.038195390474773</v>
+        <v>1.0377492423769</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.043743837005622</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.042444257708417</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024119530109307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9737347961950069</v>
+        <v>0.9746621754301327</v>
       </c>
       <c r="D21">
-        <v>1.030239263233059</v>
+        <v>1.02857276071661</v>
       </c>
       <c r="E21">
-        <v>0.9994845342938918</v>
+        <v>0.999947133218084</v>
       </c>
       <c r="F21">
-        <v>1.020594565778082</v>
+        <v>1.02022585801242</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.048954221254487</v>
+        <v>1.04827451534662</v>
       </c>
       <c r="J21">
-        <v>1.004373233232384</v>
+        <v>1.005258833362113</v>
       </c>
       <c r="K21">
-        <v>1.044669530245635</v>
+        <v>1.043032305761674</v>
       </c>
       <c r="L21">
-        <v>1.014475678916172</v>
+        <v>1.014929507246282</v>
       </c>
       <c r="M21">
-        <v>1.035195997194149</v>
+        <v>1.034833916339813</v>
       </c>
       <c r="N21">
-        <v>1.00518085155467</v>
+        <v>1.008963537862645</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.036427649717074</v>
+        <v>1.036141085308734</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.042736675890107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.041595819262319</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.023902082566411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9706895520744039</v>
+        <v>0.971789227268735</v>
       </c>
       <c r="D22">
-        <v>1.028741134887189</v>
+        <v>1.027218545806242</v>
       </c>
       <c r="E22">
-        <v>0.9972555586580796</v>
+        <v>0.997865047503155</v>
       </c>
       <c r="F22">
-        <v>1.018626849818426</v>
+        <v>1.018389271176981</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.048604437025433</v>
+        <v>1.047984560982291</v>
       </c>
       <c r="J22">
-        <v>1.002772378969092</v>
+        <v>1.003819571077943</v>
       </c>
       <c r="K22">
-        <v>1.043763945762741</v>
+        <v>1.042269417959454</v>
       </c>
       <c r="L22">
-        <v>1.01288158022689</v>
+        <v>1.013478917194619</v>
       </c>
       <c r="M22">
-        <v>1.033838121264012</v>
+        <v>1.033605028256259</v>
       </c>
       <c r="N22">
-        <v>1.004625033076328</v>
+        <v>1.008826977006157</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035352975030095</v>
+        <v>1.035168496189064</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.042083033820829</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.041041757542496</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023762709104869</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9723060834697776</v>
+        <v>0.9732983377491273</v>
       </c>
       <c r="D23">
-        <v>1.029526088480258</v>
+        <v>1.027922314876605</v>
       </c>
       <c r="E23">
-        <v>0.9984368668950941</v>
+        <v>0.9989552873174068</v>
       </c>
       <c r="F23">
-        <v>1.019668360585557</v>
+        <v>1.019351779067918</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.048786506859582</v>
+        <v>1.048132936358927</v>
       </c>
       <c r="J23">
-        <v>1.003620597923584</v>
+        <v>1.0045669114961</v>
       </c>
       <c r="K23">
-        <v>1.044234663331269</v>
+        <v>1.042659713199371</v>
       </c>
       <c r="L23">
-        <v>1.013725822363873</v>
+        <v>1.014234176527277</v>
       </c>
       <c r="M23">
-        <v>1.034555969729082</v>
+        <v>1.034245212683284</v>
       </c>
       <c r="N23">
-        <v>1.004918992223192</v>
+        <v>1.008854479922684</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.035921107827091</v>
+        <v>1.035675162842818</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.042406312383379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.041307229791858</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02383284705548</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9785531796720731</v>
+        <v>0.9792075382904377</v>
       </c>
       <c r="D24">
-        <v>1.032587888973875</v>
+        <v>1.03069745078722</v>
       </c>
       <c r="E24">
-        <v>1.003022367363955</v>
+        <v>1.003253496879556</v>
       </c>
       <c r="F24">
-        <v>1.023715512819968</v>
+        <v>1.023142098898003</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.049477889286415</v>
+        <v>1.048704963070582</v>
       </c>
       <c r="J24">
-        <v>1.006902556659108</v>
+        <v>1.007530156752596</v>
       </c>
       <c r="K24">
-        <v>1.046065912998679</v>
+        <v>1.044206109294472</v>
       </c>
       <c r="L24">
-        <v>1.016996613922644</v>
+        <v>1.017223717356112</v>
       </c>
       <c r="M24">
-        <v>1.037338575289451</v>
+        <v>1.036774646463369</v>
       </c>
       <c r="N24">
-        <v>1.006056714107689</v>
+        <v>1.009163682433181</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.038123364255411</v>
+        <v>1.037677050782453</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.043693647061428</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.042392411785825</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02410917945299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9855650184911748</v>
+        <v>0.9860547575010192</v>
       </c>
       <c r="D25">
-        <v>1.036046311925934</v>
+        <v>1.033896635095893</v>
       </c>
       <c r="E25">
-        <v>1.008204860088081</v>
+        <v>1.008286716559041</v>
       </c>
       <c r="F25">
-        <v>1.028293388835887</v>
+        <v>1.027552876156122</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.050211936764232</v>
+        <v>1.049330660895412</v>
       </c>
       <c r="J25">
-        <v>1.010588137883955</v>
+        <v>1.011060724529079</v>
       </c>
       <c r="K25">
-        <v>1.04810968760915</v>
+        <v>1.045990589008754</v>
       </c>
       <c r="L25">
-        <v>1.020677127532721</v>
+        <v>1.020757739644155</v>
       </c>
       <c r="M25">
-        <v>1.040467808028177</v>
+        <v>1.039738012677775</v>
       </c>
       <c r="N25">
-        <v>1.007332868666661</v>
+        <v>1.010090032445657</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.040599946081698</v>
+        <v>1.040022361841797</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.045135842095529</v>
+        <v>1.043650977313747</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.024422009018513</v>
       </c>
     </row>
   </sheetData>
